--- a/tests/VN8413_Data_preview.xlsx
+++ b/tests/VN8413_Data_preview.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="df_data" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="df_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="df_data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="df_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BO151"/>
+  <dimension ref="A1:BU151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,55 +712,85 @@
       </c>
       <c r="BE1" s="1" t="inlineStr">
         <is>
+          <t>Dealer_HCM_01_Rank1</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>Dealer_HCM_01_Rank2</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>Dealer_HCM_01_Rank3</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>Dealer_HCM_02_Rank1</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>Dealer_HCM_02_Rank2</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>Dealer_HCM_02_Rank3</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
           <t>Ma_SP_1</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>Ma_SP_2</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>Ma_SP_3</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>New_FT</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>New_Num</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>New_MA_1</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>New_MA_2</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>New_MA_3</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>New_MA_4</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
         <is>
           <t>New_MA_5</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>New_MA_6</t>
         </is>
@@ -932,22 +962,40 @@
       <c r="BC2" t="inlineStr"/>
       <c r="BD2" t="inlineStr"/>
       <c r="BE2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BF2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BG2" t="n">
         <v>3</v>
       </c>
-      <c r="BH2" t="inlineStr"/>
-      <c r="BI2" t="inlineStr"/>
-      <c r="BJ2" t="inlineStr"/>
-      <c r="BK2" t="inlineStr"/>
-      <c r="BL2" t="inlineStr"/>
-      <c r="BM2" t="inlineStr"/>
+      <c r="BH2" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>3</v>
+      </c>
       <c r="BN2" t="inlineStr"/>
       <c r="BO2" t="inlineStr"/>
+      <c r="BP2" t="inlineStr"/>
+      <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
+      <c r="BS2" t="inlineStr"/>
+      <c r="BT2" t="inlineStr"/>
+      <c r="BU2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1119,22 +1167,40 @@
       <c r="BC3" t="inlineStr"/>
       <c r="BD3" t="inlineStr"/>
       <c r="BE3" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BF3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG3" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH3" t="inlineStr"/>
-      <c r="BI3" t="inlineStr"/>
-      <c r="BJ3" t="inlineStr"/>
-      <c r="BK3" t="inlineStr"/>
-      <c r="BL3" t="inlineStr"/>
-      <c r="BM3" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>3</v>
+      </c>
       <c r="BN3" t="inlineStr"/>
       <c r="BO3" t="inlineStr"/>
+      <c r="BP3" t="inlineStr"/>
+      <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
+      <c r="BS3" t="inlineStr"/>
+      <c r="BT3" t="inlineStr"/>
+      <c r="BU3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -1306,22 +1372,40 @@
         </is>
       </c>
       <c r="BE4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BG4" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH4" t="inlineStr"/>
-      <c r="BI4" t="inlineStr"/>
-      <c r="BJ4" t="inlineStr"/>
-      <c r="BK4" t="inlineStr"/>
-      <c r="BL4" t="inlineStr"/>
-      <c r="BM4" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>3</v>
+      </c>
       <c r="BN4" t="inlineStr"/>
       <c r="BO4" t="inlineStr"/>
+      <c r="BP4" t="inlineStr"/>
+      <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
+      <c r="BS4" t="inlineStr"/>
+      <c r="BT4" t="inlineStr"/>
+      <c r="BU4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -1489,22 +1573,40 @@
       </c>
       <c r="BD5" t="inlineStr"/>
       <c r="BE5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BF5" t="n">
         <v>2</v>
       </c>
       <c r="BG5" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH5" t="inlineStr"/>
-      <c r="BI5" t="inlineStr"/>
-      <c r="BJ5" t="inlineStr"/>
-      <c r="BK5" t="inlineStr"/>
-      <c r="BL5" t="inlineStr"/>
-      <c r="BM5" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>3</v>
+      </c>
       <c r="BN5" t="inlineStr"/>
       <c r="BO5" t="inlineStr"/>
+      <c r="BP5" t="inlineStr"/>
+      <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
+      <c r="BS5" t="inlineStr"/>
+      <c r="BT5" t="inlineStr"/>
+      <c r="BU5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1677,19 +1779,37 @@
         <v>1</v>
       </c>
       <c r="BF6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BG6" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH6" t="inlineStr"/>
-      <c r="BI6" t="inlineStr"/>
-      <c r="BJ6" t="inlineStr"/>
-      <c r="BK6" t="inlineStr"/>
-      <c r="BL6" t="inlineStr"/>
-      <c r="BM6" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>3</v>
+      </c>
       <c r="BN6" t="inlineStr"/>
       <c r="BO6" t="inlineStr"/>
+      <c r="BP6" t="inlineStr"/>
+      <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
+      <c r="BS6" t="inlineStr"/>
+      <c r="BT6" t="inlineStr"/>
+      <c r="BU6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1853,22 +1973,40 @@
         </is>
       </c>
       <c r="BE7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BF7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG7" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH7" t="inlineStr"/>
-      <c r="BI7" t="inlineStr"/>
-      <c r="BJ7" t="inlineStr"/>
-      <c r="BK7" t="inlineStr"/>
-      <c r="BL7" t="inlineStr"/>
-      <c r="BM7" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>3</v>
+      </c>
       <c r="BN7" t="inlineStr"/>
       <c r="BO7" t="inlineStr"/>
+      <c r="BP7" t="inlineStr"/>
+      <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
+      <c r="BS7" t="inlineStr"/>
+      <c r="BT7" t="inlineStr"/>
+      <c r="BU7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -2039,19 +2177,37 @@
         <v>1</v>
       </c>
       <c r="BF8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BG8" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH8" t="inlineStr"/>
-      <c r="BI8" t="inlineStr"/>
-      <c r="BJ8" t="inlineStr"/>
-      <c r="BK8" t="inlineStr"/>
-      <c r="BL8" t="inlineStr"/>
-      <c r="BM8" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>3</v>
+      </c>
       <c r="BN8" t="inlineStr"/>
       <c r="BO8" t="inlineStr"/>
+      <c r="BP8" t="inlineStr"/>
+      <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
+      <c r="BS8" t="inlineStr"/>
+      <c r="BT8" t="inlineStr"/>
+      <c r="BU8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -2221,22 +2377,40 @@
       <c r="BC9" t="inlineStr"/>
       <c r="BD9" t="inlineStr"/>
       <c r="BE9" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BF9" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BG9" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH9" t="inlineStr"/>
-      <c r="BI9" t="inlineStr"/>
-      <c r="BJ9" t="inlineStr"/>
-      <c r="BK9" t="inlineStr"/>
-      <c r="BL9" t="inlineStr"/>
-      <c r="BM9" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>3</v>
+      </c>
       <c r="BN9" t="inlineStr"/>
       <c r="BO9" t="inlineStr"/>
+      <c r="BP9" t="inlineStr"/>
+      <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
+      <c r="BS9" t="inlineStr"/>
+      <c r="BT9" t="inlineStr"/>
+      <c r="BU9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -2411,19 +2585,37 @@
         <v>1</v>
       </c>
       <c r="BF10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BG10" t="n">
         <v>3</v>
       </c>
-      <c r="BH10" t="inlineStr"/>
-      <c r="BI10" t="inlineStr"/>
-      <c r="BJ10" t="inlineStr"/>
-      <c r="BK10" t="inlineStr"/>
-      <c r="BL10" t="inlineStr"/>
-      <c r="BM10" t="inlineStr"/>
+      <c r="BH10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>3</v>
+      </c>
       <c r="BN10" t="inlineStr"/>
       <c r="BO10" t="inlineStr"/>
+      <c r="BP10" t="inlineStr"/>
+      <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
+      <c r="BS10" t="inlineStr"/>
+      <c r="BT10" t="inlineStr"/>
+      <c r="BU10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -2589,22 +2781,40 @@
       <c r="BC11" t="inlineStr"/>
       <c r="BD11" t="inlineStr"/>
       <c r="BE11" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BF11" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BG11" t="n">
         <v>3</v>
       </c>
-      <c r="BH11" t="inlineStr"/>
-      <c r="BI11" t="inlineStr"/>
-      <c r="BJ11" t="inlineStr"/>
-      <c r="BK11" t="inlineStr"/>
-      <c r="BL11" t="inlineStr"/>
-      <c r="BM11" t="inlineStr"/>
+      <c r="BH11" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>3</v>
+      </c>
       <c r="BN11" t="inlineStr"/>
       <c r="BO11" t="inlineStr"/>
+      <c r="BP11" t="inlineStr"/>
+      <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr"/>
+      <c r="BS11" t="inlineStr"/>
+      <c r="BT11" t="inlineStr"/>
+      <c r="BU11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -2768,22 +2978,40 @@
       <c r="BC12" t="inlineStr"/>
       <c r="BD12" t="inlineStr"/>
       <c r="BE12" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BF12" t="n">
         <v>2</v>
       </c>
       <c r="BG12" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH12" t="inlineStr"/>
-      <c r="BI12" t="inlineStr"/>
-      <c r="BJ12" t="inlineStr"/>
-      <c r="BK12" t="inlineStr"/>
-      <c r="BL12" t="inlineStr"/>
-      <c r="BM12" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>3</v>
+      </c>
       <c r="BN12" t="inlineStr"/>
       <c r="BO12" t="inlineStr"/>
+      <c r="BP12" t="inlineStr"/>
+      <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
+      <c r="BS12" t="inlineStr"/>
+      <c r="BT12" t="inlineStr"/>
+      <c r="BU12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -2953,22 +3181,40 @@
       </c>
       <c r="BD13" t="inlineStr"/>
       <c r="BE13" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BF13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG13" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH13" t="inlineStr"/>
-      <c r="BI13" t="inlineStr"/>
-      <c r="BJ13" t="inlineStr"/>
-      <c r="BK13" t="inlineStr"/>
-      <c r="BL13" t="inlineStr"/>
-      <c r="BM13" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>3</v>
+      </c>
       <c r="BN13" t="inlineStr"/>
       <c r="BO13" t="inlineStr"/>
+      <c r="BP13" t="inlineStr"/>
+      <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
+      <c r="BS13" t="inlineStr"/>
+      <c r="BT13" t="inlineStr"/>
+      <c r="BU13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -3132,22 +3378,40 @@
         </is>
       </c>
       <c r="BE14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BF14" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BG14" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH14" t="inlineStr"/>
-      <c r="BI14" t="inlineStr"/>
-      <c r="BJ14" t="inlineStr"/>
-      <c r="BK14" t="inlineStr"/>
-      <c r="BL14" t="inlineStr"/>
-      <c r="BM14" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>3</v>
+      </c>
       <c r="BN14" t="inlineStr"/>
       <c r="BO14" t="inlineStr"/>
+      <c r="BP14" t="inlineStr"/>
+      <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
+      <c r="BS14" t="inlineStr"/>
+      <c r="BT14" t="inlineStr"/>
+      <c r="BU14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -3317,22 +3581,40 @@
       </c>
       <c r="BD15" t="inlineStr"/>
       <c r="BE15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BF15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG15" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH15" t="inlineStr"/>
-      <c r="BI15" t="inlineStr"/>
-      <c r="BJ15" t="inlineStr"/>
-      <c r="BK15" t="inlineStr"/>
-      <c r="BL15" t="inlineStr"/>
-      <c r="BM15" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>3</v>
+      </c>
       <c r="BN15" t="inlineStr"/>
       <c r="BO15" t="inlineStr"/>
+      <c r="BP15" t="inlineStr"/>
+      <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
+      <c r="BS15" t="inlineStr"/>
+      <c r="BT15" t="inlineStr"/>
+      <c r="BU15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -3504,22 +3786,40 @@
       <c r="BC16" t="inlineStr"/>
       <c r="BD16" t="inlineStr"/>
       <c r="BE16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BF16" t="n">
         <v>2</v>
       </c>
       <c r="BG16" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH16" t="inlineStr"/>
-      <c r="BI16" t="inlineStr"/>
-      <c r="BJ16" t="inlineStr"/>
-      <c r="BK16" t="inlineStr"/>
-      <c r="BL16" t="inlineStr"/>
-      <c r="BM16" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>3</v>
+      </c>
       <c r="BN16" t="inlineStr"/>
       <c r="BO16" t="inlineStr"/>
+      <c r="BP16" t="inlineStr"/>
+      <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
+      <c r="BS16" t="inlineStr"/>
+      <c r="BT16" t="inlineStr"/>
+      <c r="BU16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -3691,7 +3991,7 @@
       <c r="BC17" t="inlineStr"/>
       <c r="BD17" t="inlineStr"/>
       <c r="BE17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BF17" t="n">
         <v>2</v>
@@ -3699,14 +3999,32 @@
       <c r="BG17" t="n">
         <v>3</v>
       </c>
-      <c r="BH17" t="inlineStr"/>
-      <c r="BI17" t="inlineStr"/>
-      <c r="BJ17" t="inlineStr"/>
-      <c r="BK17" t="inlineStr"/>
-      <c r="BL17" t="inlineStr"/>
-      <c r="BM17" t="inlineStr"/>
+      <c r="BH17" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>3</v>
+      </c>
       <c r="BN17" t="inlineStr"/>
       <c r="BO17" t="inlineStr"/>
+      <c r="BP17" t="inlineStr"/>
+      <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
+      <c r="BS17" t="inlineStr"/>
+      <c r="BT17" t="inlineStr"/>
+      <c r="BU17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -3872,22 +4190,40 @@
       <c r="BC18" t="inlineStr"/>
       <c r="BD18" t="inlineStr"/>
       <c r="BE18" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BF18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BG18" t="n">
         <v>3</v>
       </c>
-      <c r="BH18" t="inlineStr"/>
-      <c r="BI18" t="inlineStr"/>
-      <c r="BJ18" t="inlineStr"/>
-      <c r="BK18" t="inlineStr"/>
-      <c r="BL18" t="inlineStr"/>
-      <c r="BM18" t="inlineStr"/>
+      <c r="BH18" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>3</v>
+      </c>
       <c r="BN18" t="inlineStr"/>
       <c r="BO18" t="inlineStr"/>
+      <c r="BP18" t="inlineStr"/>
+      <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
+      <c r="BS18" t="inlineStr"/>
+      <c r="BT18" t="inlineStr"/>
+      <c r="BU18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -4055,22 +4391,40 @@
       <c r="BC19" t="inlineStr"/>
       <c r="BD19" t="inlineStr"/>
       <c r="BE19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BF19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG19" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH19" t="inlineStr"/>
-      <c r="BI19" t="inlineStr"/>
-      <c r="BJ19" t="inlineStr"/>
-      <c r="BK19" t="inlineStr"/>
-      <c r="BL19" t="inlineStr"/>
-      <c r="BM19" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>3</v>
+      </c>
       <c r="BN19" t="inlineStr"/>
       <c r="BO19" t="inlineStr"/>
+      <c r="BP19" t="inlineStr"/>
+      <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
+      <c r="BS19" t="inlineStr"/>
+      <c r="BT19" t="inlineStr"/>
+      <c r="BU19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -4236,22 +4590,40 @@
       <c r="BC20" t="inlineStr"/>
       <c r="BD20" t="inlineStr"/>
       <c r="BE20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BF20" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BG20" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH20" t="inlineStr"/>
-      <c r="BI20" t="inlineStr"/>
-      <c r="BJ20" t="inlineStr"/>
-      <c r="BK20" t="inlineStr"/>
-      <c r="BL20" t="inlineStr"/>
-      <c r="BM20" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL20" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM20" t="n">
+        <v>3</v>
+      </c>
       <c r="BN20" t="inlineStr"/>
       <c r="BO20" t="inlineStr"/>
+      <c r="BP20" t="inlineStr"/>
+      <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
+      <c r="BS20" t="inlineStr"/>
+      <c r="BT20" t="inlineStr"/>
+      <c r="BU20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -4423,7 +4795,7 @@
       </c>
       <c r="BD21" t="inlineStr"/>
       <c r="BE21" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BF21" t="n">
         <v>2</v>
@@ -4431,14 +4803,32 @@
       <c r="BG21" t="n">
         <v>3</v>
       </c>
-      <c r="BH21" t="inlineStr"/>
-      <c r="BI21" t="inlineStr"/>
-      <c r="BJ21" t="inlineStr"/>
-      <c r="BK21" t="inlineStr"/>
-      <c r="BL21" t="inlineStr"/>
-      <c r="BM21" t="inlineStr"/>
+      <c r="BH21" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL21" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM21" t="n">
+        <v>3</v>
+      </c>
       <c r="BN21" t="inlineStr"/>
       <c r="BO21" t="inlineStr"/>
+      <c r="BP21" t="inlineStr"/>
+      <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
+      <c r="BS21" t="inlineStr"/>
+      <c r="BT21" t="inlineStr"/>
+      <c r="BU21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -4610,22 +5000,40 @@
       <c r="BC22" t="inlineStr"/>
       <c r="BD22" t="inlineStr"/>
       <c r="BE22" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BF22" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BG22" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH22" t="inlineStr"/>
-      <c r="BI22" t="inlineStr"/>
-      <c r="BJ22" t="inlineStr"/>
-      <c r="BK22" t="inlineStr"/>
-      <c r="BL22" t="inlineStr"/>
-      <c r="BM22" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>3</v>
+      </c>
       <c r="BN22" t="inlineStr"/>
       <c r="BO22" t="inlineStr"/>
+      <c r="BP22" t="inlineStr"/>
+      <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
+      <c r="BS22" t="inlineStr"/>
+      <c r="BT22" t="inlineStr"/>
+      <c r="BU22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -4795,22 +5203,40 @@
       <c r="BC23" t="inlineStr"/>
       <c r="BD23" t="inlineStr"/>
       <c r="BE23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BF23" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BG23" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH23" t="inlineStr"/>
-      <c r="BI23" t="inlineStr"/>
-      <c r="BJ23" t="inlineStr"/>
-      <c r="BK23" t="inlineStr"/>
-      <c r="BL23" t="inlineStr"/>
-      <c r="BM23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ23" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK23" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL23" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM23" t="n">
+        <v>3</v>
+      </c>
       <c r="BN23" t="inlineStr"/>
       <c r="BO23" t="inlineStr"/>
+      <c r="BP23" t="inlineStr"/>
+      <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
+      <c r="BS23" t="inlineStr"/>
+      <c r="BT23" t="inlineStr"/>
+      <c r="BU23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -4978,22 +5404,40 @@
         </is>
       </c>
       <c r="BE24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BF24" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BG24" t="n">
         <v>3</v>
       </c>
-      <c r="BH24" t="inlineStr"/>
-      <c r="BI24" t="inlineStr"/>
-      <c r="BJ24" t="inlineStr"/>
-      <c r="BK24" t="inlineStr"/>
-      <c r="BL24" t="inlineStr"/>
-      <c r="BM24" t="inlineStr"/>
+      <c r="BH24" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ24" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK24" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL24" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM24" t="n">
+        <v>3</v>
+      </c>
       <c r="BN24" t="inlineStr"/>
       <c r="BO24" t="inlineStr"/>
+      <c r="BP24" t="inlineStr"/>
+      <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
+      <c r="BS24" t="inlineStr"/>
+      <c r="BT24" t="inlineStr"/>
+      <c r="BU24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -5165,22 +5609,40 @@
         </is>
       </c>
       <c r="BE25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BG25" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH25" t="inlineStr"/>
-      <c r="BI25" t="inlineStr"/>
-      <c r="BJ25" t="inlineStr"/>
-      <c r="BK25" t="inlineStr"/>
-      <c r="BL25" t="inlineStr"/>
-      <c r="BM25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="BH25" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI25" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ25" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK25" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL25" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM25" t="n">
+        <v>3</v>
+      </c>
       <c r="BN25" t="inlineStr"/>
       <c r="BO25" t="inlineStr"/>
+      <c r="BP25" t="inlineStr"/>
+      <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
+      <c r="BS25" t="inlineStr"/>
+      <c r="BT25" t="inlineStr"/>
+      <c r="BU25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -5348,22 +5810,40 @@
       <c r="BC26" t="inlineStr"/>
       <c r="BD26" t="inlineStr"/>
       <c r="BE26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BG26" t="n">
         <v>3</v>
       </c>
-      <c r="BH26" t="inlineStr"/>
-      <c r="BI26" t="inlineStr"/>
-      <c r="BJ26" t="inlineStr"/>
-      <c r="BK26" t="inlineStr"/>
-      <c r="BL26" t="inlineStr"/>
-      <c r="BM26" t="inlineStr"/>
+      <c r="BH26" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ26" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK26" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL26" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM26" t="n">
+        <v>3</v>
+      </c>
       <c r="BN26" t="inlineStr"/>
       <c r="BO26" t="inlineStr"/>
+      <c r="BP26" t="inlineStr"/>
+      <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
+      <c r="BS26" t="inlineStr"/>
+      <c r="BT26" t="inlineStr"/>
+      <c r="BU26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -5531,22 +6011,40 @@
         </is>
       </c>
       <c r="BE27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BF27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG27" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH27" t="inlineStr"/>
-      <c r="BI27" t="inlineStr"/>
-      <c r="BJ27" t="inlineStr"/>
-      <c r="BK27" t="inlineStr"/>
-      <c r="BL27" t="inlineStr"/>
-      <c r="BM27" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="BH27" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI27" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ27" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK27" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL27" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM27" t="n">
+        <v>3</v>
+      </c>
       <c r="BN27" t="inlineStr"/>
       <c r="BO27" t="inlineStr"/>
+      <c r="BP27" t="inlineStr"/>
+      <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
+      <c r="BS27" t="inlineStr"/>
+      <c r="BT27" t="inlineStr"/>
+      <c r="BU27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -5721,19 +6219,37 @@
         <v>1</v>
       </c>
       <c r="BF28" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BG28" t="n">
         <v>3</v>
       </c>
-      <c r="BH28" t="inlineStr"/>
-      <c r="BI28" t="inlineStr"/>
-      <c r="BJ28" t="inlineStr"/>
-      <c r="BK28" t="inlineStr"/>
-      <c r="BL28" t="inlineStr"/>
-      <c r="BM28" t="inlineStr"/>
+      <c r="BH28" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI28" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ28" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK28" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL28" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM28" t="n">
+        <v>3</v>
+      </c>
       <c r="BN28" t="inlineStr"/>
       <c r="BO28" t="inlineStr"/>
+      <c r="BP28" t="inlineStr"/>
+      <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
+      <c r="BS28" t="inlineStr"/>
+      <c r="BT28" t="inlineStr"/>
+      <c r="BU28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -5905,22 +6421,40 @@
       <c r="BC29" t="inlineStr"/>
       <c r="BD29" t="inlineStr"/>
       <c r="BE29" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BF29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG29" t="n">
         <v>3</v>
       </c>
-      <c r="BH29" t="inlineStr"/>
-      <c r="BI29" t="inlineStr"/>
-      <c r="BJ29" t="inlineStr"/>
-      <c r="BK29" t="inlineStr"/>
-      <c r="BL29" t="inlineStr"/>
-      <c r="BM29" t="inlineStr"/>
+      <c r="BH29" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI29" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ29" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK29" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL29" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM29" t="n">
+        <v>3</v>
+      </c>
       <c r="BN29" t="inlineStr"/>
       <c r="BO29" t="inlineStr"/>
+      <c r="BP29" t="inlineStr"/>
+      <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
+      <c r="BS29" t="inlineStr"/>
+      <c r="BT29" t="inlineStr"/>
+      <c r="BU29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -6092,22 +6626,40 @@
         </is>
       </c>
       <c r="BE30" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BF30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG30" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH30" t="inlineStr"/>
-      <c r="BI30" t="inlineStr"/>
-      <c r="BJ30" t="inlineStr"/>
-      <c r="BK30" t="inlineStr"/>
-      <c r="BL30" t="inlineStr"/>
-      <c r="BM30" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="BH30" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI30" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ30" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK30" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL30" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM30" t="n">
+        <v>3</v>
+      </c>
       <c r="BN30" t="inlineStr"/>
       <c r="BO30" t="inlineStr"/>
+      <c r="BP30" t="inlineStr"/>
+      <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
+      <c r="BS30" t="inlineStr"/>
+      <c r="BT30" t="inlineStr"/>
+      <c r="BU30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -6279,22 +6831,40 @@
         </is>
       </c>
       <c r="BE31" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BF31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG31" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH31" t="inlineStr"/>
-      <c r="BI31" t="inlineStr"/>
-      <c r="BJ31" t="inlineStr"/>
-      <c r="BK31" t="inlineStr"/>
-      <c r="BL31" t="inlineStr"/>
-      <c r="BM31" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="BH31" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI31" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ31" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK31" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL31" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM31" t="n">
+        <v>3</v>
+      </c>
       <c r="BN31" t="inlineStr"/>
       <c r="BO31" t="inlineStr"/>
+      <c r="BP31" t="inlineStr"/>
+      <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
+      <c r="BS31" t="inlineStr"/>
+      <c r="BT31" t="inlineStr"/>
+      <c r="BU31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -6460,22 +7030,40 @@
         </is>
       </c>
       <c r="BE32" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF32" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BG32" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH32" t="inlineStr"/>
-      <c r="BI32" t="inlineStr"/>
-      <c r="BJ32" t="inlineStr"/>
-      <c r="BK32" t="inlineStr"/>
-      <c r="BL32" t="inlineStr"/>
-      <c r="BM32" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="BH32" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI32" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ32" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK32" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL32" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM32" t="n">
+        <v>3</v>
+      </c>
       <c r="BN32" t="inlineStr"/>
       <c r="BO32" t="inlineStr"/>
+      <c r="BP32" t="inlineStr"/>
+      <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
+      <c r="BS32" t="inlineStr"/>
+      <c r="BT32" t="inlineStr"/>
+      <c r="BU32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -6647,22 +7235,40 @@
         </is>
       </c>
       <c r="BE33" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BF33" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BG33" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH33" t="inlineStr"/>
-      <c r="BI33" t="inlineStr"/>
-      <c r="BJ33" t="inlineStr"/>
-      <c r="BK33" t="inlineStr"/>
-      <c r="BL33" t="inlineStr"/>
-      <c r="BM33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="BH33" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI33" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ33" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK33" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL33" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM33" t="n">
+        <v>3</v>
+      </c>
       <c r="BN33" t="inlineStr"/>
       <c r="BO33" t="inlineStr"/>
+      <c r="BP33" t="inlineStr"/>
+      <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
+      <c r="BS33" t="inlineStr"/>
+      <c r="BT33" t="inlineStr"/>
+      <c r="BU33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -6832,22 +7438,40 @@
         </is>
       </c>
       <c r="BE34" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BF34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG34" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH34" t="inlineStr"/>
-      <c r="BI34" t="inlineStr"/>
-      <c r="BJ34" t="inlineStr"/>
-      <c r="BK34" t="inlineStr"/>
-      <c r="BL34" t="inlineStr"/>
-      <c r="BM34" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="BH34" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI34" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ34" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK34" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL34" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM34" t="n">
+        <v>3</v>
+      </c>
       <c r="BN34" t="inlineStr"/>
       <c r="BO34" t="inlineStr"/>
+      <c r="BP34" t="inlineStr"/>
+      <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
+      <c r="BS34" t="inlineStr"/>
+      <c r="BT34" t="inlineStr"/>
+      <c r="BU34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -7019,22 +7643,40 @@
         </is>
       </c>
       <c r="BE35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG35" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH35" t="inlineStr"/>
-      <c r="BI35" t="inlineStr"/>
-      <c r="BJ35" t="inlineStr"/>
-      <c r="BK35" t="inlineStr"/>
-      <c r="BL35" t="inlineStr"/>
-      <c r="BM35" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="BH35" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI35" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ35" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK35" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL35" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM35" t="n">
+        <v>3</v>
+      </c>
       <c r="BN35" t="inlineStr"/>
       <c r="BO35" t="inlineStr"/>
+      <c r="BP35" t="inlineStr"/>
+      <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr"/>
+      <c r="BS35" t="inlineStr"/>
+      <c r="BT35" t="inlineStr"/>
+      <c r="BU35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -7209,19 +7851,37 @@
         <v>1</v>
       </c>
       <c r="BF36" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BG36" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH36" t="inlineStr"/>
-      <c r="BI36" t="inlineStr"/>
-      <c r="BJ36" t="inlineStr"/>
-      <c r="BK36" t="inlineStr"/>
-      <c r="BL36" t="inlineStr"/>
-      <c r="BM36" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="BH36" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI36" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ36" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK36" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL36" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM36" t="n">
+        <v>3</v>
+      </c>
       <c r="BN36" t="inlineStr"/>
       <c r="BO36" t="inlineStr"/>
+      <c r="BP36" t="inlineStr"/>
+      <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
+      <c r="BS36" t="inlineStr"/>
+      <c r="BT36" t="inlineStr"/>
+      <c r="BU36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -7389,22 +8049,40 @@
         </is>
       </c>
       <c r="BE37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF37" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BG37" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH37" t="inlineStr"/>
-      <c r="BI37" t="inlineStr"/>
-      <c r="BJ37" t="inlineStr"/>
-      <c r="BK37" t="inlineStr"/>
-      <c r="BL37" t="inlineStr"/>
-      <c r="BM37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="BH37" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI37" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ37" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK37" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL37" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM37" t="n">
+        <v>3</v>
+      </c>
       <c r="BN37" t="inlineStr"/>
       <c r="BO37" t="inlineStr"/>
+      <c r="BP37" t="inlineStr"/>
+      <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr"/>
+      <c r="BS37" t="inlineStr"/>
+      <c r="BT37" t="inlineStr"/>
+      <c r="BU37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -7576,22 +8254,40 @@
         </is>
       </c>
       <c r="BE38" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BF38" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BG38" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH38" t="inlineStr"/>
-      <c r="BI38" t="inlineStr"/>
-      <c r="BJ38" t="inlineStr"/>
-      <c r="BK38" t="inlineStr"/>
-      <c r="BL38" t="inlineStr"/>
-      <c r="BM38" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="BH38" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI38" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ38" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK38" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL38" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM38" t="n">
+        <v>3</v>
+      </c>
       <c r="BN38" t="inlineStr"/>
       <c r="BO38" t="inlineStr"/>
+      <c r="BP38" t="inlineStr"/>
+      <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
+      <c r="BS38" t="inlineStr"/>
+      <c r="BT38" t="inlineStr"/>
+      <c r="BU38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -7761,22 +8457,40 @@
         </is>
       </c>
       <c r="BE39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BF39" t="n">
         <v>2</v>
       </c>
       <c r="BG39" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH39" t="inlineStr"/>
-      <c r="BI39" t="inlineStr"/>
-      <c r="BJ39" t="inlineStr"/>
-      <c r="BK39" t="inlineStr"/>
-      <c r="BL39" t="inlineStr"/>
-      <c r="BM39" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="BH39" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI39" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ39" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK39" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL39" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM39" t="n">
+        <v>3</v>
+      </c>
       <c r="BN39" t="inlineStr"/>
       <c r="BO39" t="inlineStr"/>
+      <c r="BP39" t="inlineStr"/>
+      <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr"/>
+      <c r="BS39" t="inlineStr"/>
+      <c r="BT39" t="inlineStr"/>
+      <c r="BU39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -7942,22 +8656,40 @@
       <c r="BC40" t="inlineStr"/>
       <c r="BD40" t="inlineStr"/>
       <c r="BE40" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BF40" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BG40" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH40" t="inlineStr"/>
-      <c r="BI40" t="inlineStr"/>
-      <c r="BJ40" t="inlineStr"/>
-      <c r="BK40" t="inlineStr"/>
-      <c r="BL40" t="inlineStr"/>
-      <c r="BM40" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="BH40" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI40" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ40" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK40" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL40" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM40" t="n">
+        <v>3</v>
+      </c>
       <c r="BN40" t="inlineStr"/>
       <c r="BO40" t="inlineStr"/>
+      <c r="BP40" t="inlineStr"/>
+      <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr"/>
+      <c r="BS40" t="inlineStr"/>
+      <c r="BT40" t="inlineStr"/>
+      <c r="BU40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -8043,7 +8775,7 @@
       <c r="AC41" t="inlineStr"/>
       <c r="AD41" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="AE41" t="n">
@@ -8125,22 +8857,40 @@
         </is>
       </c>
       <c r="BE41" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BF41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BG41" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH41" t="inlineStr"/>
-      <c r="BI41" t="inlineStr"/>
-      <c r="BJ41" t="inlineStr"/>
-      <c r="BK41" t="inlineStr"/>
-      <c r="BL41" t="inlineStr"/>
-      <c r="BM41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="BH41" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI41" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ41" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK41" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL41" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM41" t="n">
+        <v>3</v>
+      </c>
       <c r="BN41" t="inlineStr"/>
       <c r="BO41" t="inlineStr"/>
+      <c r="BP41" t="inlineStr"/>
+      <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr"/>
+      <c r="BS41" t="inlineStr"/>
+      <c r="BT41" t="inlineStr"/>
+      <c r="BU41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -8310,22 +9060,40 @@
       <c r="BC42" t="inlineStr"/>
       <c r="BD42" t="inlineStr"/>
       <c r="BE42" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BF42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG42" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH42" t="inlineStr"/>
-      <c r="BI42" t="inlineStr"/>
-      <c r="BJ42" t="inlineStr"/>
-      <c r="BK42" t="inlineStr"/>
-      <c r="BL42" t="inlineStr"/>
-      <c r="BM42" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="BH42" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI42" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ42" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL42" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM42" t="n">
+        <v>3</v>
+      </c>
       <c r="BN42" t="inlineStr"/>
       <c r="BO42" t="inlineStr"/>
+      <c r="BP42" t="inlineStr"/>
+      <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr"/>
+      <c r="BS42" t="inlineStr"/>
+      <c r="BT42" t="inlineStr"/>
+      <c r="BU42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -8493,22 +9261,40 @@
       </c>
       <c r="BD43" t="inlineStr"/>
       <c r="BE43" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BG43" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH43" t="inlineStr"/>
-      <c r="BI43" t="inlineStr"/>
-      <c r="BJ43" t="inlineStr"/>
-      <c r="BK43" t="inlineStr"/>
-      <c r="BL43" t="inlineStr"/>
-      <c r="BM43" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="BH43" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI43" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ43" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK43" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL43" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM43" t="n">
+        <v>3</v>
+      </c>
       <c r="BN43" t="inlineStr"/>
       <c r="BO43" t="inlineStr"/>
+      <c r="BP43" t="inlineStr"/>
+      <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr"/>
+      <c r="BS43" t="inlineStr"/>
+      <c r="BT43" t="inlineStr"/>
+      <c r="BU43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -8680,22 +9466,40 @@
         </is>
       </c>
       <c r="BE44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BF44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BG44" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH44" t="inlineStr"/>
-      <c r="BI44" t="inlineStr"/>
-      <c r="BJ44" t="inlineStr"/>
-      <c r="BK44" t="inlineStr"/>
-      <c r="BL44" t="inlineStr"/>
-      <c r="BM44" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="BH44" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI44" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ44" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK44" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL44" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM44" t="n">
+        <v>3</v>
+      </c>
       <c r="BN44" t="inlineStr"/>
       <c r="BO44" t="inlineStr"/>
+      <c r="BP44" t="inlineStr"/>
+      <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr"/>
+      <c r="BS44" t="inlineStr"/>
+      <c r="BT44" t="inlineStr"/>
+      <c r="BU44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -8863,22 +9667,40 @@
       <c r="BC45" t="inlineStr"/>
       <c r="BD45" t="inlineStr"/>
       <c r="BE45" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BF45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BG45" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH45" t="inlineStr"/>
-      <c r="BI45" t="inlineStr"/>
-      <c r="BJ45" t="inlineStr"/>
-      <c r="BK45" t="inlineStr"/>
-      <c r="BL45" t="inlineStr"/>
-      <c r="BM45" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="BH45" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI45" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ45" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK45" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL45" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM45" t="n">
+        <v>3</v>
+      </c>
       <c r="BN45" t="inlineStr"/>
       <c r="BO45" t="inlineStr"/>
+      <c r="BP45" t="inlineStr"/>
+      <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
+      <c r="BS45" t="inlineStr"/>
+      <c r="BT45" t="inlineStr"/>
+      <c r="BU45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -9053,19 +9875,37 @@
         <v>1</v>
       </c>
       <c r="BF46" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BG46" t="n">
         <v>3</v>
       </c>
-      <c r="BH46" t="inlineStr"/>
-      <c r="BI46" t="inlineStr"/>
-      <c r="BJ46" t="inlineStr"/>
-      <c r="BK46" t="inlineStr"/>
-      <c r="BL46" t="inlineStr"/>
-      <c r="BM46" t="inlineStr"/>
+      <c r="BH46" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI46" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ46" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK46" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL46" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM46" t="n">
+        <v>3</v>
+      </c>
       <c r="BN46" t="inlineStr"/>
       <c r="BO46" t="inlineStr"/>
+      <c r="BP46" t="inlineStr"/>
+      <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr"/>
+      <c r="BS46" t="inlineStr"/>
+      <c r="BT46" t="inlineStr"/>
+      <c r="BU46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -9237,22 +10077,40 @@
       <c r="BC47" t="inlineStr"/>
       <c r="BD47" t="inlineStr"/>
       <c r="BE47" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF47" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BG47" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH47" t="inlineStr"/>
-      <c r="BI47" t="inlineStr"/>
-      <c r="BJ47" t="inlineStr"/>
-      <c r="BK47" t="inlineStr"/>
-      <c r="BL47" t="inlineStr"/>
-      <c r="BM47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="BH47" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI47" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ47" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK47" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL47" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM47" t="n">
+        <v>3</v>
+      </c>
       <c r="BN47" t="inlineStr"/>
       <c r="BO47" t="inlineStr"/>
+      <c r="BP47" t="inlineStr"/>
+      <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr"/>
+      <c r="BS47" t="inlineStr"/>
+      <c r="BT47" t="inlineStr"/>
+      <c r="BU47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -9422,22 +10280,40 @@
       <c r="BC48" t="inlineStr"/>
       <c r="BD48" t="inlineStr"/>
       <c r="BE48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG48" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH48" t="inlineStr"/>
-      <c r="BI48" t="inlineStr"/>
-      <c r="BJ48" t="inlineStr"/>
-      <c r="BK48" t="inlineStr"/>
-      <c r="BL48" t="inlineStr"/>
-      <c r="BM48" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="BH48" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI48" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ48" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK48" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL48" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM48" t="n">
+        <v>3</v>
+      </c>
       <c r="BN48" t="inlineStr"/>
       <c r="BO48" t="inlineStr"/>
+      <c r="BP48" t="inlineStr"/>
+      <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr"/>
+      <c r="BS48" t="inlineStr"/>
+      <c r="BT48" t="inlineStr"/>
+      <c r="BU48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -9609,22 +10485,40 @@
         </is>
       </c>
       <c r="BE49" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BF49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG49" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH49" t="inlineStr"/>
-      <c r="BI49" t="inlineStr"/>
-      <c r="BJ49" t="inlineStr"/>
-      <c r="BK49" t="inlineStr"/>
-      <c r="BL49" t="inlineStr"/>
-      <c r="BM49" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="BH49" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI49" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ49" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK49" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL49" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM49" t="n">
+        <v>3</v>
+      </c>
       <c r="BN49" t="inlineStr"/>
       <c r="BO49" t="inlineStr"/>
+      <c r="BP49" t="inlineStr"/>
+      <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr"/>
+      <c r="BS49" t="inlineStr"/>
+      <c r="BT49" t="inlineStr"/>
+      <c r="BU49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -9794,22 +10688,40 @@
       <c r="BC50" t="inlineStr"/>
       <c r="BD50" t="inlineStr"/>
       <c r="BE50" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BF50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BG50" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH50" t="inlineStr"/>
-      <c r="BI50" t="inlineStr"/>
-      <c r="BJ50" t="inlineStr"/>
-      <c r="BK50" t="inlineStr"/>
-      <c r="BL50" t="inlineStr"/>
-      <c r="BM50" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="BH50" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI50" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ50" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK50" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL50" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM50" t="n">
+        <v>3</v>
+      </c>
       <c r="BN50" t="inlineStr"/>
       <c r="BO50" t="inlineStr"/>
+      <c r="BP50" t="inlineStr"/>
+      <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr"/>
+      <c r="BS50" t="inlineStr"/>
+      <c r="BT50" t="inlineStr"/>
+      <c r="BU50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -9981,22 +10893,40 @@
       </c>
       <c r="BD51" t="inlineStr"/>
       <c r="BE51" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BF51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG51" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH51" t="inlineStr"/>
-      <c r="BI51" t="inlineStr"/>
-      <c r="BJ51" t="inlineStr"/>
-      <c r="BK51" t="inlineStr"/>
-      <c r="BL51" t="inlineStr"/>
-      <c r="BM51" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="BH51" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI51" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ51" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK51" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL51" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM51" t="n">
+        <v>3</v>
+      </c>
       <c r="BN51" t="inlineStr"/>
       <c r="BO51" t="inlineStr"/>
+      <c r="BP51" t="inlineStr"/>
+      <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr"/>
+      <c r="BS51" t="inlineStr"/>
+      <c r="BT51" t="inlineStr"/>
+      <c r="BU51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -10168,22 +11098,40 @@
       <c r="BC52" t="inlineStr"/>
       <c r="BD52" t="inlineStr"/>
       <c r="BE52" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BF52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG52" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH52" t="inlineStr"/>
-      <c r="BI52" t="inlineStr"/>
-      <c r="BJ52" t="inlineStr"/>
-      <c r="BK52" t="inlineStr"/>
-      <c r="BL52" t="inlineStr"/>
-      <c r="BM52" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="BH52" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI52" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ52" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK52" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL52" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM52" t="n">
+        <v>3</v>
+      </c>
       <c r="BN52" t="inlineStr"/>
       <c r="BO52" t="inlineStr"/>
+      <c r="BP52" t="inlineStr"/>
+      <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr"/>
+      <c r="BS52" t="inlineStr"/>
+      <c r="BT52" t="inlineStr"/>
+      <c r="BU52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -10355,22 +11303,40 @@
         </is>
       </c>
       <c r="BE53" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BF53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG53" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH53" t="inlineStr"/>
-      <c r="BI53" t="inlineStr"/>
-      <c r="BJ53" t="inlineStr"/>
-      <c r="BK53" t="inlineStr"/>
-      <c r="BL53" t="inlineStr"/>
-      <c r="BM53" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="BH53" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI53" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ53" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK53" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL53" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM53" t="n">
+        <v>3</v>
+      </c>
       <c r="BN53" t="inlineStr"/>
       <c r="BO53" t="inlineStr"/>
+      <c r="BP53" t="inlineStr"/>
+      <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr"/>
+      <c r="BS53" t="inlineStr"/>
+      <c r="BT53" t="inlineStr"/>
+      <c r="BU53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -10540,22 +11506,40 @@
         </is>
       </c>
       <c r="BE54" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BF54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG54" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH54" t="inlineStr"/>
-      <c r="BI54" t="inlineStr"/>
-      <c r="BJ54" t="inlineStr"/>
-      <c r="BK54" t="inlineStr"/>
-      <c r="BL54" t="inlineStr"/>
-      <c r="BM54" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="BH54" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI54" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ54" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK54" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL54" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM54" t="n">
+        <v>3</v>
+      </c>
       <c r="BN54" t="inlineStr"/>
       <c r="BO54" t="inlineStr"/>
+      <c r="BP54" t="inlineStr"/>
+      <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr"/>
+      <c r="BS54" t="inlineStr"/>
+      <c r="BT54" t="inlineStr"/>
+      <c r="BU54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -10727,22 +11711,40 @@
       <c r="BC55" t="inlineStr"/>
       <c r="BD55" t="inlineStr"/>
       <c r="BE55" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BF55" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BG55" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH55" t="inlineStr"/>
-      <c r="BI55" t="inlineStr"/>
-      <c r="BJ55" t="inlineStr"/>
-      <c r="BK55" t="inlineStr"/>
-      <c r="BL55" t="inlineStr"/>
-      <c r="BM55" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="BH55" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI55" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ55" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK55" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL55" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM55" t="n">
+        <v>3</v>
+      </c>
       <c r="BN55" t="inlineStr"/>
       <c r="BO55" t="inlineStr"/>
+      <c r="BP55" t="inlineStr"/>
+      <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr"/>
+      <c r="BS55" t="inlineStr"/>
+      <c r="BT55" t="inlineStr"/>
+      <c r="BU55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -10914,22 +11916,40 @@
       </c>
       <c r="BD56" t="inlineStr"/>
       <c r="BE56" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BF56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG56" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH56" t="inlineStr"/>
-      <c r="BI56" t="inlineStr"/>
-      <c r="BJ56" t="inlineStr"/>
-      <c r="BK56" t="inlineStr"/>
-      <c r="BL56" t="inlineStr"/>
-      <c r="BM56" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="BH56" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI56" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ56" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK56" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL56" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM56" t="n">
+        <v>3</v>
+      </c>
       <c r="BN56" t="inlineStr"/>
       <c r="BO56" t="inlineStr"/>
+      <c r="BP56" t="inlineStr"/>
+      <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="inlineStr"/>
+      <c r="BS56" t="inlineStr"/>
+      <c r="BT56" t="inlineStr"/>
+      <c r="BU56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -11102,19 +12122,37 @@
         <v>1</v>
       </c>
       <c r="BF57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG57" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH57" t="inlineStr"/>
-      <c r="BI57" t="inlineStr"/>
-      <c r="BJ57" t="inlineStr"/>
-      <c r="BK57" t="inlineStr"/>
-      <c r="BL57" t="inlineStr"/>
-      <c r="BM57" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="BH57" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI57" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ57" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK57" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL57" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM57" t="n">
+        <v>3</v>
+      </c>
       <c r="BN57" t="inlineStr"/>
       <c r="BO57" t="inlineStr"/>
+      <c r="BP57" t="inlineStr"/>
+      <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr"/>
+      <c r="BS57" t="inlineStr"/>
+      <c r="BT57" t="inlineStr"/>
+      <c r="BU57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -11286,22 +12324,40 @@
         </is>
       </c>
       <c r="BE58" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BF58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG58" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH58" t="inlineStr"/>
-      <c r="BI58" t="inlineStr"/>
-      <c r="BJ58" t="inlineStr"/>
-      <c r="BK58" t="inlineStr"/>
-      <c r="BL58" t="inlineStr"/>
-      <c r="BM58" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="BH58" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI58" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ58" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK58" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL58" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM58" t="n">
+        <v>3</v>
+      </c>
       <c r="BN58" t="inlineStr"/>
       <c r="BO58" t="inlineStr"/>
+      <c r="BP58" t="inlineStr"/>
+      <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr"/>
+      <c r="BS58" t="inlineStr"/>
+      <c r="BT58" t="inlineStr"/>
+      <c r="BU58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -11473,22 +12529,40 @@
         </is>
       </c>
       <c r="BE59" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG59" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH59" t="inlineStr"/>
-      <c r="BI59" t="inlineStr"/>
-      <c r="BJ59" t="inlineStr"/>
-      <c r="BK59" t="inlineStr"/>
-      <c r="BL59" t="inlineStr"/>
-      <c r="BM59" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="BH59" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI59" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ59" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK59" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL59" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM59" t="n">
+        <v>3</v>
+      </c>
       <c r="BN59" t="inlineStr"/>
       <c r="BO59" t="inlineStr"/>
+      <c r="BP59" t="inlineStr"/>
+      <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="inlineStr"/>
+      <c r="BS59" t="inlineStr"/>
+      <c r="BT59" t="inlineStr"/>
+      <c r="BU59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -11660,22 +12734,40 @@
       <c r="BC60" t="inlineStr"/>
       <c r="BD60" t="inlineStr"/>
       <c r="BE60" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BF60" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BG60" t="n">
         <v>3</v>
       </c>
-      <c r="BH60" t="inlineStr"/>
-      <c r="BI60" t="inlineStr"/>
-      <c r="BJ60" t="inlineStr"/>
-      <c r="BK60" t="inlineStr"/>
-      <c r="BL60" t="inlineStr"/>
-      <c r="BM60" t="inlineStr"/>
+      <c r="BH60" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI60" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ60" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK60" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL60" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM60" t="n">
+        <v>3</v>
+      </c>
       <c r="BN60" t="inlineStr"/>
       <c r="BO60" t="inlineStr"/>
+      <c r="BP60" t="inlineStr"/>
+      <c r="BQ60" t="inlineStr"/>
+      <c r="BR60" t="inlineStr"/>
+      <c r="BS60" t="inlineStr"/>
+      <c r="BT60" t="inlineStr"/>
+      <c r="BU60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -11847,22 +12939,40 @@
       </c>
       <c r="BD61" t="inlineStr"/>
       <c r="BE61" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BF61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BG61" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH61" t="inlineStr"/>
-      <c r="BI61" t="inlineStr"/>
-      <c r="BJ61" t="inlineStr"/>
-      <c r="BK61" t="inlineStr"/>
-      <c r="BL61" t="inlineStr"/>
-      <c r="BM61" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="BH61" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI61" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ61" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK61" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL61" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM61" t="n">
+        <v>3</v>
+      </c>
       <c r="BN61" t="inlineStr"/>
       <c r="BO61" t="inlineStr"/>
+      <c r="BP61" t="inlineStr"/>
+      <c r="BQ61" t="inlineStr"/>
+      <c r="BR61" t="inlineStr"/>
+      <c r="BS61" t="inlineStr"/>
+      <c r="BT61" t="inlineStr"/>
+      <c r="BU61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -12036,14 +13146,32 @@
       <c r="BG62" t="n">
         <v>3</v>
       </c>
-      <c r="BH62" t="inlineStr"/>
-      <c r="BI62" t="inlineStr"/>
-      <c r="BJ62" t="inlineStr"/>
-      <c r="BK62" t="inlineStr"/>
-      <c r="BL62" t="inlineStr"/>
-      <c r="BM62" t="inlineStr"/>
+      <c r="BH62" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI62" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ62" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK62" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL62" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM62" t="n">
+        <v>3</v>
+      </c>
       <c r="BN62" t="inlineStr"/>
       <c r="BO62" t="inlineStr"/>
+      <c r="BP62" t="inlineStr"/>
+      <c r="BQ62" t="inlineStr"/>
+      <c r="BR62" t="inlineStr"/>
+      <c r="BS62" t="inlineStr"/>
+      <c r="BT62" t="inlineStr"/>
+      <c r="BU62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -12209,22 +13337,40 @@
       </c>
       <c r="BD63" t="inlineStr"/>
       <c r="BE63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG63" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH63" t="inlineStr"/>
-      <c r="BI63" t="inlineStr"/>
-      <c r="BJ63" t="inlineStr"/>
-      <c r="BK63" t="inlineStr"/>
-      <c r="BL63" t="inlineStr"/>
-      <c r="BM63" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="BH63" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI63" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ63" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK63" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL63" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM63" t="n">
+        <v>3</v>
+      </c>
       <c r="BN63" t="inlineStr"/>
       <c r="BO63" t="inlineStr"/>
+      <c r="BP63" t="inlineStr"/>
+      <c r="BQ63" t="inlineStr"/>
+      <c r="BR63" t="inlineStr"/>
+      <c r="BS63" t="inlineStr"/>
+      <c r="BT63" t="inlineStr"/>
+      <c r="BU63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -12396,22 +13542,40 @@
       </c>
       <c r="BD64" t="inlineStr"/>
       <c r="BE64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BF64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG64" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH64" t="inlineStr"/>
-      <c r="BI64" t="inlineStr"/>
-      <c r="BJ64" t="inlineStr"/>
-      <c r="BK64" t="inlineStr"/>
-      <c r="BL64" t="inlineStr"/>
-      <c r="BM64" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="BH64" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI64" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ64" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK64" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL64" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM64" t="n">
+        <v>3</v>
+      </c>
       <c r="BN64" t="inlineStr"/>
       <c r="BO64" t="inlineStr"/>
+      <c r="BP64" t="inlineStr"/>
+      <c r="BQ64" t="inlineStr"/>
+      <c r="BR64" t="inlineStr"/>
+      <c r="BS64" t="inlineStr"/>
+      <c r="BT64" t="inlineStr"/>
+      <c r="BU64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -12577,22 +13741,40 @@
       <c r="BC65" t="inlineStr"/>
       <c r="BD65" t="inlineStr"/>
       <c r="BE65" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BF65" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG65" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH65" t="inlineStr"/>
-      <c r="BI65" t="inlineStr"/>
-      <c r="BJ65" t="inlineStr"/>
-      <c r="BK65" t="inlineStr"/>
-      <c r="BL65" t="inlineStr"/>
-      <c r="BM65" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="BH65" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI65" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ65" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK65" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL65" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM65" t="n">
+        <v>3</v>
+      </c>
       <c r="BN65" t="inlineStr"/>
       <c r="BO65" t="inlineStr"/>
+      <c r="BP65" t="inlineStr"/>
+      <c r="BQ65" t="inlineStr"/>
+      <c r="BR65" t="inlineStr"/>
+      <c r="BS65" t="inlineStr"/>
+      <c r="BT65" t="inlineStr"/>
+      <c r="BU65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -12762,22 +13944,40 @@
       </c>
       <c r="BD66" t="inlineStr"/>
       <c r="BE66" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BF66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG66" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH66" t="inlineStr"/>
-      <c r="BI66" t="inlineStr"/>
-      <c r="BJ66" t="inlineStr"/>
-      <c r="BK66" t="inlineStr"/>
-      <c r="BL66" t="inlineStr"/>
-      <c r="BM66" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="BH66" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI66" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ66" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK66" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL66" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM66" t="n">
+        <v>3</v>
+      </c>
       <c r="BN66" t="inlineStr"/>
       <c r="BO66" t="inlineStr"/>
+      <c r="BP66" t="inlineStr"/>
+      <c r="BQ66" t="inlineStr"/>
+      <c r="BR66" t="inlineStr"/>
+      <c r="BS66" t="inlineStr"/>
+      <c r="BT66" t="inlineStr"/>
+      <c r="BU66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -12949,22 +14149,40 @@
         </is>
       </c>
       <c r="BE67" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BF67" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BG67" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH67" t="inlineStr"/>
-      <c r="BI67" t="inlineStr"/>
-      <c r="BJ67" t="inlineStr"/>
-      <c r="BK67" t="inlineStr"/>
-      <c r="BL67" t="inlineStr"/>
-      <c r="BM67" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="BH67" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI67" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ67" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK67" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL67" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM67" t="n">
+        <v>3</v>
+      </c>
       <c r="BN67" t="inlineStr"/>
       <c r="BO67" t="inlineStr"/>
+      <c r="BP67" t="inlineStr"/>
+      <c r="BQ67" t="inlineStr"/>
+      <c r="BR67" t="inlineStr"/>
+      <c r="BS67" t="inlineStr"/>
+      <c r="BT67" t="inlineStr"/>
+      <c r="BU67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -13128,22 +14346,40 @@
         </is>
       </c>
       <c r="BE68" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BF68" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BG68" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH68" t="inlineStr"/>
-      <c r="BI68" t="inlineStr"/>
-      <c r="BJ68" t="inlineStr"/>
-      <c r="BK68" t="inlineStr"/>
-      <c r="BL68" t="inlineStr"/>
-      <c r="BM68" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="BH68" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI68" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ68" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK68" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL68" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM68" t="n">
+        <v>3</v>
+      </c>
       <c r="BN68" t="inlineStr"/>
       <c r="BO68" t="inlineStr"/>
+      <c r="BP68" t="inlineStr"/>
+      <c r="BQ68" t="inlineStr"/>
+      <c r="BR68" t="inlineStr"/>
+      <c r="BS68" t="inlineStr"/>
+      <c r="BT68" t="inlineStr"/>
+      <c r="BU68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -13315,22 +14551,40 @@
       <c r="BC69" t="inlineStr"/>
       <c r="BD69" t="inlineStr"/>
       <c r="BE69" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BF69" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BG69" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH69" t="inlineStr"/>
-      <c r="BI69" t="inlineStr"/>
-      <c r="BJ69" t="inlineStr"/>
-      <c r="BK69" t="inlineStr"/>
-      <c r="BL69" t="inlineStr"/>
-      <c r="BM69" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="BH69" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI69" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ69" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK69" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL69" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM69" t="n">
+        <v>3</v>
+      </c>
       <c r="BN69" t="inlineStr"/>
       <c r="BO69" t="inlineStr"/>
+      <c r="BP69" t="inlineStr"/>
+      <c r="BQ69" t="inlineStr"/>
+      <c r="BR69" t="inlineStr"/>
+      <c r="BS69" t="inlineStr"/>
+      <c r="BT69" t="inlineStr"/>
+      <c r="BU69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -13501,19 +14755,37 @@
         <v>1</v>
       </c>
       <c r="BF70" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BG70" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH70" t="inlineStr"/>
-      <c r="BI70" t="inlineStr"/>
-      <c r="BJ70" t="inlineStr"/>
-      <c r="BK70" t="inlineStr"/>
-      <c r="BL70" t="inlineStr"/>
-      <c r="BM70" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="BH70" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI70" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ70" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK70" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL70" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM70" t="n">
+        <v>3</v>
+      </c>
       <c r="BN70" t="inlineStr"/>
       <c r="BO70" t="inlineStr"/>
+      <c r="BP70" t="inlineStr"/>
+      <c r="BQ70" t="inlineStr"/>
+      <c r="BR70" t="inlineStr"/>
+      <c r="BS70" t="inlineStr"/>
+      <c r="BT70" t="inlineStr"/>
+      <c r="BU70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -13685,22 +14957,40 @@
       </c>
       <c r="BD71" t="inlineStr"/>
       <c r="BE71" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BF71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BG71" t="n">
         <v>3</v>
       </c>
-      <c r="BH71" t="inlineStr"/>
-      <c r="BI71" t="inlineStr"/>
-      <c r="BJ71" t="inlineStr"/>
-      <c r="BK71" t="inlineStr"/>
-      <c r="BL71" t="inlineStr"/>
-      <c r="BM71" t="inlineStr"/>
+      <c r="BH71" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI71" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ71" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK71" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL71" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM71" t="n">
+        <v>3</v>
+      </c>
       <c r="BN71" t="inlineStr"/>
       <c r="BO71" t="inlineStr"/>
+      <c r="BP71" t="inlineStr"/>
+      <c r="BQ71" t="inlineStr"/>
+      <c r="BR71" t="inlineStr"/>
+      <c r="BS71" t="inlineStr"/>
+      <c r="BT71" t="inlineStr"/>
+      <c r="BU71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -13872,22 +15162,40 @@
       </c>
       <c r="BD72" t="inlineStr"/>
       <c r="BE72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BG72" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH72" t="inlineStr"/>
-      <c r="BI72" t="inlineStr"/>
-      <c r="BJ72" t="inlineStr"/>
-      <c r="BK72" t="inlineStr"/>
-      <c r="BL72" t="inlineStr"/>
-      <c r="BM72" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="BH72" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI72" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ72" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK72" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL72" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM72" t="n">
+        <v>3</v>
+      </c>
       <c r="BN72" t="inlineStr"/>
       <c r="BO72" t="inlineStr"/>
+      <c r="BP72" t="inlineStr"/>
+      <c r="BQ72" t="inlineStr"/>
+      <c r="BR72" t="inlineStr"/>
+      <c r="BS72" t="inlineStr"/>
+      <c r="BT72" t="inlineStr"/>
+      <c r="BU72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -14059,22 +15367,40 @@
       <c r="BC73" t="inlineStr"/>
       <c r="BD73" t="inlineStr"/>
       <c r="BE73" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BF73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BG73" t="n">
         <v>3</v>
       </c>
-      <c r="BH73" t="inlineStr"/>
-      <c r="BI73" t="inlineStr"/>
-      <c r="BJ73" t="inlineStr"/>
-      <c r="BK73" t="inlineStr"/>
-      <c r="BL73" t="inlineStr"/>
-      <c r="BM73" t="inlineStr"/>
+      <c r="BH73" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI73" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ73" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK73" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL73" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM73" t="n">
+        <v>3</v>
+      </c>
       <c r="BN73" t="inlineStr"/>
       <c r="BO73" t="inlineStr"/>
+      <c r="BP73" t="inlineStr"/>
+      <c r="BQ73" t="inlineStr"/>
+      <c r="BR73" t="inlineStr"/>
+      <c r="BS73" t="inlineStr"/>
+      <c r="BT73" t="inlineStr"/>
+      <c r="BU73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -14244,22 +15570,40 @@
         </is>
       </c>
       <c r="BE74" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BF74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BG74" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH74" t="inlineStr"/>
-      <c r="BI74" t="inlineStr"/>
-      <c r="BJ74" t="inlineStr"/>
-      <c r="BK74" t="inlineStr"/>
-      <c r="BL74" t="inlineStr"/>
-      <c r="BM74" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="BH74" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI74" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ74" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK74" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL74" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM74" t="n">
+        <v>3</v>
+      </c>
       <c r="BN74" t="inlineStr"/>
       <c r="BO74" t="inlineStr"/>
+      <c r="BP74" t="inlineStr"/>
+      <c r="BQ74" t="inlineStr"/>
+      <c r="BR74" t="inlineStr"/>
+      <c r="BS74" t="inlineStr"/>
+      <c r="BT74" t="inlineStr"/>
+      <c r="BU74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -14434,19 +15778,37 @@
         <v>1</v>
       </c>
       <c r="BF75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BG75" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH75" t="inlineStr"/>
-      <c r="BI75" t="inlineStr"/>
-      <c r="BJ75" t="inlineStr"/>
-      <c r="BK75" t="inlineStr"/>
-      <c r="BL75" t="inlineStr"/>
-      <c r="BM75" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="BH75" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI75" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ75" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK75" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL75" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM75" t="n">
+        <v>3</v>
+      </c>
       <c r="BN75" t="inlineStr"/>
       <c r="BO75" t="inlineStr"/>
+      <c r="BP75" t="inlineStr"/>
+      <c r="BQ75" t="inlineStr"/>
+      <c r="BR75" t="inlineStr"/>
+      <c r="BS75" t="inlineStr"/>
+      <c r="BT75" t="inlineStr"/>
+      <c r="BU75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -14616,22 +15978,40 @@
         </is>
       </c>
       <c r="BE76" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BF76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BG76" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH76" t="inlineStr"/>
-      <c r="BI76" t="inlineStr"/>
-      <c r="BJ76" t="inlineStr"/>
-      <c r="BK76" t="inlineStr"/>
-      <c r="BL76" t="inlineStr"/>
-      <c r="BM76" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="BH76" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI76" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ76" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK76" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL76" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM76" t="n">
+        <v>3</v>
+      </c>
       <c r="BN76" t="inlineStr"/>
       <c r="BO76" t="inlineStr"/>
+      <c r="BP76" t="inlineStr"/>
+      <c r="BQ76" t="inlineStr"/>
+      <c r="BR76" t="inlineStr"/>
+      <c r="BS76" t="inlineStr"/>
+      <c r="BT76" t="inlineStr"/>
+      <c r="BU76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -14800,19 +16180,37 @@
         <v>1</v>
       </c>
       <c r="BF77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG77" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH77" t="inlineStr"/>
-      <c r="BI77" t="inlineStr"/>
-      <c r="BJ77" t="inlineStr"/>
-      <c r="BK77" t="inlineStr"/>
-      <c r="BL77" t="inlineStr"/>
-      <c r="BM77" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="BH77" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI77" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ77" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK77" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL77" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM77" t="n">
+        <v>3</v>
+      </c>
       <c r="BN77" t="inlineStr"/>
       <c r="BO77" t="inlineStr"/>
+      <c r="BP77" t="inlineStr"/>
+      <c r="BQ77" t="inlineStr"/>
+      <c r="BR77" t="inlineStr"/>
+      <c r="BS77" t="inlineStr"/>
+      <c r="BT77" t="inlineStr"/>
+      <c r="BU77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -14980,22 +16378,40 @@
       </c>
       <c r="BD78" t="inlineStr"/>
       <c r="BE78" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BF78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BG78" t="n">
         <v>3</v>
       </c>
-      <c r="BH78" t="inlineStr"/>
-      <c r="BI78" t="inlineStr"/>
-      <c r="BJ78" t="inlineStr"/>
-      <c r="BK78" t="inlineStr"/>
-      <c r="BL78" t="inlineStr"/>
-      <c r="BM78" t="inlineStr"/>
+      <c r="BH78" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI78" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ78" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK78" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL78" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM78" t="n">
+        <v>3</v>
+      </c>
       <c r="BN78" t="inlineStr"/>
       <c r="BO78" t="inlineStr"/>
+      <c r="BP78" t="inlineStr"/>
+      <c r="BQ78" t="inlineStr"/>
+      <c r="BR78" t="inlineStr"/>
+      <c r="BS78" t="inlineStr"/>
+      <c r="BT78" t="inlineStr"/>
+      <c r="BU78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -15163,22 +16579,40 @@
       <c r="BC79" t="inlineStr"/>
       <c r="BD79" t="inlineStr"/>
       <c r="BE79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BG79" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH79" t="inlineStr"/>
-      <c r="BI79" t="inlineStr"/>
-      <c r="BJ79" t="inlineStr"/>
-      <c r="BK79" t="inlineStr"/>
-      <c r="BL79" t="inlineStr"/>
-      <c r="BM79" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="BH79" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI79" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ79" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK79" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL79" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM79" t="n">
+        <v>3</v>
+      </c>
       <c r="BN79" t="inlineStr"/>
       <c r="BO79" t="inlineStr"/>
+      <c r="BP79" t="inlineStr"/>
+      <c r="BQ79" t="inlineStr"/>
+      <c r="BR79" t="inlineStr"/>
+      <c r="BS79" t="inlineStr"/>
+      <c r="BT79" t="inlineStr"/>
+      <c r="BU79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -15350,22 +16784,40 @@
       <c r="BC80" t="inlineStr"/>
       <c r="BD80" t="inlineStr"/>
       <c r="BE80" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BF80" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BG80" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH80" t="inlineStr"/>
-      <c r="BI80" t="inlineStr"/>
-      <c r="BJ80" t="inlineStr"/>
-      <c r="BK80" t="inlineStr"/>
-      <c r="BL80" t="inlineStr"/>
-      <c r="BM80" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="BH80" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI80" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ80" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK80" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL80" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM80" t="n">
+        <v>3</v>
+      </c>
       <c r="BN80" t="inlineStr"/>
       <c r="BO80" t="inlineStr"/>
+      <c r="BP80" t="inlineStr"/>
+      <c r="BQ80" t="inlineStr"/>
+      <c r="BR80" t="inlineStr"/>
+      <c r="BS80" t="inlineStr"/>
+      <c r="BT80" t="inlineStr"/>
+      <c r="BU80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -15529,22 +16981,40 @@
       <c r="BC81" t="inlineStr"/>
       <c r="BD81" t="inlineStr"/>
       <c r="BE81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF81" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BG81" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH81" t="inlineStr"/>
-      <c r="BI81" t="inlineStr"/>
-      <c r="BJ81" t="inlineStr"/>
-      <c r="BK81" t="inlineStr"/>
-      <c r="BL81" t="inlineStr"/>
-      <c r="BM81" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="BH81" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI81" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ81" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK81" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL81" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM81" t="n">
+        <v>3</v>
+      </c>
       <c r="BN81" t="inlineStr"/>
       <c r="BO81" t="inlineStr"/>
+      <c r="BP81" t="inlineStr"/>
+      <c r="BQ81" t="inlineStr"/>
+      <c r="BR81" t="inlineStr"/>
+      <c r="BS81" t="inlineStr"/>
+      <c r="BT81" t="inlineStr"/>
+      <c r="BU81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -15712,22 +17182,40 @@
       </c>
       <c r="BD82" t="inlineStr"/>
       <c r="BE82" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BF82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG82" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH82" t="inlineStr"/>
-      <c r="BI82" t="inlineStr"/>
-      <c r="BJ82" t="inlineStr"/>
-      <c r="BK82" t="inlineStr"/>
-      <c r="BL82" t="inlineStr"/>
-      <c r="BM82" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="BH82" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI82" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ82" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK82" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL82" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM82" t="n">
+        <v>3</v>
+      </c>
       <c r="BN82" t="inlineStr"/>
       <c r="BO82" t="inlineStr"/>
+      <c r="BP82" t="inlineStr"/>
+      <c r="BQ82" t="inlineStr"/>
+      <c r="BR82" t="inlineStr"/>
+      <c r="BS82" t="inlineStr"/>
+      <c r="BT82" t="inlineStr"/>
+      <c r="BU82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -15899,22 +17387,40 @@
       <c r="BC83" t="inlineStr"/>
       <c r="BD83" t="inlineStr"/>
       <c r="BE83" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BF83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BG83" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH83" t="inlineStr"/>
-      <c r="BI83" t="inlineStr"/>
-      <c r="BJ83" t="inlineStr"/>
-      <c r="BK83" t="inlineStr"/>
-      <c r="BL83" t="inlineStr"/>
-      <c r="BM83" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="BH83" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI83" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ83" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK83" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL83" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM83" t="n">
+        <v>3</v>
+      </c>
       <c r="BN83" t="inlineStr"/>
       <c r="BO83" t="inlineStr"/>
+      <c r="BP83" t="inlineStr"/>
+      <c r="BQ83" t="inlineStr"/>
+      <c r="BR83" t="inlineStr"/>
+      <c r="BS83" t="inlineStr"/>
+      <c r="BT83" t="inlineStr"/>
+      <c r="BU83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -16082,22 +17588,40 @@
       </c>
       <c r="BD84" t="inlineStr"/>
       <c r="BE84" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BF84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG84" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH84" t="inlineStr"/>
-      <c r="BI84" t="inlineStr"/>
-      <c r="BJ84" t="inlineStr"/>
-      <c r="BK84" t="inlineStr"/>
-      <c r="BL84" t="inlineStr"/>
-      <c r="BM84" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="BH84" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI84" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ84" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK84" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL84" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM84" t="n">
+        <v>3</v>
+      </c>
       <c r="BN84" t="inlineStr"/>
       <c r="BO84" t="inlineStr"/>
+      <c r="BP84" t="inlineStr"/>
+      <c r="BQ84" t="inlineStr"/>
+      <c r="BR84" t="inlineStr"/>
+      <c r="BS84" t="inlineStr"/>
+      <c r="BT84" t="inlineStr"/>
+      <c r="BU84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -16265,22 +17789,40 @@
         </is>
       </c>
       <c r="BE85" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BF85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG85" t="n">
         <v>3</v>
       </c>
-      <c r="BH85" t="inlineStr"/>
-      <c r="BI85" t="inlineStr"/>
-      <c r="BJ85" t="inlineStr"/>
-      <c r="BK85" t="inlineStr"/>
-      <c r="BL85" t="inlineStr"/>
-      <c r="BM85" t="inlineStr"/>
+      <c r="BH85" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI85" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ85" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK85" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL85" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM85" t="n">
+        <v>3</v>
+      </c>
       <c r="BN85" t="inlineStr"/>
       <c r="BO85" t="inlineStr"/>
+      <c r="BP85" t="inlineStr"/>
+      <c r="BQ85" t="inlineStr"/>
+      <c r="BR85" t="inlineStr"/>
+      <c r="BS85" t="inlineStr"/>
+      <c r="BT85" t="inlineStr"/>
+      <c r="BU85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -16450,22 +17992,40 @@
       <c r="BC86" t="inlineStr"/>
       <c r="BD86" t="inlineStr"/>
       <c r="BE86" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BF86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BG86" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH86" t="inlineStr"/>
-      <c r="BI86" t="inlineStr"/>
-      <c r="BJ86" t="inlineStr"/>
-      <c r="BK86" t="inlineStr"/>
-      <c r="BL86" t="inlineStr"/>
-      <c r="BM86" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="BH86" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI86" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ86" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK86" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL86" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM86" t="n">
+        <v>3</v>
+      </c>
       <c r="BN86" t="inlineStr"/>
       <c r="BO86" t="inlineStr"/>
+      <c r="BP86" t="inlineStr"/>
+      <c r="BQ86" t="inlineStr"/>
+      <c r="BR86" t="inlineStr"/>
+      <c r="BS86" t="inlineStr"/>
+      <c r="BT86" t="inlineStr"/>
+      <c r="BU86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -16633,22 +18193,40 @@
       </c>
       <c r="BD87" t="inlineStr"/>
       <c r="BE87" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BF87" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BG87" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH87" t="inlineStr"/>
-      <c r="BI87" t="inlineStr"/>
-      <c r="BJ87" t="inlineStr"/>
-      <c r="BK87" t="inlineStr"/>
-      <c r="BL87" t="inlineStr"/>
-      <c r="BM87" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="BH87" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI87" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ87" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK87" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL87" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM87" t="n">
+        <v>3</v>
+      </c>
       <c r="BN87" t="inlineStr"/>
       <c r="BO87" t="inlineStr"/>
+      <c r="BP87" t="inlineStr"/>
+      <c r="BQ87" t="inlineStr"/>
+      <c r="BR87" t="inlineStr"/>
+      <c r="BS87" t="inlineStr"/>
+      <c r="BT87" t="inlineStr"/>
+      <c r="BU87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -16816,22 +18394,40 @@
       <c r="BC88" t="inlineStr"/>
       <c r="BD88" t="inlineStr"/>
       <c r="BE88" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BF88" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BG88" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH88" t="inlineStr"/>
-      <c r="BI88" t="inlineStr"/>
-      <c r="BJ88" t="inlineStr"/>
-      <c r="BK88" t="inlineStr"/>
-      <c r="BL88" t="inlineStr"/>
-      <c r="BM88" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="BH88" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI88" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ88" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK88" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL88" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM88" t="n">
+        <v>3</v>
+      </c>
       <c r="BN88" t="inlineStr"/>
       <c r="BO88" t="inlineStr"/>
+      <c r="BP88" t="inlineStr"/>
+      <c r="BQ88" t="inlineStr"/>
+      <c r="BR88" t="inlineStr"/>
+      <c r="BS88" t="inlineStr"/>
+      <c r="BT88" t="inlineStr"/>
+      <c r="BU88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -16999,22 +18595,40 @@
       <c r="BC89" t="inlineStr"/>
       <c r="BD89" t="inlineStr"/>
       <c r="BE89" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BF89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG89" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH89" t="inlineStr"/>
-      <c r="BI89" t="inlineStr"/>
-      <c r="BJ89" t="inlineStr"/>
-      <c r="BK89" t="inlineStr"/>
-      <c r="BL89" t="inlineStr"/>
-      <c r="BM89" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="BH89" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI89" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ89" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK89" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL89" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM89" t="n">
+        <v>3</v>
+      </c>
       <c r="BN89" t="inlineStr"/>
       <c r="BO89" t="inlineStr"/>
+      <c r="BP89" t="inlineStr"/>
+      <c r="BQ89" t="inlineStr"/>
+      <c r="BR89" t="inlineStr"/>
+      <c r="BS89" t="inlineStr"/>
+      <c r="BT89" t="inlineStr"/>
+      <c r="BU89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -17182,22 +18796,40 @@
         </is>
       </c>
       <c r="BE90" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BF90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG90" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH90" t="inlineStr"/>
-      <c r="BI90" t="inlineStr"/>
-      <c r="BJ90" t="inlineStr"/>
-      <c r="BK90" t="inlineStr"/>
-      <c r="BL90" t="inlineStr"/>
-      <c r="BM90" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="BH90" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI90" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ90" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK90" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL90" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM90" t="n">
+        <v>3</v>
+      </c>
       <c r="BN90" t="inlineStr"/>
       <c r="BO90" t="inlineStr"/>
+      <c r="BP90" t="inlineStr"/>
+      <c r="BQ90" t="inlineStr"/>
+      <c r="BR90" t="inlineStr"/>
+      <c r="BS90" t="inlineStr"/>
+      <c r="BT90" t="inlineStr"/>
+      <c r="BU90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -17367,22 +18999,40 @@
       <c r="BC91" t="inlineStr"/>
       <c r="BD91" t="inlineStr"/>
       <c r="BE91" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BF91" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG91" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH91" t="inlineStr"/>
-      <c r="BI91" t="inlineStr"/>
-      <c r="BJ91" t="inlineStr"/>
-      <c r="BK91" t="inlineStr"/>
-      <c r="BL91" t="inlineStr"/>
-      <c r="BM91" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="BH91" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI91" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ91" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK91" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL91" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM91" t="n">
+        <v>3</v>
+      </c>
       <c r="BN91" t="inlineStr"/>
       <c r="BO91" t="inlineStr"/>
+      <c r="BP91" t="inlineStr"/>
+      <c r="BQ91" t="inlineStr"/>
+      <c r="BR91" t="inlineStr"/>
+      <c r="BS91" t="inlineStr"/>
+      <c r="BT91" t="inlineStr"/>
+      <c r="BU91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -17552,22 +19202,40 @@
       <c r="BC92" t="inlineStr"/>
       <c r="BD92" t="inlineStr"/>
       <c r="BE92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF92" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BG92" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH92" t="inlineStr"/>
-      <c r="BI92" t="inlineStr"/>
-      <c r="BJ92" t="inlineStr"/>
-      <c r="BK92" t="inlineStr"/>
-      <c r="BL92" t="inlineStr"/>
-      <c r="BM92" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="BH92" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI92" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ92" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK92" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL92" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM92" t="n">
+        <v>3</v>
+      </c>
       <c r="BN92" t="inlineStr"/>
       <c r="BO92" t="inlineStr"/>
+      <c r="BP92" t="inlineStr"/>
+      <c r="BQ92" t="inlineStr"/>
+      <c r="BR92" t="inlineStr"/>
+      <c r="BS92" t="inlineStr"/>
+      <c r="BT92" t="inlineStr"/>
+      <c r="BU92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -17736,19 +19404,37 @@
         <v>1</v>
       </c>
       <c r="BF93" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BG93" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH93" t="inlineStr"/>
-      <c r="BI93" t="inlineStr"/>
-      <c r="BJ93" t="inlineStr"/>
-      <c r="BK93" t="inlineStr"/>
-      <c r="BL93" t="inlineStr"/>
-      <c r="BM93" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="BH93" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI93" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ93" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK93" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL93" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM93" t="n">
+        <v>3</v>
+      </c>
       <c r="BN93" t="inlineStr"/>
       <c r="BO93" t="inlineStr"/>
+      <c r="BP93" t="inlineStr"/>
+      <c r="BQ93" t="inlineStr"/>
+      <c r="BR93" t="inlineStr"/>
+      <c r="BS93" t="inlineStr"/>
+      <c r="BT93" t="inlineStr"/>
+      <c r="BU93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -17914,22 +19600,40 @@
         </is>
       </c>
       <c r="BE94" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BF94" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BG94" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH94" t="inlineStr"/>
-      <c r="BI94" t="inlineStr"/>
-      <c r="BJ94" t="inlineStr"/>
-      <c r="BK94" t="inlineStr"/>
-      <c r="BL94" t="inlineStr"/>
-      <c r="BM94" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="BH94" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI94" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ94" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK94" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL94" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM94" t="n">
+        <v>3</v>
+      </c>
       <c r="BN94" t="inlineStr"/>
       <c r="BO94" t="inlineStr"/>
+      <c r="BP94" t="inlineStr"/>
+      <c r="BQ94" t="inlineStr"/>
+      <c r="BR94" t="inlineStr"/>
+      <c r="BS94" t="inlineStr"/>
+      <c r="BT94" t="inlineStr"/>
+      <c r="BU94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -18095,22 +19799,40 @@
       <c r="BC95" t="inlineStr"/>
       <c r="BD95" t="inlineStr"/>
       <c r="BE95" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BF95" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BG95" t="n">
         <v>3</v>
       </c>
-      <c r="BH95" t="inlineStr"/>
-      <c r="BI95" t="inlineStr"/>
-      <c r="BJ95" t="inlineStr"/>
-      <c r="BK95" t="inlineStr"/>
-      <c r="BL95" t="inlineStr"/>
-      <c r="BM95" t="inlineStr"/>
+      <c r="BH95" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI95" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ95" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK95" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL95" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM95" t="n">
+        <v>3</v>
+      </c>
       <c r="BN95" t="inlineStr"/>
       <c r="BO95" t="inlineStr"/>
+      <c r="BP95" t="inlineStr"/>
+      <c r="BQ95" t="inlineStr"/>
+      <c r="BR95" t="inlineStr"/>
+      <c r="BS95" t="inlineStr"/>
+      <c r="BT95" t="inlineStr"/>
+      <c r="BU95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -18283,19 +20005,37 @@
         <v>1</v>
       </c>
       <c r="BF96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BG96" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH96" t="inlineStr"/>
-      <c r="BI96" t="inlineStr"/>
-      <c r="BJ96" t="inlineStr"/>
-      <c r="BK96" t="inlineStr"/>
-      <c r="BL96" t="inlineStr"/>
-      <c r="BM96" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="BH96" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI96" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ96" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK96" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL96" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM96" t="n">
+        <v>3</v>
+      </c>
       <c r="BN96" t="inlineStr"/>
       <c r="BO96" t="inlineStr"/>
+      <c r="BP96" t="inlineStr"/>
+      <c r="BQ96" t="inlineStr"/>
+      <c r="BR96" t="inlineStr"/>
+      <c r="BS96" t="inlineStr"/>
+      <c r="BT96" t="inlineStr"/>
+      <c r="BU96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -18461,22 +20201,40 @@
       <c r="BC97" t="inlineStr"/>
       <c r="BD97" t="inlineStr"/>
       <c r="BE97" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BF97" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BG97" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH97" t="inlineStr"/>
-      <c r="BI97" t="inlineStr"/>
-      <c r="BJ97" t="inlineStr"/>
-      <c r="BK97" t="inlineStr"/>
-      <c r="BL97" t="inlineStr"/>
-      <c r="BM97" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="BH97" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI97" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ97" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK97" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL97" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM97" t="n">
+        <v>3</v>
+      </c>
       <c r="BN97" t="inlineStr"/>
       <c r="BO97" t="inlineStr"/>
+      <c r="BP97" t="inlineStr"/>
+      <c r="BQ97" t="inlineStr"/>
+      <c r="BR97" t="inlineStr"/>
+      <c r="BS97" t="inlineStr"/>
+      <c r="BT97" t="inlineStr"/>
+      <c r="BU97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -18650,14 +20408,32 @@
       <c r="BG98" t="n">
         <v>3</v>
       </c>
-      <c r="BH98" t="inlineStr"/>
-      <c r="BI98" t="inlineStr"/>
-      <c r="BJ98" t="inlineStr"/>
-      <c r="BK98" t="inlineStr"/>
-      <c r="BL98" t="inlineStr"/>
-      <c r="BM98" t="inlineStr"/>
+      <c r="BH98" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI98" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ98" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK98" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL98" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM98" t="n">
+        <v>3</v>
+      </c>
       <c r="BN98" t="inlineStr"/>
       <c r="BO98" t="inlineStr"/>
+      <c r="BP98" t="inlineStr"/>
+      <c r="BQ98" t="inlineStr"/>
+      <c r="BR98" t="inlineStr"/>
+      <c r="BS98" t="inlineStr"/>
+      <c r="BT98" t="inlineStr"/>
+      <c r="BU98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -18823,22 +20599,40 @@
       <c r="BC99" t="inlineStr"/>
       <c r="BD99" t="inlineStr"/>
       <c r="BE99" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BF99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG99" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH99" t="inlineStr"/>
-      <c r="BI99" t="inlineStr"/>
-      <c r="BJ99" t="inlineStr"/>
-      <c r="BK99" t="inlineStr"/>
-      <c r="BL99" t="inlineStr"/>
-      <c r="BM99" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="BH99" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI99" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ99" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK99" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL99" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM99" t="n">
+        <v>3</v>
+      </c>
       <c r="BN99" t="inlineStr"/>
       <c r="BO99" t="inlineStr"/>
+      <c r="BP99" t="inlineStr"/>
+      <c r="BQ99" t="inlineStr"/>
+      <c r="BR99" t="inlineStr"/>
+      <c r="BS99" t="inlineStr"/>
+      <c r="BT99" t="inlineStr"/>
+      <c r="BU99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -19009,19 +20803,37 @@
         <v>1</v>
       </c>
       <c r="BF100" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BG100" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH100" t="inlineStr"/>
-      <c r="BI100" t="inlineStr"/>
-      <c r="BJ100" t="inlineStr"/>
-      <c r="BK100" t="inlineStr"/>
-      <c r="BL100" t="inlineStr"/>
-      <c r="BM100" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="BH100" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI100" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ100" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK100" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL100" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM100" t="n">
+        <v>3</v>
+      </c>
       <c r="BN100" t="inlineStr"/>
       <c r="BO100" t="inlineStr"/>
+      <c r="BP100" t="inlineStr"/>
+      <c r="BQ100" t="inlineStr"/>
+      <c r="BR100" t="inlineStr"/>
+      <c r="BS100" t="inlineStr"/>
+      <c r="BT100" t="inlineStr"/>
+      <c r="BU100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -19195,16 +21007,34 @@
         <v>2</v>
       </c>
       <c r="BG101" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH101" t="inlineStr"/>
-      <c r="BI101" t="inlineStr"/>
-      <c r="BJ101" t="inlineStr"/>
-      <c r="BK101" t="inlineStr"/>
-      <c r="BL101" t="inlineStr"/>
-      <c r="BM101" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="BH101" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI101" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ101" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK101" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL101" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM101" t="n">
+        <v>3</v>
+      </c>
       <c r="BN101" t="inlineStr"/>
       <c r="BO101" t="inlineStr"/>
+      <c r="BP101" t="inlineStr"/>
+      <c r="BQ101" t="inlineStr"/>
+      <c r="BR101" t="inlineStr"/>
+      <c r="BS101" t="inlineStr"/>
+      <c r="BT101" t="inlineStr"/>
+      <c r="BU101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -19370,22 +21200,40 @@
       <c r="BC102" t="inlineStr"/>
       <c r="BD102" t="inlineStr"/>
       <c r="BE102" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BF102" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BG102" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH102" t="inlineStr"/>
-      <c r="BI102" t="inlineStr"/>
-      <c r="BJ102" t="inlineStr"/>
-      <c r="BK102" t="inlineStr"/>
-      <c r="BL102" t="inlineStr"/>
-      <c r="BM102" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="BH102" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI102" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ102" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK102" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL102" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM102" t="n">
+        <v>3</v>
+      </c>
       <c r="BN102" t="inlineStr"/>
       <c r="BO102" t="inlineStr"/>
+      <c r="BP102" t="inlineStr"/>
+      <c r="BQ102" t="inlineStr"/>
+      <c r="BR102" t="inlineStr"/>
+      <c r="BS102" t="inlineStr"/>
+      <c r="BT102" t="inlineStr"/>
+      <c r="BU102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -19553,22 +21401,40 @@
         </is>
       </c>
       <c r="BE103" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BF103" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BG103" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH103" t="inlineStr"/>
-      <c r="BI103" t="inlineStr"/>
-      <c r="BJ103" t="inlineStr"/>
-      <c r="BK103" t="inlineStr"/>
-      <c r="BL103" t="inlineStr"/>
-      <c r="BM103" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="BH103" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI103" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ103" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK103" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL103" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM103" t="n">
+        <v>3</v>
+      </c>
       <c r="BN103" t="inlineStr"/>
       <c r="BO103" t="inlineStr"/>
+      <c r="BP103" t="inlineStr"/>
+      <c r="BQ103" t="inlineStr"/>
+      <c r="BR103" t="inlineStr"/>
+      <c r="BS103" t="inlineStr"/>
+      <c r="BT103" t="inlineStr"/>
+      <c r="BU103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -19736,22 +21602,40 @@
       </c>
       <c r="BD104" t="inlineStr"/>
       <c r="BE104" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF104" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BG104" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH104" t="inlineStr"/>
-      <c r="BI104" t="inlineStr"/>
-      <c r="BJ104" t="inlineStr"/>
-      <c r="BK104" t="inlineStr"/>
-      <c r="BL104" t="inlineStr"/>
-      <c r="BM104" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="BH104" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI104" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ104" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK104" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL104" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM104" t="n">
+        <v>3</v>
+      </c>
       <c r="BN104" t="inlineStr"/>
       <c r="BO104" t="inlineStr"/>
+      <c r="BP104" t="inlineStr"/>
+      <c r="BQ104" t="inlineStr"/>
+      <c r="BR104" t="inlineStr"/>
+      <c r="BS104" t="inlineStr"/>
+      <c r="BT104" t="inlineStr"/>
+      <c r="BU104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -19917,22 +21801,40 @@
       <c r="BC105" t="inlineStr"/>
       <c r="BD105" t="inlineStr"/>
       <c r="BE105" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BF105" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BG105" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH105" t="inlineStr"/>
-      <c r="BI105" t="inlineStr"/>
-      <c r="BJ105" t="inlineStr"/>
-      <c r="BK105" t="inlineStr"/>
-      <c r="BL105" t="inlineStr"/>
-      <c r="BM105" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="BH105" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI105" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ105" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK105" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL105" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM105" t="n">
+        <v>3</v>
+      </c>
       <c r="BN105" t="inlineStr"/>
       <c r="BO105" t="inlineStr"/>
+      <c r="BP105" t="inlineStr"/>
+      <c r="BQ105" t="inlineStr"/>
+      <c r="BR105" t="inlineStr"/>
+      <c r="BS105" t="inlineStr"/>
+      <c r="BT105" t="inlineStr"/>
+      <c r="BU105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -20096,22 +21998,40 @@
       <c r="BC106" t="inlineStr"/>
       <c r="BD106" t="inlineStr"/>
       <c r="BE106" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BF106" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BG106" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH106" t="inlineStr"/>
-      <c r="BI106" t="inlineStr"/>
-      <c r="BJ106" t="inlineStr"/>
-      <c r="BK106" t="inlineStr"/>
-      <c r="BL106" t="inlineStr"/>
-      <c r="BM106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="BH106" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI106" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ106" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK106" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL106" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM106" t="n">
+        <v>3</v>
+      </c>
       <c r="BN106" t="inlineStr"/>
       <c r="BO106" t="inlineStr"/>
+      <c r="BP106" t="inlineStr"/>
+      <c r="BQ106" t="inlineStr"/>
+      <c r="BR106" t="inlineStr"/>
+      <c r="BS106" t="inlineStr"/>
+      <c r="BT106" t="inlineStr"/>
+      <c r="BU106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -20279,22 +22199,40 @@
         </is>
       </c>
       <c r="BE107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF107" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BG107" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH107" t="inlineStr"/>
-      <c r="BI107" t="inlineStr"/>
-      <c r="BJ107" t="inlineStr"/>
-      <c r="BK107" t="inlineStr"/>
-      <c r="BL107" t="inlineStr"/>
-      <c r="BM107" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="BH107" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI107" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ107" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK107" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL107" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM107" t="n">
+        <v>3</v>
+      </c>
       <c r="BN107" t="inlineStr"/>
       <c r="BO107" t="inlineStr"/>
+      <c r="BP107" t="inlineStr"/>
+      <c r="BQ107" t="inlineStr"/>
+      <c r="BR107" t="inlineStr"/>
+      <c r="BS107" t="inlineStr"/>
+      <c r="BT107" t="inlineStr"/>
+      <c r="BU107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -20462,22 +22400,40 @@
       <c r="BC108" t="inlineStr"/>
       <c r="BD108" t="inlineStr"/>
       <c r="BE108" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BF108" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BG108" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH108" t="inlineStr"/>
-      <c r="BI108" t="inlineStr"/>
-      <c r="BJ108" t="inlineStr"/>
-      <c r="BK108" t="inlineStr"/>
-      <c r="BL108" t="inlineStr"/>
-      <c r="BM108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="BH108" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI108" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ108" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK108" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL108" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM108" t="n">
+        <v>3</v>
+      </c>
       <c r="BN108" t="inlineStr"/>
       <c r="BO108" t="inlineStr"/>
+      <c r="BP108" t="inlineStr"/>
+      <c r="BQ108" t="inlineStr"/>
+      <c r="BR108" t="inlineStr"/>
+      <c r="BS108" t="inlineStr"/>
+      <c r="BT108" t="inlineStr"/>
+      <c r="BU108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -20645,22 +22601,40 @@
       </c>
       <c r="BD109" t="inlineStr"/>
       <c r="BE109" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BF109" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BG109" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH109" t="inlineStr"/>
-      <c r="BI109" t="inlineStr"/>
-      <c r="BJ109" t="inlineStr"/>
-      <c r="BK109" t="inlineStr"/>
-      <c r="BL109" t="inlineStr"/>
-      <c r="BM109" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="BH109" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI109" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ109" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK109" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL109" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM109" t="n">
+        <v>3</v>
+      </c>
       <c r="BN109" t="inlineStr"/>
       <c r="BO109" t="inlineStr"/>
+      <c r="BP109" t="inlineStr"/>
+      <c r="BQ109" t="inlineStr"/>
+      <c r="BR109" t="inlineStr"/>
+      <c r="BS109" t="inlineStr"/>
+      <c r="BT109" t="inlineStr"/>
+      <c r="BU109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -20828,22 +22802,40 @@
       <c r="BC110" t="inlineStr"/>
       <c r="BD110" t="inlineStr"/>
       <c r="BE110" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BF110" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG110" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH110" t="inlineStr"/>
-      <c r="BI110" t="inlineStr"/>
-      <c r="BJ110" t="inlineStr"/>
-      <c r="BK110" t="inlineStr"/>
-      <c r="BL110" t="inlineStr"/>
-      <c r="BM110" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="BH110" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI110" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ110" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK110" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL110" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM110" t="n">
+        <v>3</v>
+      </c>
       <c r="BN110" t="inlineStr"/>
       <c r="BO110" t="inlineStr"/>
+      <c r="BP110" t="inlineStr"/>
+      <c r="BQ110" t="inlineStr"/>
+      <c r="BR110" t="inlineStr"/>
+      <c r="BS110" t="inlineStr"/>
+      <c r="BT110" t="inlineStr"/>
+      <c r="BU110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -21011,22 +23003,40 @@
         </is>
       </c>
       <c r="BE111" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BF111" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BG111" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH111" t="inlineStr"/>
-      <c r="BI111" t="inlineStr"/>
-      <c r="BJ111" t="inlineStr"/>
-      <c r="BK111" t="inlineStr"/>
-      <c r="BL111" t="inlineStr"/>
-      <c r="BM111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="BH111" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI111" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ111" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK111" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL111" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM111" t="n">
+        <v>3</v>
+      </c>
       <c r="BN111" t="inlineStr"/>
       <c r="BO111" t="inlineStr"/>
+      <c r="BP111" t="inlineStr"/>
+      <c r="BQ111" t="inlineStr"/>
+      <c r="BR111" t="inlineStr"/>
+      <c r="BS111" t="inlineStr"/>
+      <c r="BT111" t="inlineStr"/>
+      <c r="BU111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -21192,22 +23202,40 @@
       </c>
       <c r="BD112" t="inlineStr"/>
       <c r="BE112" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF112" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BG112" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH112" t="inlineStr"/>
-      <c r="BI112" t="inlineStr"/>
-      <c r="BJ112" t="inlineStr"/>
-      <c r="BK112" t="inlineStr"/>
-      <c r="BL112" t="inlineStr"/>
-      <c r="BM112" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="BH112" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI112" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ112" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK112" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL112" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM112" t="n">
+        <v>3</v>
+      </c>
       <c r="BN112" t="inlineStr"/>
       <c r="BO112" t="inlineStr"/>
+      <c r="BP112" t="inlineStr"/>
+      <c r="BQ112" t="inlineStr"/>
+      <c r="BR112" t="inlineStr"/>
+      <c r="BS112" t="inlineStr"/>
+      <c r="BT112" t="inlineStr"/>
+      <c r="BU112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -21377,22 +23405,40 @@
       <c r="BC113" t="inlineStr"/>
       <c r="BD113" t="inlineStr"/>
       <c r="BE113" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BF113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG113" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH113" t="inlineStr"/>
-      <c r="BI113" t="inlineStr"/>
-      <c r="BJ113" t="inlineStr"/>
-      <c r="BK113" t="inlineStr"/>
-      <c r="BL113" t="inlineStr"/>
-      <c r="BM113" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="BH113" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI113" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ113" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK113" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL113" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM113" t="n">
+        <v>3</v>
+      </c>
       <c r="BN113" t="inlineStr"/>
       <c r="BO113" t="inlineStr"/>
+      <c r="BP113" t="inlineStr"/>
+      <c r="BQ113" t="inlineStr"/>
+      <c r="BR113" t="inlineStr"/>
+      <c r="BS113" t="inlineStr"/>
+      <c r="BT113" t="inlineStr"/>
+      <c r="BU113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -21564,22 +23610,40 @@
       <c r="BC114" t="inlineStr"/>
       <c r="BD114" t="inlineStr"/>
       <c r="BE114" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BF114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG114" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH114" t="inlineStr"/>
-      <c r="BI114" t="inlineStr"/>
-      <c r="BJ114" t="inlineStr"/>
-      <c r="BK114" t="inlineStr"/>
-      <c r="BL114" t="inlineStr"/>
-      <c r="BM114" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="BH114" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI114" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ114" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK114" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL114" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM114" t="n">
+        <v>3</v>
+      </c>
       <c r="BN114" t="inlineStr"/>
       <c r="BO114" t="inlineStr"/>
+      <c r="BP114" t="inlineStr"/>
+      <c r="BQ114" t="inlineStr"/>
+      <c r="BR114" t="inlineStr"/>
+      <c r="BS114" t="inlineStr"/>
+      <c r="BT114" t="inlineStr"/>
+      <c r="BU114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -21750,19 +23814,37 @@
         <v>1</v>
       </c>
       <c r="BF115" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BG115" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH115" t="inlineStr"/>
-      <c r="BI115" t="inlineStr"/>
-      <c r="BJ115" t="inlineStr"/>
-      <c r="BK115" t="inlineStr"/>
-      <c r="BL115" t="inlineStr"/>
-      <c r="BM115" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="BH115" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI115" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ115" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK115" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL115" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM115" t="n">
+        <v>3</v>
+      </c>
       <c r="BN115" t="inlineStr"/>
       <c r="BO115" t="inlineStr"/>
+      <c r="BP115" t="inlineStr"/>
+      <c r="BQ115" t="inlineStr"/>
+      <c r="BR115" t="inlineStr"/>
+      <c r="BS115" t="inlineStr"/>
+      <c r="BT115" t="inlineStr"/>
+      <c r="BU115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -21930,22 +24012,40 @@
       </c>
       <c r="BD116" t="inlineStr"/>
       <c r="BE116" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BF116" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BG116" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH116" t="inlineStr"/>
-      <c r="BI116" t="inlineStr"/>
-      <c r="BJ116" t="inlineStr"/>
-      <c r="BK116" t="inlineStr"/>
-      <c r="BL116" t="inlineStr"/>
-      <c r="BM116" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="BH116" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI116" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ116" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK116" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL116" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM116" t="n">
+        <v>3</v>
+      </c>
       <c r="BN116" t="inlineStr"/>
       <c r="BO116" t="inlineStr"/>
+      <c r="BP116" t="inlineStr"/>
+      <c r="BQ116" t="inlineStr"/>
+      <c r="BR116" t="inlineStr"/>
+      <c r="BS116" t="inlineStr"/>
+      <c r="BT116" t="inlineStr"/>
+      <c r="BU116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -22113,22 +24213,40 @@
       <c r="BC117" t="inlineStr"/>
       <c r="BD117" t="inlineStr"/>
       <c r="BE117" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BF117" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG117" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH117" t="inlineStr"/>
-      <c r="BI117" t="inlineStr"/>
-      <c r="BJ117" t="inlineStr"/>
-      <c r="BK117" t="inlineStr"/>
-      <c r="BL117" t="inlineStr"/>
-      <c r="BM117" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="BH117" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI117" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ117" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK117" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL117" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM117" t="n">
+        <v>3</v>
+      </c>
       <c r="BN117" t="inlineStr"/>
       <c r="BO117" t="inlineStr"/>
+      <c r="BP117" t="inlineStr"/>
+      <c r="BQ117" t="inlineStr"/>
+      <c r="BR117" t="inlineStr"/>
+      <c r="BS117" t="inlineStr"/>
+      <c r="BT117" t="inlineStr"/>
+      <c r="BU117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -22300,22 +24418,40 @@
         </is>
       </c>
       <c r="BE118" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BF118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG118" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH118" t="inlineStr"/>
-      <c r="BI118" t="inlineStr"/>
-      <c r="BJ118" t="inlineStr"/>
-      <c r="BK118" t="inlineStr"/>
-      <c r="BL118" t="inlineStr"/>
-      <c r="BM118" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="BH118" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI118" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ118" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK118" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL118" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM118" t="n">
+        <v>3</v>
+      </c>
       <c r="BN118" t="inlineStr"/>
       <c r="BO118" t="inlineStr"/>
+      <c r="BP118" t="inlineStr"/>
+      <c r="BQ118" t="inlineStr"/>
+      <c r="BR118" t="inlineStr"/>
+      <c r="BS118" t="inlineStr"/>
+      <c r="BT118" t="inlineStr"/>
+      <c r="BU118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -22481,22 +24617,40 @@
         </is>
       </c>
       <c r="BE119" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BF119" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG119" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH119" t="inlineStr"/>
-      <c r="BI119" t="inlineStr"/>
-      <c r="BJ119" t="inlineStr"/>
-      <c r="BK119" t="inlineStr"/>
-      <c r="BL119" t="inlineStr"/>
-      <c r="BM119" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="BH119" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI119" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ119" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK119" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL119" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM119" t="n">
+        <v>3</v>
+      </c>
       <c r="BN119" t="inlineStr"/>
       <c r="BO119" t="inlineStr"/>
+      <c r="BP119" t="inlineStr"/>
+      <c r="BQ119" t="inlineStr"/>
+      <c r="BR119" t="inlineStr"/>
+      <c r="BS119" t="inlineStr"/>
+      <c r="BT119" t="inlineStr"/>
+      <c r="BU119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -22662,22 +24816,40 @@
       <c r="BC120" t="inlineStr"/>
       <c r="BD120" t="inlineStr"/>
       <c r="BE120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF120" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BG120" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH120" t="inlineStr"/>
-      <c r="BI120" t="inlineStr"/>
-      <c r="BJ120" t="inlineStr"/>
-      <c r="BK120" t="inlineStr"/>
-      <c r="BL120" t="inlineStr"/>
-      <c r="BM120" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="BH120" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI120" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ120" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK120" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL120" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM120" t="n">
+        <v>3</v>
+      </c>
       <c r="BN120" t="inlineStr"/>
       <c r="BO120" t="inlineStr"/>
+      <c r="BP120" t="inlineStr"/>
+      <c r="BQ120" t="inlineStr"/>
+      <c r="BR120" t="inlineStr"/>
+      <c r="BS120" t="inlineStr"/>
+      <c r="BT120" t="inlineStr"/>
+      <c r="BU120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -22845,22 +25017,40 @@
       </c>
       <c r="BD121" t="inlineStr"/>
       <c r="BE121" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BF121" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BG121" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH121" t="inlineStr"/>
-      <c r="BI121" t="inlineStr"/>
-      <c r="BJ121" t="inlineStr"/>
-      <c r="BK121" t="inlineStr"/>
-      <c r="BL121" t="inlineStr"/>
-      <c r="BM121" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="BH121" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI121" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ121" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK121" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL121" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM121" t="n">
+        <v>3</v>
+      </c>
       <c r="BN121" t="inlineStr"/>
       <c r="BO121" t="inlineStr"/>
+      <c r="BP121" t="inlineStr"/>
+      <c r="BQ121" t="inlineStr"/>
+      <c r="BR121" t="inlineStr"/>
+      <c r="BS121" t="inlineStr"/>
+      <c r="BT121" t="inlineStr"/>
+      <c r="BU121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -23028,22 +25218,40 @@
       <c r="BC122" t="inlineStr"/>
       <c r="BD122" t="inlineStr"/>
       <c r="BE122" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BF122" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BG122" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH122" t="inlineStr"/>
-      <c r="BI122" t="inlineStr"/>
-      <c r="BJ122" t="inlineStr"/>
-      <c r="BK122" t="inlineStr"/>
-      <c r="BL122" t="inlineStr"/>
-      <c r="BM122" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="BH122" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI122" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ122" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK122" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL122" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM122" t="n">
+        <v>3</v>
+      </c>
       <c r="BN122" t="inlineStr"/>
       <c r="BO122" t="inlineStr"/>
+      <c r="BP122" t="inlineStr"/>
+      <c r="BQ122" t="inlineStr"/>
+      <c r="BR122" t="inlineStr"/>
+      <c r="BS122" t="inlineStr"/>
+      <c r="BT122" t="inlineStr"/>
+      <c r="BU122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -23213,22 +25421,40 @@
       <c r="BC123" t="inlineStr"/>
       <c r="BD123" t="inlineStr"/>
       <c r="BE123" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BF123" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BG123" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH123" t="inlineStr"/>
-      <c r="BI123" t="inlineStr"/>
-      <c r="BJ123" t="inlineStr"/>
-      <c r="BK123" t="inlineStr"/>
-      <c r="BL123" t="inlineStr"/>
-      <c r="BM123" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="BH123" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI123" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ123" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK123" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL123" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM123" t="n">
+        <v>3</v>
+      </c>
       <c r="BN123" t="inlineStr"/>
       <c r="BO123" t="inlineStr"/>
+      <c r="BP123" t="inlineStr"/>
+      <c r="BQ123" t="inlineStr"/>
+      <c r="BR123" t="inlineStr"/>
+      <c r="BS123" t="inlineStr"/>
+      <c r="BT123" t="inlineStr"/>
+      <c r="BU123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -23394,22 +25620,40 @@
         </is>
       </c>
       <c r="BE124" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BF124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG124" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH124" t="inlineStr"/>
-      <c r="BI124" t="inlineStr"/>
-      <c r="BJ124" t="inlineStr"/>
-      <c r="BK124" t="inlineStr"/>
-      <c r="BL124" t="inlineStr"/>
-      <c r="BM124" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="BH124" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI124" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ124" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK124" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL124" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM124" t="n">
+        <v>3</v>
+      </c>
       <c r="BN124" t="inlineStr"/>
       <c r="BO124" t="inlineStr"/>
+      <c r="BP124" t="inlineStr"/>
+      <c r="BQ124" t="inlineStr"/>
+      <c r="BR124" t="inlineStr"/>
+      <c r="BS124" t="inlineStr"/>
+      <c r="BT124" t="inlineStr"/>
+      <c r="BU124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -23577,22 +25821,40 @@
       <c r="BC125" t="inlineStr"/>
       <c r="BD125" t="inlineStr"/>
       <c r="BE125" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BF125" t="n">
         <v>2</v>
       </c>
       <c r="BG125" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH125" t="inlineStr"/>
-      <c r="BI125" t="inlineStr"/>
-      <c r="BJ125" t="inlineStr"/>
-      <c r="BK125" t="inlineStr"/>
-      <c r="BL125" t="inlineStr"/>
-      <c r="BM125" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="BH125" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI125" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ125" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK125" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL125" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM125" t="n">
+        <v>3</v>
+      </c>
       <c r="BN125" t="inlineStr"/>
       <c r="BO125" t="inlineStr"/>
+      <c r="BP125" t="inlineStr"/>
+      <c r="BQ125" t="inlineStr"/>
+      <c r="BR125" t="inlineStr"/>
+      <c r="BS125" t="inlineStr"/>
+      <c r="BT125" t="inlineStr"/>
+      <c r="BU125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -23760,22 +26022,40 @@
         </is>
       </c>
       <c r="BE126" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BF126" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG126" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH126" t="inlineStr"/>
-      <c r="BI126" t="inlineStr"/>
-      <c r="BJ126" t="inlineStr"/>
-      <c r="BK126" t="inlineStr"/>
-      <c r="BL126" t="inlineStr"/>
-      <c r="BM126" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="BH126" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI126" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ126" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK126" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL126" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM126" t="n">
+        <v>3</v>
+      </c>
       <c r="BN126" t="inlineStr"/>
       <c r="BO126" t="inlineStr"/>
+      <c r="BP126" t="inlineStr"/>
+      <c r="BQ126" t="inlineStr"/>
+      <c r="BR126" t="inlineStr"/>
+      <c r="BS126" t="inlineStr"/>
+      <c r="BT126" t="inlineStr"/>
+      <c r="BU126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -23947,22 +26227,40 @@
         </is>
       </c>
       <c r="BE127" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BF127" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG127" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH127" t="inlineStr"/>
-      <c r="BI127" t="inlineStr"/>
-      <c r="BJ127" t="inlineStr"/>
-      <c r="BK127" t="inlineStr"/>
-      <c r="BL127" t="inlineStr"/>
-      <c r="BM127" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="BH127" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI127" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ127" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK127" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL127" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM127" t="n">
+        <v>3</v>
+      </c>
       <c r="BN127" t="inlineStr"/>
       <c r="BO127" t="inlineStr"/>
+      <c r="BP127" t="inlineStr"/>
+      <c r="BQ127" t="inlineStr"/>
+      <c r="BR127" t="inlineStr"/>
+      <c r="BS127" t="inlineStr"/>
+      <c r="BT127" t="inlineStr"/>
+      <c r="BU127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -24132,22 +26430,40 @@
       <c r="BC128" t="inlineStr"/>
       <c r="BD128" t="inlineStr"/>
       <c r="BE128" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG128" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH128" t="inlineStr"/>
-      <c r="BI128" t="inlineStr"/>
-      <c r="BJ128" t="inlineStr"/>
-      <c r="BK128" t="inlineStr"/>
-      <c r="BL128" t="inlineStr"/>
-      <c r="BM128" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="BH128" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI128" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ128" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK128" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL128" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM128" t="n">
+        <v>3</v>
+      </c>
       <c r="BN128" t="inlineStr"/>
       <c r="BO128" t="inlineStr"/>
+      <c r="BP128" t="inlineStr"/>
+      <c r="BQ128" t="inlineStr"/>
+      <c r="BR128" t="inlineStr"/>
+      <c r="BS128" t="inlineStr"/>
+      <c r="BT128" t="inlineStr"/>
+      <c r="BU128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -24318,19 +26634,37 @@
         <v>1</v>
       </c>
       <c r="BF129" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BG129" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH129" t="inlineStr"/>
-      <c r="BI129" t="inlineStr"/>
-      <c r="BJ129" t="inlineStr"/>
-      <c r="BK129" t="inlineStr"/>
-      <c r="BL129" t="inlineStr"/>
-      <c r="BM129" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="BH129" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI129" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ129" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK129" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL129" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM129" t="n">
+        <v>3</v>
+      </c>
       <c r="BN129" t="inlineStr"/>
       <c r="BO129" t="inlineStr"/>
+      <c r="BP129" t="inlineStr"/>
+      <c r="BQ129" t="inlineStr"/>
+      <c r="BR129" t="inlineStr"/>
+      <c r="BS129" t="inlineStr"/>
+      <c r="BT129" t="inlineStr"/>
+      <c r="BU129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -24502,22 +26836,40 @@
       <c r="BC130" t="inlineStr"/>
       <c r="BD130" t="inlineStr"/>
       <c r="BE130" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BF130" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BG130" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH130" t="inlineStr"/>
-      <c r="BI130" t="inlineStr"/>
-      <c r="BJ130" t="inlineStr"/>
-      <c r="BK130" t="inlineStr"/>
-      <c r="BL130" t="inlineStr"/>
-      <c r="BM130" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="BH130" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI130" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ130" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK130" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL130" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM130" t="n">
+        <v>3</v>
+      </c>
       <c r="BN130" t="inlineStr"/>
       <c r="BO130" t="inlineStr"/>
+      <c r="BP130" t="inlineStr"/>
+      <c r="BQ130" t="inlineStr"/>
+      <c r="BR130" t="inlineStr"/>
+      <c r="BS130" t="inlineStr"/>
+      <c r="BT130" t="inlineStr"/>
+      <c r="BU130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -24690,19 +27042,37 @@
         <v>1</v>
       </c>
       <c r="BF131" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BG131" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH131" t="inlineStr"/>
-      <c r="BI131" t="inlineStr"/>
-      <c r="BJ131" t="inlineStr"/>
-      <c r="BK131" t="inlineStr"/>
-      <c r="BL131" t="inlineStr"/>
-      <c r="BM131" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="BH131" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI131" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ131" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK131" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL131" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM131" t="n">
+        <v>3</v>
+      </c>
       <c r="BN131" t="inlineStr"/>
       <c r="BO131" t="inlineStr"/>
+      <c r="BP131" t="inlineStr"/>
+      <c r="BQ131" t="inlineStr"/>
+      <c r="BR131" t="inlineStr"/>
+      <c r="BS131" t="inlineStr"/>
+      <c r="BT131" t="inlineStr"/>
+      <c r="BU131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -24868,22 +27238,40 @@
       <c r="BC132" t="inlineStr"/>
       <c r="BD132" t="inlineStr"/>
       <c r="BE132" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BF132" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG132" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH132" t="inlineStr"/>
-      <c r="BI132" t="inlineStr"/>
-      <c r="BJ132" t="inlineStr"/>
-      <c r="BK132" t="inlineStr"/>
-      <c r="BL132" t="inlineStr"/>
-      <c r="BM132" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="BH132" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI132" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ132" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK132" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL132" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM132" t="n">
+        <v>3</v>
+      </c>
       <c r="BN132" t="inlineStr"/>
       <c r="BO132" t="inlineStr"/>
+      <c r="BP132" t="inlineStr"/>
+      <c r="BQ132" t="inlineStr"/>
+      <c r="BR132" t="inlineStr"/>
+      <c r="BS132" t="inlineStr"/>
+      <c r="BT132" t="inlineStr"/>
+      <c r="BU132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -25049,22 +27437,40 @@
       <c r="BC133" t="inlineStr"/>
       <c r="BD133" t="inlineStr"/>
       <c r="BE133" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BF133" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BG133" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH133" t="inlineStr"/>
-      <c r="BI133" t="inlineStr"/>
-      <c r="BJ133" t="inlineStr"/>
-      <c r="BK133" t="inlineStr"/>
-      <c r="BL133" t="inlineStr"/>
-      <c r="BM133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="BH133" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI133" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ133" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK133" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL133" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM133" t="n">
+        <v>3</v>
+      </c>
       <c r="BN133" t="inlineStr"/>
       <c r="BO133" t="inlineStr"/>
+      <c r="BP133" t="inlineStr"/>
+      <c r="BQ133" t="inlineStr"/>
+      <c r="BR133" t="inlineStr"/>
+      <c r="BS133" t="inlineStr"/>
+      <c r="BT133" t="inlineStr"/>
+      <c r="BU133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -25230,22 +27636,40 @@
         </is>
       </c>
       <c r="BE134" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BF134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG134" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH134" t="inlineStr"/>
-      <c r="BI134" t="inlineStr"/>
-      <c r="BJ134" t="inlineStr"/>
-      <c r="BK134" t="inlineStr"/>
-      <c r="BL134" t="inlineStr"/>
-      <c r="BM134" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="BH134" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI134" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ134" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK134" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL134" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM134" t="n">
+        <v>3</v>
+      </c>
       <c r="BN134" t="inlineStr"/>
       <c r="BO134" t="inlineStr"/>
+      <c r="BP134" t="inlineStr"/>
+      <c r="BQ134" t="inlineStr"/>
+      <c r="BR134" t="inlineStr"/>
+      <c r="BS134" t="inlineStr"/>
+      <c r="BT134" t="inlineStr"/>
+      <c r="BU134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -25411,22 +27835,40 @@
         </is>
       </c>
       <c r="BE135" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BF135" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG135" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH135" t="inlineStr"/>
-      <c r="BI135" t="inlineStr"/>
-      <c r="BJ135" t="inlineStr"/>
-      <c r="BK135" t="inlineStr"/>
-      <c r="BL135" t="inlineStr"/>
-      <c r="BM135" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="BH135" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI135" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ135" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK135" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL135" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM135" t="n">
+        <v>3</v>
+      </c>
       <c r="BN135" t="inlineStr"/>
       <c r="BO135" t="inlineStr"/>
+      <c r="BP135" t="inlineStr"/>
+      <c r="BQ135" t="inlineStr"/>
+      <c r="BR135" t="inlineStr"/>
+      <c r="BS135" t="inlineStr"/>
+      <c r="BT135" t="inlineStr"/>
+      <c r="BU135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -25596,22 +28038,40 @@
         </is>
       </c>
       <c r="BE136" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BF136" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BG136" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH136" t="inlineStr"/>
-      <c r="BI136" t="inlineStr"/>
-      <c r="BJ136" t="inlineStr"/>
-      <c r="BK136" t="inlineStr"/>
-      <c r="BL136" t="inlineStr"/>
-      <c r="BM136" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="BH136" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI136" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ136" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK136" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL136" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM136" t="n">
+        <v>3</v>
+      </c>
       <c r="BN136" t="inlineStr"/>
       <c r="BO136" t="inlineStr"/>
+      <c r="BP136" t="inlineStr"/>
+      <c r="BQ136" t="inlineStr"/>
+      <c r="BR136" t="inlineStr"/>
+      <c r="BS136" t="inlineStr"/>
+      <c r="BT136" t="inlineStr"/>
+      <c r="BU136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -25775,22 +28235,40 @@
         </is>
       </c>
       <c r="BE137" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BF137" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BG137" t="n">
         <v>3</v>
       </c>
-      <c r="BH137" t="inlineStr"/>
-      <c r="BI137" t="inlineStr"/>
-      <c r="BJ137" t="inlineStr"/>
-      <c r="BK137" t="inlineStr"/>
-      <c r="BL137" t="inlineStr"/>
-      <c r="BM137" t="inlineStr"/>
+      <c r="BH137" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI137" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ137" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK137" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL137" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM137" t="n">
+        <v>3</v>
+      </c>
       <c r="BN137" t="inlineStr"/>
       <c r="BO137" t="inlineStr"/>
+      <c r="BP137" t="inlineStr"/>
+      <c r="BQ137" t="inlineStr"/>
+      <c r="BR137" t="inlineStr"/>
+      <c r="BS137" t="inlineStr"/>
+      <c r="BT137" t="inlineStr"/>
+      <c r="BU137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -25956,22 +28434,40 @@
       <c r="BC138" t="inlineStr"/>
       <c r="BD138" t="inlineStr"/>
       <c r="BE138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF138" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG138" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH138" t="inlineStr"/>
-      <c r="BI138" t="inlineStr"/>
-      <c r="BJ138" t="inlineStr"/>
-      <c r="BK138" t="inlineStr"/>
-      <c r="BL138" t="inlineStr"/>
-      <c r="BM138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="BH138" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI138" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ138" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK138" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL138" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM138" t="n">
+        <v>3</v>
+      </c>
       <c r="BN138" t="inlineStr"/>
       <c r="BO138" t="inlineStr"/>
+      <c r="BP138" t="inlineStr"/>
+      <c r="BQ138" t="inlineStr"/>
+      <c r="BR138" t="inlineStr"/>
+      <c r="BS138" t="inlineStr"/>
+      <c r="BT138" t="inlineStr"/>
+      <c r="BU138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -26139,22 +28635,40 @@
         </is>
       </c>
       <c r="BE139" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BF139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG139" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH139" t="inlineStr"/>
-      <c r="BI139" t="inlineStr"/>
-      <c r="BJ139" t="inlineStr"/>
-      <c r="BK139" t="inlineStr"/>
-      <c r="BL139" t="inlineStr"/>
-      <c r="BM139" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="BH139" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI139" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ139" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK139" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL139" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM139" t="n">
+        <v>3</v>
+      </c>
       <c r="BN139" t="inlineStr"/>
       <c r="BO139" t="inlineStr"/>
+      <c r="BP139" t="inlineStr"/>
+      <c r="BQ139" t="inlineStr"/>
+      <c r="BR139" t="inlineStr"/>
+      <c r="BS139" t="inlineStr"/>
+      <c r="BT139" t="inlineStr"/>
+      <c r="BU139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -26320,22 +28834,40 @@
       <c r="BC140" t="inlineStr"/>
       <c r="BD140" t="inlineStr"/>
       <c r="BE140" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BF140" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BG140" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH140" t="inlineStr"/>
-      <c r="BI140" t="inlineStr"/>
-      <c r="BJ140" t="inlineStr"/>
-      <c r="BK140" t="inlineStr"/>
-      <c r="BL140" t="inlineStr"/>
-      <c r="BM140" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="BH140" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI140" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ140" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK140" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL140" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM140" t="n">
+        <v>3</v>
+      </c>
       <c r="BN140" t="inlineStr"/>
       <c r="BO140" t="inlineStr"/>
+      <c r="BP140" t="inlineStr"/>
+      <c r="BQ140" t="inlineStr"/>
+      <c r="BR140" t="inlineStr"/>
+      <c r="BS140" t="inlineStr"/>
+      <c r="BT140" t="inlineStr"/>
+      <c r="BU140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -26507,22 +29039,40 @@
         </is>
       </c>
       <c r="BE141" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BF141" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG141" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH141" t="inlineStr"/>
-      <c r="BI141" t="inlineStr"/>
-      <c r="BJ141" t="inlineStr"/>
-      <c r="BK141" t="inlineStr"/>
-      <c r="BL141" t="inlineStr"/>
-      <c r="BM141" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="BH141" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI141" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ141" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK141" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL141" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM141" t="n">
+        <v>3</v>
+      </c>
       <c r="BN141" t="inlineStr"/>
       <c r="BO141" t="inlineStr"/>
+      <c r="BP141" t="inlineStr"/>
+      <c r="BQ141" t="inlineStr"/>
+      <c r="BR141" t="inlineStr"/>
+      <c r="BS141" t="inlineStr"/>
+      <c r="BT141" t="inlineStr"/>
+      <c r="BU141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -26688,22 +29238,40 @@
         </is>
       </c>
       <c r="BE142" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BF142" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BG142" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH142" t="inlineStr"/>
-      <c r="BI142" t="inlineStr"/>
-      <c r="BJ142" t="inlineStr"/>
-      <c r="BK142" t="inlineStr"/>
-      <c r="BL142" t="inlineStr"/>
-      <c r="BM142" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="BH142" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI142" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ142" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK142" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL142" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM142" t="n">
+        <v>3</v>
+      </c>
       <c r="BN142" t="inlineStr"/>
       <c r="BO142" t="inlineStr"/>
+      <c r="BP142" t="inlineStr"/>
+      <c r="BQ142" t="inlineStr"/>
+      <c r="BR142" t="inlineStr"/>
+      <c r="BS142" t="inlineStr"/>
+      <c r="BT142" t="inlineStr"/>
+      <c r="BU142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -26869,22 +29437,40 @@
       <c r="BC143" t="inlineStr"/>
       <c r="BD143" t="inlineStr"/>
       <c r="BE143" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF143" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BG143" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH143" t="inlineStr"/>
-      <c r="BI143" t="inlineStr"/>
-      <c r="BJ143" t="inlineStr"/>
-      <c r="BK143" t="inlineStr"/>
-      <c r="BL143" t="inlineStr"/>
-      <c r="BM143" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="BH143" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI143" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ143" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK143" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL143" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM143" t="n">
+        <v>3</v>
+      </c>
       <c r="BN143" t="inlineStr"/>
       <c r="BO143" t="inlineStr"/>
+      <c r="BP143" t="inlineStr"/>
+      <c r="BQ143" t="inlineStr"/>
+      <c r="BR143" t="inlineStr"/>
+      <c r="BS143" t="inlineStr"/>
+      <c r="BT143" t="inlineStr"/>
+      <c r="BU143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -27053,19 +29639,37 @@
         <v>1</v>
       </c>
       <c r="BF144" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BG144" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH144" t="inlineStr"/>
-      <c r="BI144" t="inlineStr"/>
-      <c r="BJ144" t="inlineStr"/>
-      <c r="BK144" t="inlineStr"/>
-      <c r="BL144" t="inlineStr"/>
-      <c r="BM144" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="BH144" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI144" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ144" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK144" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL144" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM144" t="n">
+        <v>3</v>
+      </c>
       <c r="BN144" t="inlineStr"/>
       <c r="BO144" t="inlineStr"/>
+      <c r="BP144" t="inlineStr"/>
+      <c r="BQ144" t="inlineStr"/>
+      <c r="BR144" t="inlineStr"/>
+      <c r="BS144" t="inlineStr"/>
+      <c r="BT144" t="inlineStr"/>
+      <c r="BU144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -27233,22 +29837,40 @@
       <c r="BC145" t="inlineStr"/>
       <c r="BD145" t="inlineStr"/>
       <c r="BE145" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BF145" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG145" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH145" t="inlineStr"/>
-      <c r="BI145" t="inlineStr"/>
-      <c r="BJ145" t="inlineStr"/>
-      <c r="BK145" t="inlineStr"/>
-      <c r="BL145" t="inlineStr"/>
-      <c r="BM145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="BH145" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI145" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ145" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK145" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL145" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM145" t="n">
+        <v>3</v>
+      </c>
       <c r="BN145" t="inlineStr"/>
       <c r="BO145" t="inlineStr"/>
+      <c r="BP145" t="inlineStr"/>
+      <c r="BQ145" t="inlineStr"/>
+      <c r="BR145" t="inlineStr"/>
+      <c r="BS145" t="inlineStr"/>
+      <c r="BT145" t="inlineStr"/>
+      <c r="BU145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -27418,22 +30040,40 @@
       <c r="BC146" t="inlineStr"/>
       <c r="BD146" t="inlineStr"/>
       <c r="BE146" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BF146" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BG146" t="n">
         <v>3</v>
       </c>
-      <c r="BH146" t="inlineStr"/>
-      <c r="BI146" t="inlineStr"/>
-      <c r="BJ146" t="inlineStr"/>
-      <c r="BK146" t="inlineStr"/>
-      <c r="BL146" t="inlineStr"/>
-      <c r="BM146" t="inlineStr"/>
+      <c r="BH146" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI146" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ146" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK146" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL146" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM146" t="n">
+        <v>3</v>
+      </c>
       <c r="BN146" t="inlineStr"/>
       <c r="BO146" t="inlineStr"/>
+      <c r="BP146" t="inlineStr"/>
+      <c r="BQ146" t="inlineStr"/>
+      <c r="BR146" t="inlineStr"/>
+      <c r="BS146" t="inlineStr"/>
+      <c r="BT146" t="inlineStr"/>
+      <c r="BU146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -27599,22 +30239,40 @@
         </is>
       </c>
       <c r="BE147" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BF147" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BG147" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH147" t="inlineStr"/>
-      <c r="BI147" t="inlineStr"/>
-      <c r="BJ147" t="inlineStr"/>
-      <c r="BK147" t="inlineStr"/>
-      <c r="BL147" t="inlineStr"/>
-      <c r="BM147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="BH147" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI147" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ147" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK147" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL147" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM147" t="n">
+        <v>3</v>
+      </c>
       <c r="BN147" t="inlineStr"/>
       <c r="BO147" t="inlineStr"/>
+      <c r="BP147" t="inlineStr"/>
+      <c r="BQ147" t="inlineStr"/>
+      <c r="BR147" t="inlineStr"/>
+      <c r="BS147" t="inlineStr"/>
+      <c r="BT147" t="inlineStr"/>
+      <c r="BU147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -27786,16 +30444,34 @@
         <v>2</v>
       </c>
       <c r="BG148" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH148" t="inlineStr"/>
-      <c r="BI148" t="inlineStr"/>
-      <c r="BJ148" t="inlineStr"/>
-      <c r="BK148" t="inlineStr"/>
-      <c r="BL148" t="inlineStr"/>
-      <c r="BM148" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="BH148" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI148" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ148" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK148" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL148" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM148" t="n">
+        <v>3</v>
+      </c>
       <c r="BN148" t="inlineStr"/>
       <c r="BO148" t="inlineStr"/>
+      <c r="BP148" t="inlineStr"/>
+      <c r="BQ148" t="inlineStr"/>
+      <c r="BR148" t="inlineStr"/>
+      <c r="BS148" t="inlineStr"/>
+      <c r="BT148" t="inlineStr"/>
+      <c r="BU148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -27963,22 +30639,40 @@
       </c>
       <c r="BD149" t="inlineStr"/>
       <c r="BE149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG149" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH149" t="inlineStr"/>
-      <c r="BI149" t="inlineStr"/>
-      <c r="BJ149" t="inlineStr"/>
-      <c r="BK149" t="inlineStr"/>
-      <c r="BL149" t="inlineStr"/>
-      <c r="BM149" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="BH149" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI149" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ149" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK149" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL149" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM149" t="n">
+        <v>3</v>
+      </c>
       <c r="BN149" t="inlineStr"/>
       <c r="BO149" t="inlineStr"/>
+      <c r="BP149" t="inlineStr"/>
+      <c r="BQ149" t="inlineStr"/>
+      <c r="BR149" t="inlineStr"/>
+      <c r="BS149" t="inlineStr"/>
+      <c r="BT149" t="inlineStr"/>
+      <c r="BU149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -28150,22 +30844,40 @@
       </c>
       <c r="BD150" t="inlineStr"/>
       <c r="BE150" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BF150" t="n">
         <v>2</v>
       </c>
       <c r="BG150" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH150" t="inlineStr"/>
-      <c r="BI150" t="inlineStr"/>
-      <c r="BJ150" t="inlineStr"/>
-      <c r="BK150" t="inlineStr"/>
-      <c r="BL150" t="inlineStr"/>
-      <c r="BM150" t="inlineStr"/>
+        <v>7</v>
+      </c>
+      <c r="BH150" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI150" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ150" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK150" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL150" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM150" t="n">
+        <v>3</v>
+      </c>
       <c r="BN150" t="inlineStr"/>
       <c r="BO150" t="inlineStr"/>
+      <c r="BP150" t="inlineStr"/>
+      <c r="BQ150" t="inlineStr"/>
+      <c r="BR150" t="inlineStr"/>
+      <c r="BS150" t="inlineStr"/>
+      <c r="BT150" t="inlineStr"/>
+      <c r="BU150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -28335,22 +31047,40 @@
       <c r="BC151" t="inlineStr"/>
       <c r="BD151" t="inlineStr"/>
       <c r="BE151" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BF151" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BG151" t="n">
-        <v>3</v>
-      </c>
-      <c r="BH151" t="inlineStr"/>
-      <c r="BI151" t="inlineStr"/>
-      <c r="BJ151" t="inlineStr"/>
-      <c r="BK151" t="inlineStr"/>
-      <c r="BL151" t="inlineStr"/>
-      <c r="BM151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="BH151" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI151" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ151" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK151" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL151" t="n">
+        <v>2</v>
+      </c>
+      <c r="BM151" t="n">
+        <v>3</v>
+      </c>
       <c r="BN151" t="inlineStr"/>
       <c r="BO151" t="inlineStr"/>
+      <c r="BP151" t="inlineStr"/>
+      <c r="BQ151" t="inlineStr"/>
+      <c r="BR151" t="inlineStr"/>
+      <c r="BS151" t="inlineStr"/>
+      <c r="BT151" t="inlineStr"/>
+      <c r="BU151" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -28363,7 +31093,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:E73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29774,22 +32504,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Ma_SP_1</t>
+          <t>Dealer_HCM_01_Rank1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Mã SP</t>
+          <t>Dealer_HCM_01. Based on your own thought and feeling, please let us know which dealer fits each of the following statement?"Best price"Please select and rank 5 of the following in order of suitability from 1 to 5 where 1 is most suitable and 2 is 2nd most suitablePlease keep dealers to move, put the 1st dealer on top, below are the 2nd, 3rd, 4th, 5th, 6th</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>RANKING</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>{'1': 'Concept 1', '2': 'Concept 2', '3': 'Concept 3'}</t>
+          <t>{'1': 'Nguyen Kim', '2': 'Dien May Xanh', '3': 'Dien May Cho Lon', '4': 'Others, please clarify 1', '5': 'Others, please clarify 2', '6': 'Others, please clarify 3', '7': 'None of above'}</t>
         </is>
       </c>
     </row>
@@ -29799,22 +32529,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Ma_SP_2</t>
+          <t>Dealer_HCM_01_Rank2</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Mã SP</t>
+          <t>Dealer_HCM_01. Based on your own thought and feeling, please let us know which dealer fits each of the following statement?"Best price"Please select and rank 5 of the following in order of suitability from 1 to 5 where 1 is most suitable and 2 is 2nd most suitablePlease keep dealers to move, put the 1st dealer on top, below are the 2nd, 3rd, 4th, 5th, 6th</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>RANKING</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>{'1': 'Concept 1', '2': 'Concept 2', '3': 'Concept 3'}</t>
+          <t>{'1': 'Nguyen Kim', '2': 'Dien May Xanh', '3': 'Dien May Cho Lon', '4': 'Others, please clarify 1', '5': 'Others, please clarify 2', '6': 'Others, please clarify 3', '7': 'None of above'}</t>
         </is>
       </c>
     </row>
@@ -29824,22 +32554,22 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Ma_SP_3</t>
+          <t>Dealer_HCM_01_Rank3</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Mã SP</t>
+          <t>Dealer_HCM_01. Based on your own thought and feeling, please let us know which dealer fits each of the following statement?"Best price"Please select and rank 5 of the following in order of suitability from 1 to 5 where 1 is most suitable and 2 is 2nd most suitablePlease keep dealers to move, put the 1st dealer on top, below are the 2nd, 3rd, 4th, 5th, 6th</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>RANKING</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>{'1': 'Concept 1', '2': 'Concept 2', '3': 'Concept 3'}</t>
+          <t>{'1': 'Nguyen Kim', '2': 'Dien May Xanh', '3': 'Dien May Cho Lon', '4': 'Others, please clarify 1', '5': 'Others, please clarify 2', '6': 'Others, please clarify 3', '7': 'None of above'}</t>
         </is>
       </c>
     </row>
@@ -29849,22 +32579,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>New_FT</t>
+          <t>Dealer_HCM_02_Rank1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>New FT</t>
+          <t>Dealer_HCM_02. Based on your own thought and feeling, please let us know which dealer fits each of the following statement?"Attractive promotions and many activities at store (wheel of fortune, lucky draw, etc.)"Please select and rank 5 of the following in order of suitability from 1 to 5 where 1 is most suitable and 2 is 2nd most suitablePlease keep dealers to move, put the 1st dealer on top, below are the 2nd, 3rd, 4th, 5th, 6th</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>RANKING</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'1': 'Nguyen Kim', '2': 'Dien May Xanh', '3': 'Dien May Cho Lon', '4': 'Others, please clarify 1', '5': 'Others, please clarify 2', '6': 'Others, please clarify 3', '7': 'None of above'}</t>
         </is>
       </c>
     </row>
@@ -29874,22 +32604,22 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>New_Num</t>
+          <t>Dealer_HCM_02_Rank2</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>New Num</t>
+          <t>Dealer_HCM_02. Based on your own thought and feeling, please let us know which dealer fits each of the following statement?"Attractive promotions and many activities at store (wheel of fortune, lucky draw, etc.)"Please select and rank 5 of the following in order of suitability from 1 to 5 where 1 is most suitable and 2 is 2nd most suitablePlease keep dealers to move, put the 1st dealer on top, below are the 2nd, 3rd, 4th, 5th, 6th</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>NUM</t>
+          <t>RANKING</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>{}</t>
+          <t>{'1': 'Nguyen Kim', '2': 'Dien May Xanh', '3': 'Dien May Cho Lon', '4': 'Others, please clarify 1', '5': 'Others, please clarify 2', '6': 'Others, please clarify 3', '7': 'None of above'}</t>
         </is>
       </c>
     </row>
@@ -29899,22 +32629,22 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>New_MA_1</t>
+          <t>Dealer_HCM_02_Rank3</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>New MA</t>
+          <t>Dealer_HCM_02. Based on your own thought and feeling, please let us know which dealer fits each of the following statement?"Attractive promotions and many activities at store (wheel of fortune, lucky draw, etc.)"Please select and rank 5 of the following in order of suitability from 1 to 5 where 1 is most suitable and 2 is 2nd most suitablePlease keep dealers to move, put the 1st dealer on top, below are the 2nd, 3rd, 4th, 5th, 6th</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>RANKING</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>{'1': '1', '2': '2', '3': '3', '4': '4', '5': '5', '6': '6', '7': '7'}</t>
+          <t>{'1': 'Nguyen Kim', '2': 'Dien May Xanh', '3': 'Dien May Cho Lon', '4': 'Others, please clarify 1', '5': 'Others, please clarify 2', '6': 'Others, please clarify 3', '7': 'None of above'}</t>
         </is>
       </c>
     </row>
@@ -29924,22 +32654,22 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>New_MA_2</t>
+          <t>Ma_SP_1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>New MA</t>
+          <t>Mã SP</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>{'1': '1', '2': '2', '3': '3', '4': '4', '5': '5', '6': '6', '7': '7'}</t>
+          <t>{'1': 'Concept 1', '2': 'Concept 2', '3': 'Concept 3'}</t>
         </is>
       </c>
     </row>
@@ -29949,22 +32679,22 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>New_MA_3</t>
+          <t>Ma_SP_2</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>New MA</t>
+          <t>Mã SP</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>{'1': '1', '2': '2', '3': '3', '4': '4', '5': '5', '6': '6', '7': '7'}</t>
+          <t>{'1': 'Concept 1', '2': 'Concept 2', '3': 'Concept 3'}</t>
         </is>
       </c>
     </row>
@@ -29974,22 +32704,22 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>New_MA_4</t>
+          <t>Ma_SP_3</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>New MA</t>
+          <t>Mã SP</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>{'1': '1', '2': '2', '3': '3', '4': '4', '5': '5', '6': '6', '7': '7'}</t>
+          <t>{'1': 'Concept 1', '2': 'Concept 2', '3': 'Concept 3'}</t>
         </is>
       </c>
     </row>
@@ -29999,22 +32729,22 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>New_MA_5</t>
+          <t>New_FT</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>New MA</t>
+          <t>New FT</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>MA</t>
+          <t>FT</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>{'1': '1', '2': '2', '3': '3', '4': '4', '5': '5', '6': '6', '7': '7'}</t>
+          <t>{}</t>
         </is>
       </c>
     </row>
@@ -30024,20 +32754,170 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
+          <t>New_Num</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>New Num</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>NUM</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>New_MA_1</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>New MA</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>{'1': '1', '2': '2', '3': '3', '4': '4', '5': '5', '6': '6', '7': '7'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>New_MA_2</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>New MA</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>{'1': '1', '2': '2', '3': '3', '4': '4', '5': '5', '6': '6', '7': '7'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>New_MA_3</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>New MA</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>{'1': '1', '2': '2', '3': '3', '4': '4', '5': '5', '6': '6', '7': '7'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>New_MA_4</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>New MA</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>{'1': '1', '2': '2', '3': '3', '4': '4', '5': '5', '6': '6', '7': '7'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>New_MA_5</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>New MA</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>{'1': '1', '2': '2', '3': '3', '4': '4', '5': '5', '6': '6', '7': '7'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
           <t>New_MA_6</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="C73" t="inlineStr">
         <is>
           <t>New MA</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>MA</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>{'1': '1', '2': '2', '3': '3', '4': '4', '5': '5', '6': '6', '7': '7'}</t>
         </is>

--- a/tests/VN8413_Data_preview.xlsx
+++ b/tests/VN8413_Data_preview.xlsx
@@ -820,9 +820,7 @@
       <c r="G2" t="n">
         <v>3</v>
       </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="n">
         <v>1</v>
       </c>
@@ -1021,9 +1019,7 @@
       <c r="G3" t="n">
         <v>3</v>
       </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="n">
         <v>1</v>
       </c>
@@ -1226,9 +1222,7 @@
       <c r="G4" t="n">
         <v>1</v>
       </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="n">
         <v>1</v>
       </c>
@@ -1835,9 +1829,7 @@
       <c r="G7" t="n">
         <v>3</v>
       </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="n">
         <v>1</v>
       </c>
@@ -2233,9 +2225,7 @@
       <c r="G9" t="n">
         <v>2</v>
       </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="n">
         <v>1</v>
       </c>
@@ -2436,9 +2426,7 @@
       <c r="G10" t="n">
         <v>3</v>
       </c>
-      <c r="H10" t="n">
-        <v>2</v>
-      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="n">
         <v>1</v>
       </c>
@@ -2641,9 +2629,7 @@
       <c r="G11" t="n">
         <v>1</v>
       </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="n">
         <v>1</v>
       </c>
@@ -2840,9 +2826,7 @@
       <c r="G12" t="n">
         <v>2</v>
       </c>
-      <c r="H12" t="n">
-        <v>2</v>
-      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
         <v>1</v>
       </c>
@@ -3037,9 +3021,7 @@
       <c r="G13" t="n">
         <v>1</v>
       </c>
-      <c r="H13" t="n">
-        <v>2</v>
-      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="n">
         <v>1</v>
       </c>
@@ -3240,9 +3222,7 @@
       <c r="G14" t="n">
         <v>3</v>
       </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="n">
         <v>1</v>
       </c>
@@ -3437,9 +3417,7 @@
       <c r="G15" t="n">
         <v>1</v>
       </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="n">
         <v>1</v>
       </c>
@@ -3640,9 +3618,7 @@
       <c r="G16" t="n">
         <v>3</v>
       </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="n">
         <v>1</v>
       </c>
@@ -3845,9 +3821,7 @@
       <c r="G17" t="n">
         <v>3</v>
       </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="n">
         <v>1</v>
       </c>
@@ -4050,9 +4024,7 @@
       <c r="G18" t="n">
         <v>2</v>
       </c>
-      <c r="H18" t="n">
-        <v>2</v>
-      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
         <v>1</v>
       </c>
@@ -4249,9 +4221,7 @@
       <c r="G19" t="n">
         <v>3</v>
       </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="n">
         <v>1</v>
       </c>
@@ -4450,9 +4420,7 @@
       <c r="G20" t="n">
         <v>3</v>
       </c>
-      <c r="H20" t="n">
-        <v>2</v>
-      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="n">
         <v>1</v>
       </c>
@@ -4649,9 +4617,7 @@
       <c r="G21" t="n">
         <v>1</v>
       </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="n">
         <v>1</v>
       </c>
@@ -5059,9 +5025,7 @@
       <c r="G23" t="n">
         <v>3</v>
       </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="n">
         <v>1</v>
       </c>
@@ -5262,9 +5226,7 @@
       <c r="G24" t="n">
         <v>1</v>
       </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="n">
         <v>1</v>
       </c>
@@ -5463,9 +5425,7 @@
       <c r="G25" t="n">
         <v>2</v>
       </c>
-      <c r="H25" t="n">
-        <v>2</v>
-      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="n">
         <v>1</v>
       </c>
@@ -5668,9 +5628,7 @@
       <c r="G26" t="n">
         <v>2</v>
       </c>
-      <c r="H26" t="n">
-        <v>2</v>
-      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="n">
         <v>1</v>
       </c>
@@ -6275,9 +6233,7 @@
       <c r="G29" t="n">
         <v>2</v>
       </c>
-      <c r="H29" t="n">
-        <v>2</v>
-      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="n">
         <v>1</v>
       </c>
@@ -6480,9 +6436,7 @@
       <c r="G30" t="n">
         <v>2</v>
       </c>
-      <c r="H30" t="n">
-        <v>2</v>
-      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="n">
         <v>1</v>
       </c>
@@ -6685,9 +6639,7 @@
       <c r="G31" t="n">
         <v>3</v>
       </c>
-      <c r="H31" t="n">
-        <v>2</v>
-      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="n">
         <v>1</v>
       </c>
@@ -7089,9 +7041,7 @@
       <c r="G33" t="n">
         <v>3</v>
       </c>
-      <c r="H33" t="n">
-        <v>2</v>
-      </c>
+      <c r="H33" t="inlineStr"/>
       <c r="I33" t="n">
         <v>1</v>
       </c>
@@ -7294,9 +7244,7 @@
       <c r="G34" t="n">
         <v>1</v>
       </c>
-      <c r="H34" t="n">
-        <v>2</v>
-      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="n">
         <v>1</v>
       </c>
@@ -7497,9 +7445,7 @@
       <c r="G35" t="n">
         <v>2</v>
       </c>
-      <c r="H35" t="n">
-        <v>2</v>
-      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="n">
         <v>1</v>
       </c>
@@ -7702,9 +7648,7 @@
       <c r="G36" t="n">
         <v>3</v>
       </c>
-      <c r="H36" t="n">
-        <v>2</v>
-      </c>
+      <c r="H36" t="inlineStr"/>
       <c r="I36" t="n">
         <v>1</v>
       </c>
@@ -7907,9 +7851,7 @@
       <c r="G37" t="n">
         <v>1</v>
       </c>
-      <c r="H37" t="n">
-        <v>2</v>
-      </c>
+      <c r="H37" t="inlineStr"/>
       <c r="I37" t="n">
         <v>1</v>
       </c>
@@ -8108,9 +8050,7 @@
       <c r="G38" t="n">
         <v>2</v>
       </c>
-      <c r="H38" t="n">
-        <v>2</v>
-      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="n">
         <v>1</v>
       </c>
@@ -8313,9 +8253,7 @@
       <c r="G39" t="n">
         <v>2</v>
       </c>
-      <c r="H39" t="n">
-        <v>2</v>
-      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="n">
         <v>1</v>
       </c>
@@ -8516,9 +8454,7 @@
       <c r="G40" t="n">
         <v>3</v>
       </c>
-      <c r="H40" t="n">
-        <v>2</v>
-      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="n">
         <v>1</v>
       </c>
@@ -8715,9 +8651,7 @@
       <c r="G41" t="n">
         <v>2</v>
       </c>
-      <c r="H41" t="n">
-        <v>2</v>
-      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="n">
         <v>1</v>
       </c>
@@ -8916,9 +8850,7 @@
       <c r="G42" t="n">
         <v>2</v>
       </c>
-      <c r="H42" t="n">
-        <v>2</v>
-      </c>
+      <c r="H42" t="inlineStr"/>
       <c r="I42" t="n">
         <v>1</v>
       </c>
@@ -9119,9 +9051,7 @@
       <c r="G43" t="n">
         <v>1</v>
       </c>
-      <c r="H43" t="n">
-        <v>2</v>
-      </c>
+      <c r="H43" t="inlineStr"/>
       <c r="I43" t="n">
         <v>1</v>
       </c>
@@ -9320,9 +9250,7 @@
       <c r="G44" t="n">
         <v>3</v>
       </c>
-      <c r="H44" t="n">
-        <v>2</v>
-      </c>
+      <c r="H44" t="inlineStr"/>
       <c r="I44" t="n">
         <v>1</v>
       </c>
@@ -9525,9 +9453,7 @@
       <c r="G45" t="n">
         <v>2</v>
       </c>
-      <c r="H45" t="n">
-        <v>2</v>
-      </c>
+      <c r="H45" t="inlineStr"/>
       <c r="I45" t="n">
         <v>1</v>
       </c>
@@ -9726,9 +9652,7 @@
       <c r="G46" t="n">
         <v>2</v>
       </c>
-      <c r="H46" t="n">
-        <v>2</v>
-      </c>
+      <c r="H46" t="inlineStr"/>
       <c r="I46" t="n">
         <v>1</v>
       </c>
@@ -9931,9 +9855,7 @@
       <c r="G47" t="n">
         <v>3</v>
       </c>
-      <c r="H47" t="n">
-        <v>2</v>
-      </c>
+      <c r="H47" t="inlineStr"/>
       <c r="I47" t="n">
         <v>1</v>
       </c>
@@ -10136,9 +10058,7 @@
       <c r="G48" t="n">
         <v>3</v>
       </c>
-      <c r="H48" t="n">
-        <v>2</v>
-      </c>
+      <c r="H48" t="inlineStr"/>
       <c r="I48" t="n">
         <v>1</v>
       </c>
@@ -10339,9 +10259,7 @@
       <c r="G49" t="n">
         <v>1</v>
       </c>
-      <c r="H49" t="n">
-        <v>2</v>
-      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="n">
         <v>1</v>
       </c>
@@ -10544,9 +10462,7 @@
       <c r="G50" t="n">
         <v>1</v>
       </c>
-      <c r="H50" t="n">
-        <v>2</v>
-      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="n">
         <v>1</v>
       </c>
@@ -10747,9 +10663,7 @@
       <c r="G51" t="n">
         <v>3</v>
       </c>
-      <c r="H51" t="n">
-        <v>2</v>
-      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="n">
         <v>1</v>
       </c>
@@ -10952,9 +10866,7 @@
       <c r="G52" t="n">
         <v>2</v>
       </c>
-      <c r="H52" t="n">
-        <v>2</v>
-      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="n">
         <v>1</v>
       </c>
@@ -11157,9 +11069,7 @@
       <c r="G53" t="n">
         <v>3</v>
       </c>
-      <c r="H53" t="n">
-        <v>2</v>
-      </c>
+      <c r="H53" t="inlineStr"/>
       <c r="I53" t="n">
         <v>1</v>
       </c>
@@ -11362,9 +11272,7 @@
       <c r="G54" t="n">
         <v>2</v>
       </c>
-      <c r="H54" t="n">
-        <v>2</v>
-      </c>
+      <c r="H54" t="inlineStr"/>
       <c r="I54" t="n">
         <v>1</v>
       </c>
@@ -11565,9 +11473,7 @@
       <c r="G55" t="n">
         <v>3</v>
       </c>
-      <c r="H55" t="n">
-        <v>2</v>
-      </c>
+      <c r="H55" t="inlineStr"/>
       <c r="I55" t="n">
         <v>1</v>
       </c>
@@ -11770,9 +11676,7 @@
       <c r="G56" t="n">
         <v>1</v>
       </c>
-      <c r="H56" t="n">
-        <v>2</v>
-      </c>
+      <c r="H56" t="inlineStr"/>
       <c r="I56" t="n">
         <v>1</v>
       </c>
@@ -11975,9 +11879,7 @@
       <c r="G57" t="n">
         <v>3</v>
       </c>
-      <c r="H57" t="n">
-        <v>2</v>
-      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="n">
         <v>1</v>
       </c>
@@ -12178,9 +12080,7 @@
       <c r="G58" t="n">
         <v>2</v>
       </c>
-      <c r="H58" t="n">
-        <v>2</v>
-      </c>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="n">
         <v>1</v>
       </c>
@@ -12383,9 +12283,7 @@
       <c r="G59" t="n">
         <v>2</v>
       </c>
-      <c r="H59" t="n">
-        <v>2</v>
-      </c>
+      <c r="H59" t="inlineStr"/>
       <c r="I59" t="n">
         <v>1</v>
       </c>
@@ -12588,9 +12486,7 @@
       <c r="G60" t="n">
         <v>3</v>
       </c>
-      <c r="H60" t="n">
-        <v>2</v>
-      </c>
+      <c r="H60" t="inlineStr"/>
       <c r="I60" t="n">
         <v>1</v>
       </c>
@@ -12793,9 +12689,7 @@
       <c r="G61" t="n">
         <v>3</v>
       </c>
-      <c r="H61" t="n">
-        <v>2</v>
-      </c>
+      <c r="H61" t="inlineStr"/>
       <c r="I61" t="n">
         <v>1</v>
       </c>
@@ -13197,9 +13091,7 @@
       <c r="G63" t="n">
         <v>2</v>
       </c>
-      <c r="H63" t="n">
-        <v>2</v>
-      </c>
+      <c r="H63" t="inlineStr"/>
       <c r="I63" t="n">
         <v>1</v>
       </c>
@@ -13396,9 +13288,7 @@
       <c r="G64" t="n">
         <v>1</v>
       </c>
-      <c r="H64" t="n">
-        <v>2</v>
-      </c>
+      <c r="H64" t="inlineStr"/>
       <c r="I64" t="n">
         <v>1</v>
       </c>
@@ -13800,9 +13690,7 @@
       <c r="G66" t="n">
         <v>3</v>
       </c>
-      <c r="H66" t="n">
-        <v>2</v>
-      </c>
+      <c r="H66" t="inlineStr"/>
       <c r="I66" t="n">
         <v>1</v>
       </c>
@@ -14003,9 +13891,7 @@
       <c r="G67" t="n">
         <v>1</v>
       </c>
-      <c r="H67" t="n">
-        <v>2</v>
-      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="n">
         <v>1</v>
       </c>
@@ -14208,9 +14094,7 @@
       <c r="G68" t="n">
         <v>3</v>
       </c>
-      <c r="H68" t="n">
-        <v>2</v>
-      </c>
+      <c r="H68" t="inlineStr"/>
       <c r="I68" t="n">
         <v>1</v>
       </c>
@@ -14405,9 +14289,7 @@
       <c r="G69" t="n">
         <v>3</v>
       </c>
-      <c r="H69" t="n">
-        <v>2</v>
-      </c>
+      <c r="H69" t="inlineStr"/>
       <c r="I69" t="n">
         <v>1</v>
       </c>
@@ -14811,9 +14693,7 @@
       <c r="G71" t="n">
         <v>1</v>
       </c>
-      <c r="H71" t="n">
-        <v>2</v>
-      </c>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="n">
         <v>1</v>
       </c>
@@ -15016,9 +14896,7 @@
       <c r="G72" t="n">
         <v>1</v>
       </c>
-      <c r="H72" t="n">
-        <v>2</v>
-      </c>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="n">
         <v>1</v>
       </c>
@@ -15221,9 +15099,7 @@
       <c r="G73" t="n">
         <v>3</v>
       </c>
-      <c r="H73" t="n">
-        <v>2</v>
-      </c>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="n">
         <v>1</v>
       </c>
@@ -15629,9 +15505,7 @@
       <c r="G75" t="n">
         <v>1</v>
       </c>
-      <c r="H75" t="n">
-        <v>2</v>
-      </c>
+      <c r="H75" t="inlineStr"/>
       <c r="I75" t="n">
         <v>1</v>
       </c>
@@ -16437,9 +16311,7 @@
       <c r="G79" t="n">
         <v>2</v>
       </c>
-      <c r="H79" t="n">
-        <v>2</v>
-      </c>
+      <c r="H79" t="inlineStr"/>
       <c r="I79" t="n">
         <v>1</v>
       </c>
@@ -16638,9 +16510,7 @@
       <c r="G80" t="n">
         <v>2</v>
       </c>
-      <c r="H80" t="n">
-        <v>2</v>
-      </c>
+      <c r="H80" t="inlineStr"/>
       <c r="I80" t="n">
         <v>1</v>
       </c>
@@ -16843,9 +16713,7 @@
       <c r="G81" t="n">
         <v>3</v>
       </c>
-      <c r="H81" t="n">
-        <v>2</v>
-      </c>
+      <c r="H81" t="inlineStr"/>
       <c r="I81" t="n">
         <v>1</v>
       </c>
@@ -17241,9 +17109,7 @@
       <c r="G83" t="n">
         <v>2</v>
       </c>
-      <c r="H83" t="n">
-        <v>2</v>
-      </c>
+      <c r="H83" t="inlineStr"/>
       <c r="I83" t="n">
         <v>1</v>
       </c>
@@ -17848,9 +17714,7 @@
       <c r="G86" t="n">
         <v>2</v>
       </c>
-      <c r="H86" t="n">
-        <v>2</v>
-      </c>
+      <c r="H86" t="inlineStr"/>
       <c r="I86" t="n">
         <v>1</v>
       </c>
@@ -18453,9 +18317,7 @@
       <c r="G89" t="n">
         <v>2</v>
       </c>
-      <c r="H89" t="n">
-        <v>2</v>
-      </c>
+      <c r="H89" t="inlineStr"/>
       <c r="I89" t="n">
         <v>1</v>
       </c>
@@ -18855,9 +18717,7 @@
       <c r="G91" t="n">
         <v>3</v>
       </c>
-      <c r="H91" t="n">
-        <v>2</v>
-      </c>
+      <c r="H91" t="inlineStr"/>
       <c r="I91" t="n">
         <v>1</v>
       </c>
@@ -23870,9 +23730,7 @@
       <c r="G116" t="n">
         <v>2</v>
       </c>
-      <c r="H116" t="n">
-        <v>2</v>
-      </c>
+      <c r="H116" t="inlineStr"/>
       <c r="I116" t="n">
         <v>1</v>
       </c>
@@ -24272,9 +24130,7 @@
       <c r="G118" t="n">
         <v>3</v>
       </c>
-      <c r="H118" t="n">
-        <v>2</v>
-      </c>
+      <c r="H118" t="inlineStr"/>
       <c r="I118" t="n">
         <v>1</v>
       </c>
@@ -26690,9 +26546,7 @@
       <c r="G130" t="n">
         <v>1</v>
       </c>
-      <c r="H130" t="n">
-        <v>2</v>
-      </c>
+      <c r="H130" t="inlineStr"/>
       <c r="I130" t="n">
         <v>1</v>
       </c>
@@ -28097,9 +27951,7 @@
       <c r="G137" t="n">
         <v>1</v>
       </c>
-      <c r="H137" t="n">
-        <v>2</v>
-      </c>
+      <c r="H137" t="inlineStr"/>
       <c r="I137" t="n">
         <v>1</v>
       </c>
@@ -28893,9 +28745,7 @@
       <c r="G141" t="n">
         <v>2</v>
       </c>
-      <c r="H141" t="n">
-        <v>2</v>
-      </c>
+      <c r="H141" t="inlineStr"/>
       <c r="I141" t="n">
         <v>1</v>
       </c>

--- a/tests/VN8413_Data_preview.xlsx
+++ b/tests/VN8413_Data_preview.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BU151"/>
+  <dimension ref="A1:BV151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -795,6 +795,11 @@
           <t>New_MA_6</t>
         </is>
       </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>Weight_Var</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -994,6 +999,9 @@
       <c r="BS2" t="inlineStr"/>
       <c r="BT2" t="inlineStr"/>
       <c r="BU2" t="inlineStr"/>
+      <c r="BV2" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1197,6 +1205,9 @@
       <c r="BS3" t="inlineStr"/>
       <c r="BT3" t="inlineStr"/>
       <c r="BU3" t="inlineStr"/>
+      <c r="BV3" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -1400,6 +1411,9 @@
       <c r="BS4" t="inlineStr"/>
       <c r="BT4" t="inlineStr"/>
       <c r="BU4" t="inlineStr"/>
+      <c r="BV4" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -1601,6 +1615,9 @@
       <c r="BS5" t="inlineStr"/>
       <c r="BT5" t="inlineStr"/>
       <c r="BU5" t="inlineStr"/>
+      <c r="BV5" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1804,6 +1821,9 @@
       <c r="BS6" t="inlineStr"/>
       <c r="BT6" t="inlineStr"/>
       <c r="BU6" t="inlineStr"/>
+      <c r="BV6" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1999,6 +2019,9 @@
       <c r="BS7" t="inlineStr"/>
       <c r="BT7" t="inlineStr"/>
       <c r="BU7" t="inlineStr"/>
+      <c r="BV7" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -2200,6 +2223,9 @@
       <c r="BS8" t="inlineStr"/>
       <c r="BT8" t="inlineStr"/>
       <c r="BU8" t="inlineStr"/>
+      <c r="BV8" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -2401,6 +2427,9 @@
       <c r="BS9" t="inlineStr"/>
       <c r="BT9" t="inlineStr"/>
       <c r="BU9" t="inlineStr"/>
+      <c r="BV9" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -2604,6 +2633,9 @@
       <c r="BS10" t="inlineStr"/>
       <c r="BT10" t="inlineStr"/>
       <c r="BU10" t="inlineStr"/>
+      <c r="BV10" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -2801,6 +2833,9 @@
       <c r="BS11" t="inlineStr"/>
       <c r="BT11" t="inlineStr"/>
       <c r="BU11" t="inlineStr"/>
+      <c r="BV11" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -2996,6 +3031,9 @@
       <c r="BS12" t="inlineStr"/>
       <c r="BT12" t="inlineStr"/>
       <c r="BU12" t="inlineStr"/>
+      <c r="BV12" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -3197,6 +3235,9 @@
       <c r="BS13" t="inlineStr"/>
       <c r="BT13" t="inlineStr"/>
       <c r="BU13" t="inlineStr"/>
+      <c r="BV13" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -3392,6 +3433,9 @@
       <c r="BS14" t="inlineStr"/>
       <c r="BT14" t="inlineStr"/>
       <c r="BU14" t="inlineStr"/>
+      <c r="BV14" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -3593,6 +3637,9 @@
       <c r="BS15" t="inlineStr"/>
       <c r="BT15" t="inlineStr"/>
       <c r="BU15" t="inlineStr"/>
+      <c r="BV15" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -3796,6 +3843,9 @@
       <c r="BS16" t="inlineStr"/>
       <c r="BT16" t="inlineStr"/>
       <c r="BU16" t="inlineStr"/>
+      <c r="BV16" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -3999,6 +4049,9 @@
       <c r="BS17" t="inlineStr"/>
       <c r="BT17" t="inlineStr"/>
       <c r="BU17" t="inlineStr"/>
+      <c r="BV17" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -4196,6 +4249,9 @@
       <c r="BS18" t="inlineStr"/>
       <c r="BT18" t="inlineStr"/>
       <c r="BU18" t="inlineStr"/>
+      <c r="BV18" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -4395,6 +4451,9 @@
       <c r="BS19" t="inlineStr"/>
       <c r="BT19" t="inlineStr"/>
       <c r="BU19" t="inlineStr"/>
+      <c r="BV19" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -4592,6 +4651,9 @@
       <c r="BS20" t="inlineStr"/>
       <c r="BT20" t="inlineStr"/>
       <c r="BU20" t="inlineStr"/>
+      <c r="BV20" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -4795,6 +4857,9 @@
       <c r="BS21" t="inlineStr"/>
       <c r="BT21" t="inlineStr"/>
       <c r="BU21" t="inlineStr"/>
+      <c r="BV21" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -5000,6 +5065,9 @@
       <c r="BS22" t="inlineStr"/>
       <c r="BT22" t="inlineStr"/>
       <c r="BU22" t="inlineStr"/>
+      <c r="BV22" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -5201,6 +5269,9 @@
       <c r="BS23" t="inlineStr"/>
       <c r="BT23" t="inlineStr"/>
       <c r="BU23" t="inlineStr"/>
+      <c r="BV23" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -5400,6 +5471,9 @@
       <c r="BS24" t="inlineStr"/>
       <c r="BT24" t="inlineStr"/>
       <c r="BU24" t="inlineStr"/>
+      <c r="BV24" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -5603,6 +5677,9 @@
       <c r="BS25" t="inlineStr"/>
       <c r="BT25" t="inlineStr"/>
       <c r="BU25" t="inlineStr"/>
+      <c r="BV25" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -5802,6 +5879,9 @@
       <c r="BS26" t="inlineStr"/>
       <c r="BT26" t="inlineStr"/>
       <c r="BU26" t="inlineStr"/>
+      <c r="BV26" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -6003,6 +6083,9 @@
       <c r="BS27" t="inlineStr"/>
       <c r="BT27" t="inlineStr"/>
       <c r="BU27" t="inlineStr"/>
+      <c r="BV27" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -6208,6 +6291,9 @@
       <c r="BS28" t="inlineStr"/>
       <c r="BT28" t="inlineStr"/>
       <c r="BU28" t="inlineStr"/>
+      <c r="BV28" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -6411,6 +6497,9 @@
       <c r="BS29" t="inlineStr"/>
       <c r="BT29" t="inlineStr"/>
       <c r="BU29" t="inlineStr"/>
+      <c r="BV29" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -6614,6 +6703,9 @@
       <c r="BS30" t="inlineStr"/>
       <c r="BT30" t="inlineStr"/>
       <c r="BU30" t="inlineStr"/>
+      <c r="BV30" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -6817,6 +6909,9 @@
       <c r="BS31" t="inlineStr"/>
       <c r="BT31" t="inlineStr"/>
       <c r="BU31" t="inlineStr"/>
+      <c r="BV31" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -7016,6 +7111,9 @@
       <c r="BS32" t="inlineStr"/>
       <c r="BT32" t="inlineStr"/>
       <c r="BU32" t="inlineStr"/>
+      <c r="BV32" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -7219,6 +7317,9 @@
       <c r="BS33" t="inlineStr"/>
       <c r="BT33" t="inlineStr"/>
       <c r="BU33" t="inlineStr"/>
+      <c r="BV33" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -7420,6 +7521,9 @@
       <c r="BS34" t="inlineStr"/>
       <c r="BT34" t="inlineStr"/>
       <c r="BU34" t="inlineStr"/>
+      <c r="BV34" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -7623,6 +7727,9 @@
       <c r="BS35" t="inlineStr"/>
       <c r="BT35" t="inlineStr"/>
       <c r="BU35" t="inlineStr"/>
+      <c r="BV35" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -7826,6 +7933,9 @@
       <c r="BS36" t="inlineStr"/>
       <c r="BT36" t="inlineStr"/>
       <c r="BU36" t="inlineStr"/>
+      <c r="BV36" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -8025,6 +8135,9 @@
       <c r="BS37" t="inlineStr"/>
       <c r="BT37" t="inlineStr"/>
       <c r="BU37" t="inlineStr"/>
+      <c r="BV37" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -8228,6 +8341,9 @@
       <c r="BS38" t="inlineStr"/>
       <c r="BT38" t="inlineStr"/>
       <c r="BU38" t="inlineStr"/>
+      <c r="BV38" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -8429,6 +8545,9 @@
       <c r="BS39" t="inlineStr"/>
       <c r="BT39" t="inlineStr"/>
       <c r="BU39" t="inlineStr"/>
+      <c r="BV39" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -8626,6 +8745,9 @@
       <c r="BS40" t="inlineStr"/>
       <c r="BT40" t="inlineStr"/>
       <c r="BU40" t="inlineStr"/>
+      <c r="BV40" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -8825,6 +8947,9 @@
       <c r="BS41" t="inlineStr"/>
       <c r="BT41" t="inlineStr"/>
       <c r="BU41" t="inlineStr"/>
+      <c r="BV41" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -9026,6 +9151,9 @@
       <c r="BS42" t="inlineStr"/>
       <c r="BT42" t="inlineStr"/>
       <c r="BU42" t="inlineStr"/>
+      <c r="BV42" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -9225,6 +9353,9 @@
       <c r="BS43" t="inlineStr"/>
       <c r="BT43" t="inlineStr"/>
       <c r="BU43" t="inlineStr"/>
+      <c r="BV43" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -9428,6 +9559,9 @@
       <c r="BS44" t="inlineStr"/>
       <c r="BT44" t="inlineStr"/>
       <c r="BU44" t="inlineStr"/>
+      <c r="BV44" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -9627,6 +9761,9 @@
       <c r="BS45" t="inlineStr"/>
       <c r="BT45" t="inlineStr"/>
       <c r="BU45" t="inlineStr"/>
+      <c r="BV45" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -9830,6 +9967,9 @@
       <c r="BS46" t="inlineStr"/>
       <c r="BT46" t="inlineStr"/>
       <c r="BU46" t="inlineStr"/>
+      <c r="BV46" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -10033,6 +10173,9 @@
       <c r="BS47" t="inlineStr"/>
       <c r="BT47" t="inlineStr"/>
       <c r="BU47" t="inlineStr"/>
+      <c r="BV47" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -10234,6 +10377,9 @@
       <c r="BS48" t="inlineStr"/>
       <c r="BT48" t="inlineStr"/>
       <c r="BU48" t="inlineStr"/>
+      <c r="BV48" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -10437,6 +10583,9 @@
       <c r="BS49" t="inlineStr"/>
       <c r="BT49" t="inlineStr"/>
       <c r="BU49" t="inlineStr"/>
+      <c r="BV49" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -10638,6 +10787,9 @@
       <c r="BS50" t="inlineStr"/>
       <c r="BT50" t="inlineStr"/>
       <c r="BU50" t="inlineStr"/>
+      <c r="BV50" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -10841,6 +10993,9 @@
       <c r="BS51" t="inlineStr"/>
       <c r="BT51" t="inlineStr"/>
       <c r="BU51" t="inlineStr"/>
+      <c r="BV51" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -11044,6 +11199,9 @@
       <c r="BS52" t="inlineStr"/>
       <c r="BT52" t="inlineStr"/>
       <c r="BU52" t="inlineStr"/>
+      <c r="BV52" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -11247,6 +11405,9 @@
       <c r="BS53" t="inlineStr"/>
       <c r="BT53" t="inlineStr"/>
       <c r="BU53" t="inlineStr"/>
+      <c r="BV53" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -11448,6 +11609,9 @@
       <c r="BS54" t="inlineStr"/>
       <c r="BT54" t="inlineStr"/>
       <c r="BU54" t="inlineStr"/>
+      <c r="BV54" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -11651,6 +11815,9 @@
       <c r="BS55" t="inlineStr"/>
       <c r="BT55" t="inlineStr"/>
       <c r="BU55" t="inlineStr"/>
+      <c r="BV55" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -11854,6 +12021,9 @@
       <c r="BS56" t="inlineStr"/>
       <c r="BT56" t="inlineStr"/>
       <c r="BU56" t="inlineStr"/>
+      <c r="BV56" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -12055,6 +12225,9 @@
       <c r="BS57" t="inlineStr"/>
       <c r="BT57" t="inlineStr"/>
       <c r="BU57" t="inlineStr"/>
+      <c r="BV57" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -12258,6 +12431,9 @@
       <c r="BS58" t="inlineStr"/>
       <c r="BT58" t="inlineStr"/>
       <c r="BU58" t="inlineStr"/>
+      <c r="BV58" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -12461,6 +12637,9 @@
       <c r="BS59" t="inlineStr"/>
       <c r="BT59" t="inlineStr"/>
       <c r="BU59" t="inlineStr"/>
+      <c r="BV59" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -12664,6 +12843,9 @@
       <c r="BS60" t="inlineStr"/>
       <c r="BT60" t="inlineStr"/>
       <c r="BU60" t="inlineStr"/>
+      <c r="BV60" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -12867,6 +13049,9 @@
       <c r="BS61" t="inlineStr"/>
       <c r="BT61" t="inlineStr"/>
       <c r="BU61" t="inlineStr"/>
+      <c r="BV61" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -13066,6 +13251,9 @@
       <c r="BS62" t="inlineStr"/>
       <c r="BT62" t="inlineStr"/>
       <c r="BU62" t="inlineStr"/>
+      <c r="BV62" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -13263,6 +13451,9 @@
       <c r="BS63" t="inlineStr"/>
       <c r="BT63" t="inlineStr"/>
       <c r="BU63" t="inlineStr"/>
+      <c r="BV63" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -13466,6 +13657,9 @@
       <c r="BS64" t="inlineStr"/>
       <c r="BT64" t="inlineStr"/>
       <c r="BU64" t="inlineStr"/>
+      <c r="BV64" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -13665,6 +13859,9 @@
       <c r="BS65" t="inlineStr"/>
       <c r="BT65" t="inlineStr"/>
       <c r="BU65" t="inlineStr"/>
+      <c r="BV65" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -13866,6 +14063,9 @@
       <c r="BS66" t="inlineStr"/>
       <c r="BT66" t="inlineStr"/>
       <c r="BU66" t="inlineStr"/>
+      <c r="BV66" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -14069,6 +14269,9 @@
       <c r="BS67" t="inlineStr"/>
       <c r="BT67" t="inlineStr"/>
       <c r="BU67" t="inlineStr"/>
+      <c r="BV67" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -14264,6 +14467,9 @@
       <c r="BS68" t="inlineStr"/>
       <c r="BT68" t="inlineStr"/>
       <c r="BU68" t="inlineStr"/>
+      <c r="BV68" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -14467,6 +14673,9 @@
       <c r="BS69" t="inlineStr"/>
       <c r="BT69" t="inlineStr"/>
       <c r="BU69" t="inlineStr"/>
+      <c r="BV69" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -14668,6 +14877,9 @@
       <c r="BS70" t="inlineStr"/>
       <c r="BT70" t="inlineStr"/>
       <c r="BU70" t="inlineStr"/>
+      <c r="BV70" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -14871,6 +15083,9 @@
       <c r="BS71" t="inlineStr"/>
       <c r="BT71" t="inlineStr"/>
       <c r="BU71" t="inlineStr"/>
+      <c r="BV71" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -15074,6 +15289,9 @@
       <c r="BS72" t="inlineStr"/>
       <c r="BT72" t="inlineStr"/>
       <c r="BU72" t="inlineStr"/>
+      <c r="BV72" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -15277,6 +15495,9 @@
       <c r="BS73" t="inlineStr"/>
       <c r="BT73" t="inlineStr"/>
       <c r="BU73" t="inlineStr"/>
+      <c r="BV73" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -15480,6 +15701,9 @@
       <c r="BS74" t="inlineStr"/>
       <c r="BT74" t="inlineStr"/>
       <c r="BU74" t="inlineStr"/>
+      <c r="BV74" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -15683,6 +15907,9 @@
       <c r="BS75" t="inlineStr"/>
       <c r="BT75" t="inlineStr"/>
       <c r="BU75" t="inlineStr"/>
+      <c r="BV75" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -15886,6 +16113,9 @@
       <c r="BS76" t="inlineStr"/>
       <c r="BT76" t="inlineStr"/>
       <c r="BU76" t="inlineStr"/>
+      <c r="BV76" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -16085,6 +16315,9 @@
       <c r="BS77" t="inlineStr"/>
       <c r="BT77" t="inlineStr"/>
       <c r="BU77" t="inlineStr"/>
+      <c r="BV77" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -16286,6 +16519,9 @@
       <c r="BS78" t="inlineStr"/>
       <c r="BT78" t="inlineStr"/>
       <c r="BU78" t="inlineStr"/>
+      <c r="BV78" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -16485,6 +16721,9 @@
       <c r="BS79" t="inlineStr"/>
       <c r="BT79" t="inlineStr"/>
       <c r="BU79" t="inlineStr"/>
+      <c r="BV79" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -16688,6 +16927,9 @@
       <c r="BS80" t="inlineStr"/>
       <c r="BT80" t="inlineStr"/>
       <c r="BU80" t="inlineStr"/>
+      <c r="BV80" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -16883,6 +17125,9 @@
       <c r="BS81" t="inlineStr"/>
       <c r="BT81" t="inlineStr"/>
       <c r="BU81" t="inlineStr"/>
+      <c r="BV81" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -17084,6 +17329,9 @@
       <c r="BS82" t="inlineStr"/>
       <c r="BT82" t="inlineStr"/>
       <c r="BU82" t="inlineStr"/>
+      <c r="BV82" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -17287,6 +17535,9 @@
       <c r="BS83" t="inlineStr"/>
       <c r="BT83" t="inlineStr"/>
       <c r="BU83" t="inlineStr"/>
+      <c r="BV83" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -17488,6 +17739,9 @@
       <c r="BS84" t="inlineStr"/>
       <c r="BT84" t="inlineStr"/>
       <c r="BU84" t="inlineStr"/>
+      <c r="BV84" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -17689,6 +17943,9 @@
       <c r="BS85" t="inlineStr"/>
       <c r="BT85" t="inlineStr"/>
       <c r="BU85" t="inlineStr"/>
+      <c r="BV85" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -17890,6 +18147,9 @@
       <c r="BS86" t="inlineStr"/>
       <c r="BT86" t="inlineStr"/>
       <c r="BU86" t="inlineStr"/>
+      <c r="BV86" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -18091,6 +18351,9 @@
       <c r="BS87" t="inlineStr"/>
       <c r="BT87" t="inlineStr"/>
       <c r="BU87" t="inlineStr"/>
+      <c r="BV87" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -18292,6 +18555,9 @@
       <c r="BS88" t="inlineStr"/>
       <c r="BT88" t="inlineStr"/>
       <c r="BU88" t="inlineStr"/>
+      <c r="BV88" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -18491,6 +18757,9 @@
       <c r="BS89" t="inlineStr"/>
       <c r="BT89" t="inlineStr"/>
       <c r="BU89" t="inlineStr"/>
+      <c r="BV89" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -18692,6 +18961,9 @@
       <c r="BS90" t="inlineStr"/>
       <c r="BT90" t="inlineStr"/>
       <c r="BU90" t="inlineStr"/>
+      <c r="BV90" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -18893,6 +19165,9 @@
       <c r="BS91" t="inlineStr"/>
       <c r="BT91" t="inlineStr"/>
       <c r="BU91" t="inlineStr"/>
+      <c r="BV91" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -19096,6 +19371,9 @@
       <c r="BS92" t="inlineStr"/>
       <c r="BT92" t="inlineStr"/>
       <c r="BU92" t="inlineStr"/>
+      <c r="BV92" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -19295,6 +19573,9 @@
       <c r="BS93" t="inlineStr"/>
       <c r="BT93" t="inlineStr"/>
       <c r="BU93" t="inlineStr"/>
+      <c r="BV93" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -19494,6 +19775,9 @@
       <c r="BS94" t="inlineStr"/>
       <c r="BT94" t="inlineStr"/>
       <c r="BU94" t="inlineStr"/>
+      <c r="BV94" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -19693,6 +19977,9 @@
       <c r="BS95" t="inlineStr"/>
       <c r="BT95" t="inlineStr"/>
       <c r="BU95" t="inlineStr"/>
+      <c r="BV95" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -19896,6 +20183,9 @@
       <c r="BS96" t="inlineStr"/>
       <c r="BT96" t="inlineStr"/>
       <c r="BU96" t="inlineStr"/>
+      <c r="BV96" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -20095,6 +20385,9 @@
       <c r="BS97" t="inlineStr"/>
       <c r="BT97" t="inlineStr"/>
       <c r="BU97" t="inlineStr"/>
+      <c r="BV97" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -20294,6 +20587,9 @@
       <c r="BS98" t="inlineStr"/>
       <c r="BT98" t="inlineStr"/>
       <c r="BU98" t="inlineStr"/>
+      <c r="BV98" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -20493,6 +20789,9 @@
       <c r="BS99" t="inlineStr"/>
       <c r="BT99" t="inlineStr"/>
       <c r="BU99" t="inlineStr"/>
+      <c r="BV99" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -20694,6 +20993,9 @@
       <c r="BS100" t="inlineStr"/>
       <c r="BT100" t="inlineStr"/>
       <c r="BU100" t="inlineStr"/>
+      <c r="BV100" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -20895,6 +21197,9 @@
       <c r="BS101" t="inlineStr"/>
       <c r="BT101" t="inlineStr"/>
       <c r="BU101" t="inlineStr"/>
+      <c r="BV101" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -21094,6 +21399,9 @@
       <c r="BS102" t="inlineStr"/>
       <c r="BT102" t="inlineStr"/>
       <c r="BU102" t="inlineStr"/>
+      <c r="BV102" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -21295,6 +21603,9 @@
       <c r="BS103" t="inlineStr"/>
       <c r="BT103" t="inlineStr"/>
       <c r="BU103" t="inlineStr"/>
+      <c r="BV103" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -21496,6 +21807,9 @@
       <c r="BS104" t="inlineStr"/>
       <c r="BT104" t="inlineStr"/>
       <c r="BU104" t="inlineStr"/>
+      <c r="BV104" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -21695,6 +22009,9 @@
       <c r="BS105" t="inlineStr"/>
       <c r="BT105" t="inlineStr"/>
       <c r="BU105" t="inlineStr"/>
+      <c r="BV105" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -21892,6 +22209,9 @@
       <c r="BS106" t="inlineStr"/>
       <c r="BT106" t="inlineStr"/>
       <c r="BU106" t="inlineStr"/>
+      <c r="BV106" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -22093,6 +22413,9 @@
       <c r="BS107" t="inlineStr"/>
       <c r="BT107" t="inlineStr"/>
       <c r="BU107" t="inlineStr"/>
+      <c r="BV107" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -22294,6 +22617,9 @@
       <c r="BS108" t="inlineStr"/>
       <c r="BT108" t="inlineStr"/>
       <c r="BU108" t="inlineStr"/>
+      <c r="BV108" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -22495,6 +22821,9 @@
       <c r="BS109" t="inlineStr"/>
       <c r="BT109" t="inlineStr"/>
       <c r="BU109" t="inlineStr"/>
+      <c r="BV109" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -22696,6 +23025,9 @@
       <c r="BS110" t="inlineStr"/>
       <c r="BT110" t="inlineStr"/>
       <c r="BU110" t="inlineStr"/>
+      <c r="BV110" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -22897,6 +23229,9 @@
       <c r="BS111" t="inlineStr"/>
       <c r="BT111" t="inlineStr"/>
       <c r="BU111" t="inlineStr"/>
+      <c r="BV111" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -23096,6 +23431,9 @@
       <c r="BS112" t="inlineStr"/>
       <c r="BT112" t="inlineStr"/>
       <c r="BU112" t="inlineStr"/>
+      <c r="BV112" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -23299,6 +23637,9 @@
       <c r="BS113" t="inlineStr"/>
       <c r="BT113" t="inlineStr"/>
       <c r="BU113" t="inlineStr"/>
+      <c r="BV113" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -23504,6 +23845,9 @@
       <c r="BS114" t="inlineStr"/>
       <c r="BT114" t="inlineStr"/>
       <c r="BU114" t="inlineStr"/>
+      <c r="BV114" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -23705,6 +24049,9 @@
       <c r="BS115" t="inlineStr"/>
       <c r="BT115" t="inlineStr"/>
       <c r="BU115" t="inlineStr"/>
+      <c r="BV115" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -23904,6 +24251,9 @@
       <c r="BS116" t="inlineStr"/>
       <c r="BT116" t="inlineStr"/>
       <c r="BU116" t="inlineStr"/>
+      <c r="BV116" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -24105,6 +24455,9 @@
       <c r="BS117" t="inlineStr"/>
       <c r="BT117" t="inlineStr"/>
       <c r="BU117" t="inlineStr"/>
+      <c r="BV117" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -24308,6 +24661,9 @@
       <c r="BS118" t="inlineStr"/>
       <c r="BT118" t="inlineStr"/>
       <c r="BU118" t="inlineStr"/>
+      <c r="BV118" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -24507,6 +24863,9 @@
       <c r="BS119" t="inlineStr"/>
       <c r="BT119" t="inlineStr"/>
       <c r="BU119" t="inlineStr"/>
+      <c r="BV119" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -24706,6 +25065,9 @@
       <c r="BS120" t="inlineStr"/>
       <c r="BT120" t="inlineStr"/>
       <c r="BU120" t="inlineStr"/>
+      <c r="BV120" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -24907,6 +25269,9 @@
       <c r="BS121" t="inlineStr"/>
       <c r="BT121" t="inlineStr"/>
       <c r="BU121" t="inlineStr"/>
+      <c r="BV121" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -25108,6 +25473,9 @@
       <c r="BS122" t="inlineStr"/>
       <c r="BT122" t="inlineStr"/>
       <c r="BU122" t="inlineStr"/>
+      <c r="BV122" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -25311,6 +25679,9 @@
       <c r="BS123" t="inlineStr"/>
       <c r="BT123" t="inlineStr"/>
       <c r="BU123" t="inlineStr"/>
+      <c r="BV123" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -25510,6 +25881,9 @@
       <c r="BS124" t="inlineStr"/>
       <c r="BT124" t="inlineStr"/>
       <c r="BU124" t="inlineStr"/>
+      <c r="BV124" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -25711,6 +26085,9 @@
       <c r="BS125" t="inlineStr"/>
       <c r="BT125" t="inlineStr"/>
       <c r="BU125" t="inlineStr"/>
+      <c r="BV125" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -25912,6 +26289,9 @@
       <c r="BS126" t="inlineStr"/>
       <c r="BT126" t="inlineStr"/>
       <c r="BU126" t="inlineStr"/>
+      <c r="BV126" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -26117,6 +26497,9 @@
       <c r="BS127" t="inlineStr"/>
       <c r="BT127" t="inlineStr"/>
       <c r="BU127" t="inlineStr"/>
+      <c r="BV127" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -26320,6 +26703,9 @@
       <c r="BS128" t="inlineStr"/>
       <c r="BT128" t="inlineStr"/>
       <c r="BU128" t="inlineStr"/>
+      <c r="BV128" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -26521,6 +26907,9 @@
       <c r="BS129" t="inlineStr"/>
       <c r="BT129" t="inlineStr"/>
       <c r="BU129" t="inlineStr"/>
+      <c r="BV129" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -26724,6 +27113,9 @@
       <c r="BS130" t="inlineStr"/>
       <c r="BT130" t="inlineStr"/>
       <c r="BU130" t="inlineStr"/>
+      <c r="BV130" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -26927,6 +27319,9 @@
       <c r="BS131" t="inlineStr"/>
       <c r="BT131" t="inlineStr"/>
       <c r="BU131" t="inlineStr"/>
+      <c r="BV131" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -27126,6 +27521,9 @@
       <c r="BS132" t="inlineStr"/>
       <c r="BT132" t="inlineStr"/>
       <c r="BU132" t="inlineStr"/>
+      <c r="BV132" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -27325,6 +27723,9 @@
       <c r="BS133" t="inlineStr"/>
       <c r="BT133" t="inlineStr"/>
       <c r="BU133" t="inlineStr"/>
+      <c r="BV133" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -27524,6 +27925,9 @@
       <c r="BS134" t="inlineStr"/>
       <c r="BT134" t="inlineStr"/>
       <c r="BU134" t="inlineStr"/>
+      <c r="BV134" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -27723,6 +28127,9 @@
       <c r="BS135" t="inlineStr"/>
       <c r="BT135" t="inlineStr"/>
       <c r="BU135" t="inlineStr"/>
+      <c r="BV135" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -27926,6 +28333,9 @@
       <c r="BS136" t="inlineStr"/>
       <c r="BT136" t="inlineStr"/>
       <c r="BU136" t="inlineStr"/>
+      <c r="BV136" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -28121,6 +28531,9 @@
       <c r="BS137" t="inlineStr"/>
       <c r="BT137" t="inlineStr"/>
       <c r="BU137" t="inlineStr"/>
+      <c r="BV137" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -28320,6 +28733,9 @@
       <c r="BS138" t="inlineStr"/>
       <c r="BT138" t="inlineStr"/>
       <c r="BU138" t="inlineStr"/>
+      <c r="BV138" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -28521,6 +28937,9 @@
       <c r="BS139" t="inlineStr"/>
       <c r="BT139" t="inlineStr"/>
       <c r="BU139" t="inlineStr"/>
+      <c r="BV139" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -28720,6 +29139,9 @@
       <c r="BS140" t="inlineStr"/>
       <c r="BT140" t="inlineStr"/>
       <c r="BU140" t="inlineStr"/>
+      <c r="BV140" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -28923,6 +29345,9 @@
       <c r="BS141" t="inlineStr"/>
       <c r="BT141" t="inlineStr"/>
       <c r="BU141" t="inlineStr"/>
+      <c r="BV141" t="n">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -29122,6 +29547,9 @@
       <c r="BS142" t="inlineStr"/>
       <c r="BT142" t="inlineStr"/>
       <c r="BU142" t="inlineStr"/>
+      <c r="BV142" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -29321,6 +29749,9 @@
       <c r="BS143" t="inlineStr"/>
       <c r="BT143" t="inlineStr"/>
       <c r="BU143" t="inlineStr"/>
+      <c r="BV143" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -29520,6 +29951,9 @@
       <c r="BS144" t="inlineStr"/>
       <c r="BT144" t="inlineStr"/>
       <c r="BU144" t="inlineStr"/>
+      <c r="BV144" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -29721,6 +30155,9 @@
       <c r="BS145" t="inlineStr"/>
       <c r="BT145" t="inlineStr"/>
       <c r="BU145" t="inlineStr"/>
+      <c r="BV145" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -29924,6 +30361,9 @@
       <c r="BS146" t="inlineStr"/>
       <c r="BT146" t="inlineStr"/>
       <c r="BU146" t="inlineStr"/>
+      <c r="BV146" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -30123,6 +30563,9 @@
       <c r="BS147" t="inlineStr"/>
       <c r="BT147" t="inlineStr"/>
       <c r="BU147" t="inlineStr"/>
+      <c r="BV147" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -30322,6 +30765,9 @@
       <c r="BS148" t="inlineStr"/>
       <c r="BT148" t="inlineStr"/>
       <c r="BU148" t="inlineStr"/>
+      <c r="BV148" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -30523,6 +30969,9 @@
       <c r="BS149" t="inlineStr"/>
       <c r="BT149" t="inlineStr"/>
       <c r="BU149" t="inlineStr"/>
+      <c r="BV149" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -30728,6 +31177,9 @@
       <c r="BS150" t="inlineStr"/>
       <c r="BT150" t="inlineStr"/>
       <c r="BU150" t="inlineStr"/>
+      <c r="BV150" t="n">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -30931,6 +31383,9 @@
       <c r="BS151" t="inlineStr"/>
       <c r="BT151" t="inlineStr"/>
       <c r="BU151" t="inlineStr"/>
+      <c r="BV151" t="n">
+        <v>0.3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -30943,7 +31398,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:E74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32773,6 +33228,31 @@
         </is>
       </c>
     </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Weight_Var</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Weight_Var</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>NUM</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/tests/VN8413_Data_preview.xlsx
+++ b/tests/VN8413_Data_preview.xlsx
@@ -31519,7 +31519,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>FT</t>
+          <t>NUM</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">

--- a/tests/VN8413_Data_preview.xlsx
+++ b/tests/VN8413_Data_preview.xlsx
@@ -1000,7 +1000,7 @@
       <c r="BT2" t="inlineStr"/>
       <c r="BU2" t="inlineStr"/>
       <c r="BV2" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="3">
@@ -1206,7 +1206,7 @@
       <c r="BT3" t="inlineStr"/>
       <c r="BU3" t="inlineStr"/>
       <c r="BV3" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="4">
@@ -1412,7 +1412,7 @@
       <c r="BT4" t="inlineStr"/>
       <c r="BU4" t="inlineStr"/>
       <c r="BV4" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="5">
@@ -1616,7 +1616,7 @@
       <c r="BT5" t="inlineStr"/>
       <c r="BU5" t="inlineStr"/>
       <c r="BV5" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="6">
@@ -1822,7 +1822,7 @@
       <c r="BT6" t="inlineStr"/>
       <c r="BU6" t="inlineStr"/>
       <c r="BV6" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="7">
@@ -2020,7 +2020,7 @@
       <c r="BT7" t="inlineStr"/>
       <c r="BU7" t="inlineStr"/>
       <c r="BV7" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="8">
@@ -2224,7 +2224,7 @@
       <c r="BT8" t="inlineStr"/>
       <c r="BU8" t="inlineStr"/>
       <c r="BV8" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="9">
@@ -2428,7 +2428,7 @@
       <c r="BT9" t="inlineStr"/>
       <c r="BU9" t="inlineStr"/>
       <c r="BV9" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="10">
@@ -2634,7 +2634,7 @@
       <c r="BT10" t="inlineStr"/>
       <c r="BU10" t="inlineStr"/>
       <c r="BV10" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="11">
@@ -2834,7 +2834,7 @@
       <c r="BT11" t="inlineStr"/>
       <c r="BU11" t="inlineStr"/>
       <c r="BV11" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="12">
@@ -3032,7 +3032,7 @@
       <c r="BT12" t="inlineStr"/>
       <c r="BU12" t="inlineStr"/>
       <c r="BV12" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="13">
@@ -3236,7 +3236,7 @@
       <c r="BT13" t="inlineStr"/>
       <c r="BU13" t="inlineStr"/>
       <c r="BV13" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="14">
@@ -3434,7 +3434,7 @@
       <c r="BT14" t="inlineStr"/>
       <c r="BU14" t="inlineStr"/>
       <c r="BV14" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="15">
@@ -3638,7 +3638,7 @@
       <c r="BT15" t="inlineStr"/>
       <c r="BU15" t="inlineStr"/>
       <c r="BV15" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="16">
@@ -3844,7 +3844,7 @@
       <c r="BT16" t="inlineStr"/>
       <c r="BU16" t="inlineStr"/>
       <c r="BV16" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="17">
@@ -4050,7 +4050,7 @@
       <c r="BT17" t="inlineStr"/>
       <c r="BU17" t="inlineStr"/>
       <c r="BV17" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="18">
@@ -4250,7 +4250,7 @@
       <c r="BT18" t="inlineStr"/>
       <c r="BU18" t="inlineStr"/>
       <c r="BV18" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="19">
@@ -4452,7 +4452,7 @@
       <c r="BT19" t="inlineStr"/>
       <c r="BU19" t="inlineStr"/>
       <c r="BV19" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="20">
@@ -4652,7 +4652,7 @@
       <c r="BT20" t="inlineStr"/>
       <c r="BU20" t="inlineStr"/>
       <c r="BV20" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="21">
@@ -4858,7 +4858,7 @@
       <c r="BT21" t="inlineStr"/>
       <c r="BU21" t="inlineStr"/>
       <c r="BV21" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="22">
@@ -5066,7 +5066,7 @@
       <c r="BT22" t="inlineStr"/>
       <c r="BU22" t="inlineStr"/>
       <c r="BV22" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="23">
@@ -5270,7 +5270,7 @@
       <c r="BT23" t="inlineStr"/>
       <c r="BU23" t="inlineStr"/>
       <c r="BV23" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="24">
@@ -5472,7 +5472,7 @@
       <c r="BT24" t="inlineStr"/>
       <c r="BU24" t="inlineStr"/>
       <c r="BV24" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="25">
@@ -5678,7 +5678,7 @@
       <c r="BT25" t="inlineStr"/>
       <c r="BU25" t="inlineStr"/>
       <c r="BV25" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="26">
@@ -5880,7 +5880,7 @@
       <c r="BT26" t="inlineStr"/>
       <c r="BU26" t="inlineStr"/>
       <c r="BV26" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="27">
@@ -6084,7 +6084,7 @@
       <c r="BT27" t="inlineStr"/>
       <c r="BU27" t="inlineStr"/>
       <c r="BV27" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="28">
@@ -6292,7 +6292,7 @@
       <c r="BT28" t="inlineStr"/>
       <c r="BU28" t="inlineStr"/>
       <c r="BV28" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="29">
@@ -6498,7 +6498,7 @@
       <c r="BT29" t="inlineStr"/>
       <c r="BU29" t="inlineStr"/>
       <c r="BV29" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="30">
@@ -6704,7 +6704,7 @@
       <c r="BT30" t="inlineStr"/>
       <c r="BU30" t="inlineStr"/>
       <c r="BV30" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="31">
@@ -6910,7 +6910,7 @@
       <c r="BT31" t="inlineStr"/>
       <c r="BU31" t="inlineStr"/>
       <c r="BV31" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="32">
@@ -7112,7 +7112,7 @@
       <c r="BT32" t="inlineStr"/>
       <c r="BU32" t="inlineStr"/>
       <c r="BV32" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="33">
@@ -7318,7 +7318,7 @@
       <c r="BT33" t="inlineStr"/>
       <c r="BU33" t="inlineStr"/>
       <c r="BV33" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="34">
@@ -7522,7 +7522,7 @@
       <c r="BT34" t="inlineStr"/>
       <c r="BU34" t="inlineStr"/>
       <c r="BV34" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="35">
@@ -7728,7 +7728,7 @@
       <c r="BT35" t="inlineStr"/>
       <c r="BU35" t="inlineStr"/>
       <c r="BV35" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="36">
@@ -7934,7 +7934,7 @@
       <c r="BT36" t="inlineStr"/>
       <c r="BU36" t="inlineStr"/>
       <c r="BV36" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="37">
@@ -8136,7 +8136,7 @@
       <c r="BT37" t="inlineStr"/>
       <c r="BU37" t="inlineStr"/>
       <c r="BV37" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="38">
@@ -8342,7 +8342,7 @@
       <c r="BT38" t="inlineStr"/>
       <c r="BU38" t="inlineStr"/>
       <c r="BV38" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="39">
@@ -8546,7 +8546,7 @@
       <c r="BT39" t="inlineStr"/>
       <c r="BU39" t="inlineStr"/>
       <c r="BV39" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="40">
@@ -8746,7 +8746,7 @@
       <c r="BT40" t="inlineStr"/>
       <c r="BU40" t="inlineStr"/>
       <c r="BV40" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="41">
@@ -8948,7 +8948,7 @@
       <c r="BT41" t="inlineStr"/>
       <c r="BU41" t="inlineStr"/>
       <c r="BV41" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="42">
@@ -9152,7 +9152,7 @@
       <c r="BT42" t="inlineStr"/>
       <c r="BU42" t="inlineStr"/>
       <c r="BV42" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="43">
@@ -9354,7 +9354,7 @@
       <c r="BT43" t="inlineStr"/>
       <c r="BU43" t="inlineStr"/>
       <c r="BV43" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="44">
@@ -9560,7 +9560,7 @@
       <c r="BT44" t="inlineStr"/>
       <c r="BU44" t="inlineStr"/>
       <c r="BV44" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="45">
@@ -9762,7 +9762,7 @@
       <c r="BT45" t="inlineStr"/>
       <c r="BU45" t="inlineStr"/>
       <c r="BV45" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="46">
@@ -9968,7 +9968,7 @@
       <c r="BT46" t="inlineStr"/>
       <c r="BU46" t="inlineStr"/>
       <c r="BV46" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="47">
@@ -10174,7 +10174,7 @@
       <c r="BT47" t="inlineStr"/>
       <c r="BU47" t="inlineStr"/>
       <c r="BV47" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="48">
@@ -10378,7 +10378,7 @@
       <c r="BT48" t="inlineStr"/>
       <c r="BU48" t="inlineStr"/>
       <c r="BV48" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="49">
@@ -10584,7 +10584,7 @@
       <c r="BT49" t="inlineStr"/>
       <c r="BU49" t="inlineStr"/>
       <c r="BV49" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="50">
@@ -10788,7 +10788,7 @@
       <c r="BT50" t="inlineStr"/>
       <c r="BU50" t="inlineStr"/>
       <c r="BV50" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="51">
@@ -10994,7 +10994,7 @@
       <c r="BT51" t="inlineStr"/>
       <c r="BU51" t="inlineStr"/>
       <c r="BV51" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="52">
@@ -11200,7 +11200,7 @@
       <c r="BT52" t="inlineStr"/>
       <c r="BU52" t="inlineStr"/>
       <c r="BV52" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="53">
@@ -11406,7 +11406,7 @@
       <c r="BT53" t="inlineStr"/>
       <c r="BU53" t="inlineStr"/>
       <c r="BV53" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="54">
@@ -11610,7 +11610,7 @@
       <c r="BT54" t="inlineStr"/>
       <c r="BU54" t="inlineStr"/>
       <c r="BV54" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="55">
@@ -11816,7 +11816,7 @@
       <c r="BT55" t="inlineStr"/>
       <c r="BU55" t="inlineStr"/>
       <c r="BV55" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="56">
@@ -12022,7 +12022,7 @@
       <c r="BT56" t="inlineStr"/>
       <c r="BU56" t="inlineStr"/>
       <c r="BV56" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="57">
@@ -12226,7 +12226,7 @@
       <c r="BT57" t="inlineStr"/>
       <c r="BU57" t="inlineStr"/>
       <c r="BV57" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="58">
@@ -12432,7 +12432,7 @@
       <c r="BT58" t="inlineStr"/>
       <c r="BU58" t="inlineStr"/>
       <c r="BV58" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="59">
@@ -12638,7 +12638,7 @@
       <c r="BT59" t="inlineStr"/>
       <c r="BU59" t="inlineStr"/>
       <c r="BV59" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="60">
@@ -12844,7 +12844,7 @@
       <c r="BT60" t="inlineStr"/>
       <c r="BU60" t="inlineStr"/>
       <c r="BV60" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="61">
@@ -13050,7 +13050,7 @@
       <c r="BT61" t="inlineStr"/>
       <c r="BU61" t="inlineStr"/>
       <c r="BV61" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="62">
@@ -13252,7 +13252,7 @@
       <c r="BT62" t="inlineStr"/>
       <c r="BU62" t="inlineStr"/>
       <c r="BV62" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="63">
@@ -13452,7 +13452,7 @@
       <c r="BT63" t="inlineStr"/>
       <c r="BU63" t="inlineStr"/>
       <c r="BV63" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="64">
@@ -13658,7 +13658,7 @@
       <c r="BT64" t="inlineStr"/>
       <c r="BU64" t="inlineStr"/>
       <c r="BV64" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="65">
@@ -13860,7 +13860,7 @@
       <c r="BT65" t="inlineStr"/>
       <c r="BU65" t="inlineStr"/>
       <c r="BV65" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="66">
@@ -14064,7 +14064,7 @@
       <c r="BT66" t="inlineStr"/>
       <c r="BU66" t="inlineStr"/>
       <c r="BV66" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="67">
@@ -14270,7 +14270,7 @@
       <c r="BT67" t="inlineStr"/>
       <c r="BU67" t="inlineStr"/>
       <c r="BV67" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="68">
@@ -14468,7 +14468,7 @@
       <c r="BT68" t="inlineStr"/>
       <c r="BU68" t="inlineStr"/>
       <c r="BV68" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="69">
@@ -14674,7 +14674,7 @@
       <c r="BT69" t="inlineStr"/>
       <c r="BU69" t="inlineStr"/>
       <c r="BV69" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="70">
@@ -14878,7 +14878,7 @@
       <c r="BT70" t="inlineStr"/>
       <c r="BU70" t="inlineStr"/>
       <c r="BV70" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="71">
@@ -15084,7 +15084,7 @@
       <c r="BT71" t="inlineStr"/>
       <c r="BU71" t="inlineStr"/>
       <c r="BV71" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="72">
@@ -15290,7 +15290,7 @@
       <c r="BT72" t="inlineStr"/>
       <c r="BU72" t="inlineStr"/>
       <c r="BV72" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="73">
@@ -15496,7 +15496,7 @@
       <c r="BT73" t="inlineStr"/>
       <c r="BU73" t="inlineStr"/>
       <c r="BV73" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="74">
@@ -15702,7 +15702,7 @@
       <c r="BT74" t="inlineStr"/>
       <c r="BU74" t="inlineStr"/>
       <c r="BV74" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="75">
@@ -15908,7 +15908,7 @@
       <c r="BT75" t="inlineStr"/>
       <c r="BU75" t="inlineStr"/>
       <c r="BV75" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="76">
@@ -16114,7 +16114,7 @@
       <c r="BT76" t="inlineStr"/>
       <c r="BU76" t="inlineStr"/>
       <c r="BV76" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="77">
@@ -16316,7 +16316,7 @@
       <c r="BT77" t="inlineStr"/>
       <c r="BU77" t="inlineStr"/>
       <c r="BV77" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="78">
@@ -16520,7 +16520,7 @@
       <c r="BT78" t="inlineStr"/>
       <c r="BU78" t="inlineStr"/>
       <c r="BV78" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="79">
@@ -16722,7 +16722,7 @@
       <c r="BT79" t="inlineStr"/>
       <c r="BU79" t="inlineStr"/>
       <c r="BV79" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="80">
@@ -16928,7 +16928,7 @@
       <c r="BT80" t="inlineStr"/>
       <c r="BU80" t="inlineStr"/>
       <c r="BV80" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="81">
@@ -17126,7 +17126,7 @@
       <c r="BT81" t="inlineStr"/>
       <c r="BU81" t="inlineStr"/>
       <c r="BV81" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="82">
@@ -17330,7 +17330,7 @@
       <c r="BT82" t="inlineStr"/>
       <c r="BU82" t="inlineStr"/>
       <c r="BV82" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="83">
@@ -17536,7 +17536,7 @@
       <c r="BT83" t="inlineStr"/>
       <c r="BU83" t="inlineStr"/>
       <c r="BV83" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="84">
@@ -17740,7 +17740,7 @@
       <c r="BT84" t="inlineStr"/>
       <c r="BU84" t="inlineStr"/>
       <c r="BV84" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="85">
@@ -17944,7 +17944,7 @@
       <c r="BT85" t="inlineStr"/>
       <c r="BU85" t="inlineStr"/>
       <c r="BV85" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="86">
@@ -18148,7 +18148,7 @@
       <c r="BT86" t="inlineStr"/>
       <c r="BU86" t="inlineStr"/>
       <c r="BV86" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="87">
@@ -18352,7 +18352,7 @@
       <c r="BT87" t="inlineStr"/>
       <c r="BU87" t="inlineStr"/>
       <c r="BV87" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="88">
@@ -18556,7 +18556,7 @@
       <c r="BT88" t="inlineStr"/>
       <c r="BU88" t="inlineStr"/>
       <c r="BV88" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="89">
@@ -18758,7 +18758,7 @@
       <c r="BT89" t="inlineStr"/>
       <c r="BU89" t="inlineStr"/>
       <c r="BV89" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="90">
@@ -18962,7 +18962,7 @@
       <c r="BT90" t="inlineStr"/>
       <c r="BU90" t="inlineStr"/>
       <c r="BV90" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="91">
@@ -19166,7 +19166,7 @@
       <c r="BT91" t="inlineStr"/>
       <c r="BU91" t="inlineStr"/>
       <c r="BV91" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="92">
@@ -19372,7 +19372,7 @@
       <c r="BT92" t="inlineStr"/>
       <c r="BU92" t="inlineStr"/>
       <c r="BV92" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="93">
@@ -19574,7 +19574,7 @@
       <c r="BT93" t="inlineStr"/>
       <c r="BU93" t="inlineStr"/>
       <c r="BV93" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="94">
@@ -19776,7 +19776,7 @@
       <c r="BT94" t="inlineStr"/>
       <c r="BU94" t="inlineStr"/>
       <c r="BV94" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="95">
@@ -19978,7 +19978,7 @@
       <c r="BT95" t="inlineStr"/>
       <c r="BU95" t="inlineStr"/>
       <c r="BV95" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="96">
@@ -20184,7 +20184,7 @@
       <c r="BT96" t="inlineStr"/>
       <c r="BU96" t="inlineStr"/>
       <c r="BV96" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="97">
@@ -20386,7 +20386,7 @@
       <c r="BT97" t="inlineStr"/>
       <c r="BU97" t="inlineStr"/>
       <c r="BV97" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="98">
@@ -20588,7 +20588,7 @@
       <c r="BT98" t="inlineStr"/>
       <c r="BU98" t="inlineStr"/>
       <c r="BV98" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="99">
@@ -20790,7 +20790,7 @@
       <c r="BT99" t="inlineStr"/>
       <c r="BU99" t="inlineStr"/>
       <c r="BV99" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="100">
@@ -20994,7 +20994,7 @@
       <c r="BT100" t="inlineStr"/>
       <c r="BU100" t="inlineStr"/>
       <c r="BV100" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="101">
@@ -21198,7 +21198,7 @@
       <c r="BT101" t="inlineStr"/>
       <c r="BU101" t="inlineStr"/>
       <c r="BV101" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="102">
@@ -21400,7 +21400,7 @@
       <c r="BT102" t="inlineStr"/>
       <c r="BU102" t="inlineStr"/>
       <c r="BV102" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="103">
@@ -21604,7 +21604,7 @@
       <c r="BT103" t="inlineStr"/>
       <c r="BU103" t="inlineStr"/>
       <c r="BV103" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="104">
@@ -21808,7 +21808,7 @@
       <c r="BT104" t="inlineStr"/>
       <c r="BU104" t="inlineStr"/>
       <c r="BV104" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="105">
@@ -22010,7 +22010,7 @@
       <c r="BT105" t="inlineStr"/>
       <c r="BU105" t="inlineStr"/>
       <c r="BV105" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="106">
@@ -22210,7 +22210,7 @@
       <c r="BT106" t="inlineStr"/>
       <c r="BU106" t="inlineStr"/>
       <c r="BV106" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="107">
@@ -22414,7 +22414,7 @@
       <c r="BT107" t="inlineStr"/>
       <c r="BU107" t="inlineStr"/>
       <c r="BV107" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="108">
@@ -22618,7 +22618,7 @@
       <c r="BT108" t="inlineStr"/>
       <c r="BU108" t="inlineStr"/>
       <c r="BV108" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="109">
@@ -22822,7 +22822,7 @@
       <c r="BT109" t="inlineStr"/>
       <c r="BU109" t="inlineStr"/>
       <c r="BV109" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="110">
@@ -23026,7 +23026,7 @@
       <c r="BT110" t="inlineStr"/>
       <c r="BU110" t="inlineStr"/>
       <c r="BV110" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="111">
@@ -23230,7 +23230,7 @@
       <c r="BT111" t="inlineStr"/>
       <c r="BU111" t="inlineStr"/>
       <c r="BV111" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="112">
@@ -23432,7 +23432,7 @@
       <c r="BT112" t="inlineStr"/>
       <c r="BU112" t="inlineStr"/>
       <c r="BV112" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="113">
@@ -23638,7 +23638,7 @@
       <c r="BT113" t="inlineStr"/>
       <c r="BU113" t="inlineStr"/>
       <c r="BV113" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="114">
@@ -23846,7 +23846,7 @@
       <c r="BT114" t="inlineStr"/>
       <c r="BU114" t="inlineStr"/>
       <c r="BV114" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="115">
@@ -24050,7 +24050,7 @@
       <c r="BT115" t="inlineStr"/>
       <c r="BU115" t="inlineStr"/>
       <c r="BV115" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="116">
@@ -24252,7 +24252,7 @@
       <c r="BT116" t="inlineStr"/>
       <c r="BU116" t="inlineStr"/>
       <c r="BV116" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="117">
@@ -24456,7 +24456,7 @@
       <c r="BT117" t="inlineStr"/>
       <c r="BU117" t="inlineStr"/>
       <c r="BV117" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="118">
@@ -24662,7 +24662,7 @@
       <c r="BT118" t="inlineStr"/>
       <c r="BU118" t="inlineStr"/>
       <c r="BV118" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="119">
@@ -24864,7 +24864,7 @@
       <c r="BT119" t="inlineStr"/>
       <c r="BU119" t="inlineStr"/>
       <c r="BV119" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="120">
@@ -25066,7 +25066,7 @@
       <c r="BT120" t="inlineStr"/>
       <c r="BU120" t="inlineStr"/>
       <c r="BV120" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="121">
@@ -25270,7 +25270,7 @@
       <c r="BT121" t="inlineStr"/>
       <c r="BU121" t="inlineStr"/>
       <c r="BV121" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="122">
@@ -25474,7 +25474,7 @@
       <c r="BT122" t="inlineStr"/>
       <c r="BU122" t="inlineStr"/>
       <c r="BV122" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="123">
@@ -25680,7 +25680,7 @@
       <c r="BT123" t="inlineStr"/>
       <c r="BU123" t="inlineStr"/>
       <c r="BV123" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="124">
@@ -25882,7 +25882,7 @@
       <c r="BT124" t="inlineStr"/>
       <c r="BU124" t="inlineStr"/>
       <c r="BV124" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="125">
@@ -26086,7 +26086,7 @@
       <c r="BT125" t="inlineStr"/>
       <c r="BU125" t="inlineStr"/>
       <c r="BV125" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="126">
@@ -26290,7 +26290,7 @@
       <c r="BT126" t="inlineStr"/>
       <c r="BU126" t="inlineStr"/>
       <c r="BV126" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="127">
@@ -26498,7 +26498,7 @@
       <c r="BT127" t="inlineStr"/>
       <c r="BU127" t="inlineStr"/>
       <c r="BV127" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="128">
@@ -26704,7 +26704,7 @@
       <c r="BT128" t="inlineStr"/>
       <c r="BU128" t="inlineStr"/>
       <c r="BV128" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="129">
@@ -26908,7 +26908,7 @@
       <c r="BT129" t="inlineStr"/>
       <c r="BU129" t="inlineStr"/>
       <c r="BV129" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="130">
@@ -27114,7 +27114,7 @@
       <c r="BT130" t="inlineStr"/>
       <c r="BU130" t="inlineStr"/>
       <c r="BV130" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="131">
@@ -27320,7 +27320,7 @@
       <c r="BT131" t="inlineStr"/>
       <c r="BU131" t="inlineStr"/>
       <c r="BV131" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="132">
@@ -27522,7 +27522,7 @@
       <c r="BT132" t="inlineStr"/>
       <c r="BU132" t="inlineStr"/>
       <c r="BV132" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="133">
@@ -27724,7 +27724,7 @@
       <c r="BT133" t="inlineStr"/>
       <c r="BU133" t="inlineStr"/>
       <c r="BV133" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="134">
@@ -27926,7 +27926,7 @@
       <c r="BT134" t="inlineStr"/>
       <c r="BU134" t="inlineStr"/>
       <c r="BV134" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="135">
@@ -28128,7 +28128,7 @@
       <c r="BT135" t="inlineStr"/>
       <c r="BU135" t="inlineStr"/>
       <c r="BV135" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="136">
@@ -28334,7 +28334,7 @@
       <c r="BT136" t="inlineStr"/>
       <c r="BU136" t="inlineStr"/>
       <c r="BV136" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="137">
@@ -28532,7 +28532,7 @@
       <c r="BT137" t="inlineStr"/>
       <c r="BU137" t="inlineStr"/>
       <c r="BV137" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="138">
@@ -28734,7 +28734,7 @@
       <c r="BT138" t="inlineStr"/>
       <c r="BU138" t="inlineStr"/>
       <c r="BV138" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="139">
@@ -28938,7 +28938,7 @@
       <c r="BT139" t="inlineStr"/>
       <c r="BU139" t="inlineStr"/>
       <c r="BV139" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="140">
@@ -29140,7 +29140,7 @@
       <c r="BT140" t="inlineStr"/>
       <c r="BU140" t="inlineStr"/>
       <c r="BV140" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="141">
@@ -29346,7 +29346,7 @@
       <c r="BT141" t="inlineStr"/>
       <c r="BU141" t="inlineStr"/>
       <c r="BV141" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="142">
@@ -29548,7 +29548,7 @@
       <c r="BT142" t="inlineStr"/>
       <c r="BU142" t="inlineStr"/>
       <c r="BV142" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="143">
@@ -29750,7 +29750,7 @@
       <c r="BT143" t="inlineStr"/>
       <c r="BU143" t="inlineStr"/>
       <c r="BV143" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="144">
@@ -29952,7 +29952,7 @@
       <c r="BT144" t="inlineStr"/>
       <c r="BU144" t="inlineStr"/>
       <c r="BV144" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="145">
@@ -30156,7 +30156,7 @@
       <c r="BT145" t="inlineStr"/>
       <c r="BU145" t="inlineStr"/>
       <c r="BV145" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="146">
@@ -30362,7 +30362,7 @@
       <c r="BT146" t="inlineStr"/>
       <c r="BU146" t="inlineStr"/>
       <c r="BV146" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="147">
@@ -30564,7 +30564,7 @@
       <c r="BT147" t="inlineStr"/>
       <c r="BU147" t="inlineStr"/>
       <c r="BV147" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="148">
@@ -30766,7 +30766,7 @@
       <c r="BT148" t="inlineStr"/>
       <c r="BU148" t="inlineStr"/>
       <c r="BV148" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="149">
@@ -30970,7 +30970,7 @@
       <c r="BT149" t="inlineStr"/>
       <c r="BU149" t="inlineStr"/>
       <c r="BV149" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="150">
@@ -31178,7 +31178,7 @@
       <c r="BT150" t="inlineStr"/>
       <c r="BU150" t="inlineStr"/>
       <c r="BV150" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="151">
@@ -31384,7 +31384,7 @@
       <c r="BT151" t="inlineStr"/>
       <c r="BU151" t="inlineStr"/>
       <c r="BV151" t="n">
-        <v>0.3</v>
+        <v>1.1</v>
       </c>
     </row>
   </sheetData>

--- a/tests/VN8413_Data_preview.xlsx
+++ b/tests/VN8413_Data_preview.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="df_data" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="df_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="df_data" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="df_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8987,7 +8987,7 @@
       <c r="AC41" t="inlineStr"/>
       <c r="AD41" t="inlineStr">
         <is>
-          <t> </t>
+          <t xml:space="preserve"> </t>
         </is>
       </c>
       <c r="AE41" t="n">
